--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['45+2', '66', '68', '82']</t>
   </si>
   <si>
+    <t>['45+9']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -767,6 +770,12 @@
   </si>
   <si>
     <t>['45', '89']</t>
+  </si>
+  <si>
+    <t>['45+5', '70']</t>
+  </si>
+  <si>
+    <t>['58', '61']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1396,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1468,7 +1477,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1593,7 +1602,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1671,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ3">
         <v>1.6</v>
@@ -1877,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2211,7 +2220,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2292,7 +2301,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2426,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2623,7 +2632,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2907,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3035,7 +3044,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3241,7 +3250,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3653,7 +3662,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3859,7 +3868,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4065,7 +4074,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4271,7 +4280,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -5095,7 +5104,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5301,7 +5310,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5588,7 +5597,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR22">
         <v>1.96</v>
@@ -5791,10 +5800,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ23">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5919,7 +5928,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -5997,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>0.88</v>
@@ -6125,7 +6134,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6409,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6618,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR27">
         <v>2</v>
@@ -7155,7 +7164,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8391,7 +8400,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8597,7 +8606,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -8881,7 +8890,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ38">
         <v>1.2</v>
@@ -9215,7 +9224,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9499,7 +9508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0.44</v>
@@ -9627,7 +9636,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9833,7 +9842,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9914,7 +9923,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10120,7 +10129,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10245,7 +10254,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10323,7 +10332,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2.22</v>
@@ -10657,7 +10666,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10735,7 +10744,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ47">
         <v>1.89</v>
@@ -11069,7 +11078,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11147,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0.89</v>
@@ -11481,7 +11490,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11687,7 +11696,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11893,7 +11902,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12592,7 +12601,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR56">
         <v>1.48</v>
@@ -12923,7 +12932,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13001,7 +13010,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58">
         <v>2.22</v>
@@ -13129,7 +13138,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13210,7 +13219,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ59">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13541,7 +13550,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14240,7 +14249,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ64">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>2.21</v>
@@ -14571,7 +14580,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14649,7 +14658,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ66">
         <v>1.5</v>
@@ -14983,7 +14992,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15064,7 +15073,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ68">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR68">
         <v>0.92</v>
@@ -15807,7 +15816,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16219,7 +16228,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16297,7 +16306,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ74">
         <v>1.7</v>
@@ -16425,7 +16434,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16631,7 +16640,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16915,10 +16924,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17043,7 +17052,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17249,7 +17258,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17330,7 +17339,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17455,7 +17464,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -18357,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18485,7 +18494,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18691,7 +18700,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18897,7 +18906,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19309,7 +19318,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19515,7 +19524,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19721,7 +19730,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19802,7 +19811,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR91">
         <v>1.61</v>
@@ -19927,7 +19936,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20005,7 +20014,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.63</v>
@@ -20133,7 +20142,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20211,7 +20220,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
         <v>0.89</v>
@@ -21038,7 +21047,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ97">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR97">
         <v>1.73</v>
@@ -21163,7 +21172,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21369,7 +21378,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21450,7 +21459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.55</v>
@@ -21575,7 +21584,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21781,7 +21790,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21987,7 +21996,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22399,7 +22408,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22889,7 +22898,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23223,7 +23232,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23510,7 +23519,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR109">
         <v>1.08</v>
@@ -23635,7 +23644,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23716,7 +23725,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ110">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23841,7 +23850,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24331,7 +24340,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
         <v>0.6</v>
@@ -25283,7 +25292,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25364,7 +25373,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ118">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR118">
         <v>0.78</v>
@@ -25695,7 +25704,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26107,7 +26116,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26185,7 +26194,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>2.11</v>
@@ -26313,7 +26322,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27009,10 +27018,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR126">
         <v>1.44</v>
@@ -27424,7 +27433,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR128">
         <v>0.96</v>
@@ -27755,7 +27764,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27961,7 +27970,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28042,7 +28051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR131">
         <v>1.17</v>
@@ -28451,7 +28460,7 @@
         <v>1.71</v>
       </c>
       <c r="AP133">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -28579,7 +28588,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29197,7 +29206,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29403,7 +29412,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29609,7 +29618,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29687,7 +29696,7 @@
         <v>1.14</v>
       </c>
       <c r="AP139">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1.38</v>
@@ -29815,7 +29824,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30021,7 +30030,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30099,7 +30108,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ141">
         <v>1.7</v>
@@ -30227,7 +30236,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30308,7 +30317,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR142">
         <v>1.62</v>
@@ -30639,7 +30648,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30845,7 +30854,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31463,7 +31472,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31669,7 +31678,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31875,7 +31884,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32162,7 +32171,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ151">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.09</v>
@@ -32287,7 +32296,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32905,7 +32914,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33395,10 +33404,10 @@
         <v>1.06</v>
       </c>
       <c r="AP157">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR157">
         <v>1.17</v>
@@ -33523,7 +33532,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33935,7 +33944,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34016,7 +34025,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ160">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34141,7 +34150,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34219,10 +34228,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.28</v>
@@ -34631,10 +34640,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR163">
         <v>0.99</v>
@@ -34759,7 +34768,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34837,10 +34846,10 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AQ164">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AR164">
         <v>1.24</v>
@@ -35171,7 +35180,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35789,7 +35798,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35946,6 +35955,624 @@
       </c>
       <c r="BP169">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7847676</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45775.45833333334</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>83</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>177</v>
+      </c>
+      <c r="P170" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q170">
+        <v>3.64</v>
+      </c>
+      <c r="R170">
+        <v>1.74</v>
+      </c>
+      <c r="S170">
+        <v>3.95</v>
+      </c>
+      <c r="T170">
+        <v>1.65</v>
+      </c>
+      <c r="U170">
+        <v>2.1</v>
+      </c>
+      <c r="V170">
+        <v>4</v>
+      </c>
+      <c r="W170">
+        <v>1.2</v>
+      </c>
+      <c r="X170">
+        <v>11</v>
+      </c>
+      <c r="Y170">
+        <v>1.01</v>
+      </c>
+      <c r="Z170">
+        <v>2.92</v>
+      </c>
+      <c r="AA170">
+        <v>2.46</v>
+      </c>
+      <c r="AB170">
+        <v>3.1</v>
+      </c>
+      <c r="AC170">
+        <v>1.12</v>
+      </c>
+      <c r="AD170">
+        <v>5.28</v>
+      </c>
+      <c r="AE170">
+        <v>1.75</v>
+      </c>
+      <c r="AF170">
+        <v>2</v>
+      </c>
+      <c r="AG170">
+        <v>2.89</v>
+      </c>
+      <c r="AH170">
+        <v>1.36</v>
+      </c>
+      <c r="AI170">
+        <v>2.15</v>
+      </c>
+      <c r="AJ170">
+        <v>1.55</v>
+      </c>
+      <c r="AK170">
+        <v>1.45</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>1.42</v>
+      </c>
+      <c r="AN170">
+        <v>1.21</v>
+      </c>
+      <c r="AO170">
+        <v>1.05</v>
+      </c>
+      <c r="AP170">
+        <v>1.2</v>
+      </c>
+      <c r="AQ170">
+        <v>1.05</v>
+      </c>
+      <c r="AR170">
+        <v>1.17</v>
+      </c>
+      <c r="AS170">
+        <v>1.35</v>
+      </c>
+      <c r="AT170">
+        <v>2.52</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>3</v>
+      </c>
+      <c r="AW170">
+        <v>9</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>11</v>
+      </c>
+      <c r="AZ170">
+        <v>7</v>
+      </c>
+      <c r="BA170">
+        <v>2</v>
+      </c>
+      <c r="BB170">
+        <v>8</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>2.18</v>
+      </c>
+      <c r="BE170">
+        <v>7.7</v>
+      </c>
+      <c r="BF170">
+        <v>1.95</v>
+      </c>
+      <c r="BG170">
+        <v>1.4</v>
+      </c>
+      <c r="BH170">
+        <v>2.7</v>
+      </c>
+      <c r="BI170">
+        <v>1.67</v>
+      </c>
+      <c r="BJ170">
+        <v>2.1</v>
+      </c>
+      <c r="BK170">
+        <v>2.1</v>
+      </c>
+      <c r="BL170">
+        <v>1.67</v>
+      </c>
+      <c r="BM170">
+        <v>2.62</v>
+      </c>
+      <c r="BN170">
+        <v>1.42</v>
+      </c>
+      <c r="BO170">
+        <v>3.6</v>
+      </c>
+      <c r="BP170">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7847678</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>80</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>108</v>
+      </c>
+      <c r="P171" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q171">
+        <v>3.2</v>
+      </c>
+      <c r="R171">
+        <v>1.8</v>
+      </c>
+      <c r="S171">
+        <v>4.33</v>
+      </c>
+      <c r="T171">
+        <v>1.73</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>4.33</v>
+      </c>
+      <c r="W171">
+        <v>1.2</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.03</v>
+      </c>
+      <c r="Z171">
+        <v>2.45</v>
+      </c>
+      <c r="AA171">
+        <v>2.45</v>
+      </c>
+      <c r="AB171">
+        <v>3.9</v>
+      </c>
+      <c r="AC171">
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <v>0</v>
+      </c>
+      <c r="AE171">
+        <v>1.77</v>
+      </c>
+      <c r="AF171">
+        <v>1.98</v>
+      </c>
+      <c r="AG171">
+        <v>4</v>
+      </c>
+      <c r="AH171">
+        <v>1.22</v>
+      </c>
+      <c r="AI171">
+        <v>2.63</v>
+      </c>
+      <c r="AJ171">
+        <v>1.44</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>1.17</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>1.11</v>
+      </c>
+      <c r="AQ171">
+        <v>1.1</v>
+      </c>
+      <c r="AR171">
+        <v>1.31</v>
+      </c>
+      <c r="AS171">
+        <v>1.06</v>
+      </c>
+      <c r="AT171">
+        <v>2.37</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>2</v>
+      </c>
+      <c r="AW171">
+        <v>12</v>
+      </c>
+      <c r="AX171">
+        <v>4</v>
+      </c>
+      <c r="AY171">
+        <v>17</v>
+      </c>
+      <c r="AZ171">
+        <v>6</v>
+      </c>
+      <c r="BA171">
+        <v>7</v>
+      </c>
+      <c r="BB171">
+        <v>3</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7847677</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45775.58333333334</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="G172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H172" t="s">
+        <v>81</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>89</v>
+      </c>
+      <c r="P172" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q172">
+        <v>3.95</v>
+      </c>
+      <c r="R172">
+        <v>1.72</v>
+      </c>
+      <c r="S172">
+        <v>3.3</v>
+      </c>
+      <c r="T172">
+        <v>1.68</v>
+      </c>
+      <c r="U172">
+        <v>2.21</v>
+      </c>
+      <c r="V172">
+        <v>3.8</v>
+      </c>
+      <c r="W172">
+        <v>1.18</v>
+      </c>
+      <c r="X172">
+        <v>15</v>
+      </c>
+      <c r="Y172">
+        <v>1.02</v>
+      </c>
+      <c r="Z172">
+        <v>3.38</v>
+      </c>
+      <c r="AA172">
+        <v>2.46</v>
+      </c>
+      <c r="AB172">
+        <v>2.74</v>
+      </c>
+      <c r="AC172">
+        <v>1.13</v>
+      </c>
+      <c r="AD172">
+        <v>4.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.65</v>
+      </c>
+      <c r="AF172">
+        <v>2.13</v>
+      </c>
+      <c r="AG172">
+        <v>2.88</v>
+      </c>
+      <c r="AH172">
+        <v>1.32</v>
+      </c>
+      <c r="AI172">
+        <v>2.35</v>
+      </c>
+      <c r="AJ172">
+        <v>1.55</v>
+      </c>
+      <c r="AK172">
+        <v>1.47</v>
+      </c>
+      <c r="AL172">
+        <v>0</v>
+      </c>
+      <c r="AM172">
+        <v>1.36</v>
+      </c>
+      <c r="AN172">
+        <v>0.84</v>
+      </c>
+      <c r="AO172">
+        <v>1.26</v>
+      </c>
+      <c r="AP172">
+        <v>0.8</v>
+      </c>
+      <c r="AQ172">
+        <v>1.35</v>
+      </c>
+      <c r="AR172">
+        <v>0.99</v>
+      </c>
+      <c r="AS172">
+        <v>1.31</v>
+      </c>
+      <c r="AT172">
+        <v>2.3</v>
+      </c>
+      <c r="AU172">
+        <v>0</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>5</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>5</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>10</v>
+      </c>
+      <c r="BD172">
+        <v>2.16</v>
+      </c>
+      <c r="BE172">
+        <v>5.75</v>
+      </c>
+      <c r="BF172">
+        <v>2.05</v>
+      </c>
+      <c r="BG172">
+        <v>1.67</v>
+      </c>
+      <c r="BH172">
+        <v>2.18</v>
+      </c>
+      <c r="BI172">
+        <v>2.08</v>
+      </c>
+      <c r="BJ172">
+        <v>1.7</v>
+      </c>
+      <c r="BK172">
+        <v>2.68</v>
+      </c>
+      <c r="BL172">
+        <v>1.41</v>
+      </c>
+      <c r="BM172">
+        <v>3.65</v>
+      </c>
+      <c r="BN172">
+        <v>1.22</v>
+      </c>
+      <c r="BO172">
+        <v>5.05</v>
+      </c>
+      <c r="BP172">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>['45+9']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
   <si>
     <t>['34', '45+4', '46']</t>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1399,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1602,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2220,7 +2223,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2426,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2632,7 +2635,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2919,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3044,7 +3047,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3250,7 +3253,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3662,7 +3665,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3868,7 +3871,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4074,7 +4077,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4280,7 +4283,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4358,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
         <v>2.22</v>
@@ -5104,7 +5107,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5310,7 +5313,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5928,7 +5931,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6009,7 +6012,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR24">
         <v>1.3</v>
@@ -6134,7 +6137,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7164,7 +7167,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8066,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8400,7 +8403,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8606,7 +8609,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9224,7 +9227,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9636,7 +9639,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9842,7 +9845,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10254,7 +10257,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10666,7 +10669,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11078,7 +11081,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11490,7 +11493,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11571,7 +11574,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.77</v>
@@ -11696,7 +11699,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11902,7 +11905,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12804,7 +12807,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
         <v>2.11</v>
@@ -12932,7 +12935,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13138,7 +13141,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13550,7 +13553,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14580,7 +14583,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14992,7 +14995,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15485,7 +15488,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR70">
         <v>1.68</v>
@@ -15816,7 +15819,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16228,7 +16231,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16434,7 +16437,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16640,7 +16643,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16718,7 +16721,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>1.63</v>
@@ -17052,7 +17055,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17258,7 +17261,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17464,7 +17467,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -18494,7 +18497,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18700,7 +18703,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18906,7 +18909,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19318,7 +19321,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19524,7 +19527,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19730,7 +19733,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19936,7 +19939,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20142,7 +20145,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20632,7 +20635,7 @@
         <v>1.8</v>
       </c>
       <c r="AP95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
         <v>1.7</v>
@@ -21172,7 +21175,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21253,7 +21256,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ98">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21378,7 +21381,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21584,7 +21587,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21790,7 +21793,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21996,7 +21999,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22408,7 +22411,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23232,7 +23235,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23644,7 +23647,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23850,7 +23853,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24137,7 +24140,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ112">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -25292,7 +25295,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25370,7 +25373,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ118">
         <v>1.09</v>
@@ -25704,7 +25707,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26116,7 +26119,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26322,7 +26325,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27430,7 +27433,7 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -27764,7 +27767,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27970,7 +27973,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28588,7 +28591,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28875,7 +28878,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ135">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR135">
         <v>1.18</v>
@@ -29206,7 +29209,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29412,7 +29415,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29618,7 +29621,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29824,7 +29827,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30030,7 +30033,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30236,7 +30239,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30648,7 +30651,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30854,7 +30857,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31472,7 +31475,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31678,7 +31681,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31756,7 +31759,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ149">
         <v>1.89</v>
@@ -31884,7 +31887,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32296,7 +32299,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32789,7 +32792,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR154">
         <v>1.59</v>
@@ -32914,7 +32917,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33532,7 +33535,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33944,7 +33947,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34022,7 +34025,7 @@
         <v>1.24</v>
       </c>
       <c r="AP160">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
         <v>1.35</v>
@@ -34150,7 +34153,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34434,7 +34437,7 @@
         <v>0.72</v>
       </c>
       <c r="AP162">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AQ162">
         <v>0.68</v>
@@ -34768,7 +34771,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35052,7 +35055,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
         <v>1.05</v>
@@ -35180,7 +35183,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35798,7 +35801,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36210,7 +36213,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36416,7 +36419,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36573,6 +36576,212 @@
       </c>
       <c r="BP172">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7847679</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45776.58333333334</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173" t="s">
+        <v>84</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>178</v>
+      </c>
+      <c r="P173" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q173">
+        <v>3.45</v>
+      </c>
+      <c r="R173">
+        <v>1.83</v>
+      </c>
+      <c r="S173">
+        <v>4.5</v>
+      </c>
+      <c r="T173">
+        <v>1.81</v>
+      </c>
+      <c r="U173">
+        <v>2.13</v>
+      </c>
+      <c r="V173">
+        <v>4</v>
+      </c>
+      <c r="W173">
+        <v>1.2</v>
+      </c>
+      <c r="X173">
+        <v>11</v>
+      </c>
+      <c r="Y173">
+        <v>1.03</v>
+      </c>
+      <c r="Z173">
+        <v>2.45</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>1.15</v>
+      </c>
+      <c r="AD173">
+        <v>4.7</v>
+      </c>
+      <c r="AE173">
+        <v>1.65</v>
+      </c>
+      <c r="AF173">
+        <v>2.05</v>
+      </c>
+      <c r="AG173">
+        <v>3.2</v>
+      </c>
+      <c r="AH173">
+        <v>1.3</v>
+      </c>
+      <c r="AI173">
+        <v>2.2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.57</v>
+      </c>
+      <c r="AK173">
+        <v>1.5</v>
+      </c>
+      <c r="AL173">
+        <v>1.47</v>
+      </c>
+      <c r="AM173">
+        <v>1.52</v>
+      </c>
+      <c r="AN173">
+        <v>0.83</v>
+      </c>
+      <c r="AO173">
+        <v>1.05</v>
+      </c>
+      <c r="AP173">
+        <v>0.95</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>0.99</v>
+      </c>
+      <c r="AS173">
+        <v>1.21</v>
+      </c>
+      <c r="AT173">
+        <v>2.2</v>
+      </c>
+      <c r="AU173">
+        <v>2</v>
+      </c>
+      <c r="AV173">
+        <v>2</v>
+      </c>
+      <c r="AW173">
+        <v>6</v>
+      </c>
+      <c r="AX173">
+        <v>3</v>
+      </c>
+      <c r="AY173">
+        <v>8</v>
+      </c>
+      <c r="AZ173">
+        <v>5</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>6</v>
+      </c>
+      <c r="BD173">
+        <v>1.98</v>
+      </c>
+      <c r="BE173">
+        <v>6.15</v>
+      </c>
+      <c r="BF173">
+        <v>2.22</v>
+      </c>
+      <c r="BG173">
+        <v>1.42</v>
+      </c>
+      <c r="BH173">
+        <v>2.62</v>
+      </c>
+      <c r="BI173">
+        <v>1.7</v>
+      </c>
+      <c r="BJ173">
+        <v>2.05</v>
+      </c>
+      <c r="BK173">
+        <v>2.1</v>
+      </c>
+      <c r="BL173">
+        <v>1.65</v>
+      </c>
+      <c r="BM173">
+        <v>2.7</v>
+      </c>
+      <c r="BN173">
+        <v>1.4</v>
+      </c>
+      <c r="BO173">
+        <v>3.6</v>
+      </c>
+      <c r="BP173">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['45', '45+5']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -779,6 +785,12 @@
   </si>
   <si>
     <t>['58', '61']</t>
+  </si>
+  <si>
+    <t>['43', '87']</t>
+  </si>
+  <si>
+    <t>['10', '15', '63']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1411,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1477,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1605,7 +1617,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2223,7 +2235,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2429,7 +2441,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2635,7 +2647,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3047,7 +3059,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3253,7 +3265,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3665,7 +3677,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3746,7 +3758,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3871,7 +3883,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3949,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -4077,7 +4089,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4283,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4364,7 +4376,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5107,7 +5119,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5313,7 +5325,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5931,7 +5943,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6137,7 +6149,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6833,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7167,7 +7179,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7660,7 +7672,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -8278,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8403,7 +8415,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8481,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8609,7 +8621,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9099,7 +9111,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -9227,7 +9239,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9639,7 +9651,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9845,7 +9857,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10257,7 +10269,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10338,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR45">
         <v>1.27</v>
@@ -10669,7 +10681,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11081,7 +11093,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11493,7 +11505,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11699,7 +11711,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11905,7 +11917,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11986,7 +11998,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR53">
         <v>0.97</v>
@@ -12189,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12395,7 +12407,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12810,7 +12822,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR57">
         <v>0.89</v>
@@ -12935,7 +12947,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13016,7 +13028,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13141,7 +13153,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13553,7 +13565,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14455,7 +14467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ65">
         <v>0.44</v>
@@ -14583,7 +14595,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14995,7 +15007,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15819,7 +15831,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16231,7 +16243,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16437,7 +16449,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16643,7 +16655,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17055,7 +17067,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17136,7 +17148,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ78">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17261,7 +17273,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17467,7 +17479,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17548,7 +17560,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ80">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -17751,7 +17763,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ81">
         <v>1.6</v>
@@ -18497,7 +18509,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18703,7 +18715,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18784,7 +18796,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR86">
         <v>1.96</v>
@@ -18909,7 +18921,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19193,7 +19205,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88">
         <v>0.33</v>
@@ -19321,7 +19333,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19527,7 +19539,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19733,7 +19745,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19939,7 +19951,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20145,7 +20157,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -21047,7 +21059,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
         <v>1.09</v>
@@ -21175,7 +21187,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21381,7 +21393,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21587,7 +21599,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21668,7 +21680,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR100">
         <v>1.18</v>
@@ -21793,7 +21805,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21999,7 +22011,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22411,7 +22423,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22492,7 +22504,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ104">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22695,7 +22707,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ105">
         <v>0.44</v>
@@ -23235,7 +23247,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23647,7 +23659,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23725,7 +23737,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -23853,7 +23865,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -25295,7 +25307,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25707,7 +25719,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25991,7 +26003,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121">
         <v>1.38</v>
@@ -26119,7 +26131,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26200,7 +26212,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR122">
         <v>1.04</v>
@@ -26325,7 +26337,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26818,7 +26830,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27767,7 +27779,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27845,7 +27857,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ130">
         <v>0.89</v>
@@ -27973,7 +27985,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28591,7 +28603,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29209,7 +29221,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29415,7 +29427,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29493,10 +29505,10 @@
         <v>2.14</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR138">
         <v>1.02</v>
@@ -29621,7 +29633,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29827,7 +29839,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30033,7 +30045,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30239,7 +30251,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30651,7 +30663,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30732,7 +30744,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ144">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AR144">
         <v>1.03</v>
@@ -30857,7 +30869,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31475,7 +31487,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31681,7 +31693,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31887,7 +31899,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32299,7 +32311,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32789,7 +32801,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ154">
         <v>0.78</v>
@@ -32917,7 +32929,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -32995,10 +33007,10 @@
         <v>1.29</v>
       </c>
       <c r="AP155">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AQ155">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33535,7 +33547,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33819,7 +33831,7 @@
         <v>1.76</v>
       </c>
       <c r="AP159">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ159">
         <v>1.79</v>
@@ -33947,7 +33959,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34153,7 +34165,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34771,7 +34783,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35183,7 +35195,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35467,10 +35479,10 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AQ167">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35676,7 +35688,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ168">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -35801,7 +35813,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35879,7 +35891,7 @@
         <v>1.88</v>
       </c>
       <c r="AP169">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AQ169">
         <v>1.94</v>
@@ -36213,7 +36225,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36419,7 +36431,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36782,6 +36794,418 @@
       </c>
       <c r="BP173">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7847664</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45777.45833333334</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>70</v>
+      </c>
+      <c r="H174" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>179</v>
+      </c>
+      <c r="P174" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q174">
+        <v>7</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>1.72</v>
+      </c>
+      <c r="T174">
+        <v>1.43</v>
+      </c>
+      <c r="U174">
+        <v>2.75</v>
+      </c>
+      <c r="V174">
+        <v>2.8</v>
+      </c>
+      <c r="W174">
+        <v>1.37</v>
+      </c>
+      <c r="X174">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y174">
+        <v>1.01</v>
+      </c>
+      <c r="Z174">
+        <v>7.4</v>
+      </c>
+      <c r="AA174">
+        <v>3.99</v>
+      </c>
+      <c r="AB174">
+        <v>1.46</v>
+      </c>
+      <c r="AC174">
+        <v>1</v>
+      </c>
+      <c r="AD174">
+        <v>8.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.28</v>
+      </c>
+      <c r="AF174">
+        <v>3.08</v>
+      </c>
+      <c r="AG174">
+        <v>1.95</v>
+      </c>
+      <c r="AH174">
+        <v>1.75</v>
+      </c>
+      <c r="AI174">
+        <v>2.25</v>
+      </c>
+      <c r="AJ174">
+        <v>1.55</v>
+      </c>
+      <c r="AK174">
+        <v>1.19</v>
+      </c>
+      <c r="AL174">
+        <v>1.23</v>
+      </c>
+      <c r="AM174">
+        <v>1.03</v>
+      </c>
+      <c r="AN174">
+        <v>1.16</v>
+      </c>
+      <c r="AO174">
+        <v>2.32</v>
+      </c>
+      <c r="AP174">
+        <v>1.1</v>
+      </c>
+      <c r="AQ174">
+        <v>2.35</v>
+      </c>
+      <c r="AR174">
+        <v>1.05</v>
+      </c>
+      <c r="AS174">
+        <v>1.55</v>
+      </c>
+      <c r="AT174">
+        <v>2.6</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>8</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>7</v>
+      </c>
+      <c r="AZ174">
+        <v>13</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
+        <v>8</v>
+      </c>
+      <c r="BD174">
+        <v>2.91</v>
+      </c>
+      <c r="BE174">
+        <v>8.4</v>
+      </c>
+      <c r="BF174">
+        <v>1.56</v>
+      </c>
+      <c r="BG174">
+        <v>1.28</v>
+      </c>
+      <c r="BH174">
+        <v>2.95</v>
+      </c>
+      <c r="BI174">
+        <v>1.6</v>
+      </c>
+      <c r="BJ174">
+        <v>2.26</v>
+      </c>
+      <c r="BK174">
+        <v>2.25</v>
+      </c>
+      <c r="BL174">
+        <v>1.78</v>
+      </c>
+      <c r="BM174">
+        <v>2.49</v>
+      </c>
+      <c r="BN174">
+        <v>1.41</v>
+      </c>
+      <c r="BO174">
+        <v>3.25</v>
+      </c>
+      <c r="BP174">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7847665</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45777.58333333334</v>
+      </c>
+      <c r="F175">
+        <v>3</v>
+      </c>
+      <c r="G175" t="s">
+        <v>82</v>
+      </c>
+      <c r="H175" t="s">
+        <v>78</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>3</v>
+      </c>
+      <c r="N175">
+        <v>5</v>
+      </c>
+      <c r="O175" t="s">
+        <v>180</v>
+      </c>
+      <c r="P175" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q175">
+        <v>7.03</v>
+      </c>
+      <c r="R175">
+        <v>2.26</v>
+      </c>
+      <c r="S175">
+        <v>2.02</v>
+      </c>
+      <c r="T175">
+        <v>1.39</v>
+      </c>
+      <c r="U175">
+        <v>3.04</v>
+      </c>
+      <c r="V175">
+        <v>2.55</v>
+      </c>
+      <c r="W175">
+        <v>1.41</v>
+      </c>
+      <c r="X175">
+        <v>6.4</v>
+      </c>
+      <c r="Y175">
+        <v>1.1</v>
+      </c>
+      <c r="Z175">
+        <v>7.2</v>
+      </c>
+      <c r="AA175">
+        <v>4.39</v>
+      </c>
+      <c r="AB175">
+        <v>1.35</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>9</v>
+      </c>
+      <c r="AE175">
+        <v>1.25</v>
+      </c>
+      <c r="AF175">
+        <v>3.7</v>
+      </c>
+      <c r="AG175">
+        <v>1.83</v>
+      </c>
+      <c r="AH175">
+        <v>1.86</v>
+      </c>
+      <c r="AI175">
+        <v>2.04</v>
+      </c>
+      <c r="AJ175">
+        <v>1.61</v>
+      </c>
+      <c r="AK175">
+        <v>2.57</v>
+      </c>
+      <c r="AL175">
+        <v>1.21</v>
+      </c>
+      <c r="AM175">
+        <v>1.1</v>
+      </c>
+      <c r="AN175">
+        <v>1.32</v>
+      </c>
+      <c r="AO175">
+        <v>2.22</v>
+      </c>
+      <c r="AP175">
+        <v>1.25</v>
+      </c>
+      <c r="AQ175">
+        <v>2.26</v>
+      </c>
+      <c r="AR175">
+        <v>1.49</v>
+      </c>
+      <c r="AS175">
+        <v>1.75</v>
+      </c>
+      <c r="AT175">
+        <v>3.24</v>
+      </c>
+      <c r="AU175">
+        <v>3</v>
+      </c>
+      <c r="AV175">
+        <v>9</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>6</v>
+      </c>
+      <c r="AY175">
+        <v>7</v>
+      </c>
+      <c r="AZ175">
+        <v>15</v>
+      </c>
+      <c r="BA175">
+        <v>4</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>11</v>
+      </c>
+      <c r="BD175">
+        <v>3</v>
+      </c>
+      <c r="BE175">
+        <v>7</v>
+      </c>
+      <c r="BF175">
+        <v>1.55</v>
+      </c>
+      <c r="BG175">
+        <v>1.46</v>
+      </c>
+      <c r="BH175">
+        <v>2.52</v>
+      </c>
+      <c r="BI175">
+        <v>1.8</v>
+      </c>
+      <c r="BJ175">
+        <v>1.95</v>
+      </c>
+      <c r="BK175">
+        <v>2.67</v>
+      </c>
+      <c r="BL175">
+        <v>1.58</v>
+      </c>
+      <c r="BM175">
+        <v>2.93</v>
+      </c>
+      <c r="BN175">
+        <v>1.35</v>
+      </c>
+      <c r="BO175">
+        <v>4</v>
+      </c>
+      <c r="BP175">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,9 @@
     <t>['45', '45+5']</t>
   </si>
   <si>
+    <t>['17', '82']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -791,6 +794,9 @@
   </si>
   <si>
     <t>['10', '15', '63']</t>
+  </si>
+  <si>
+    <t>['69', '73', '78', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1417,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1617,7 +1623,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2235,7 +2241,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2441,7 +2447,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2647,7 +2653,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2728,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3059,7 +3065,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3265,7 +3271,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3677,7 +3683,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3883,7 +3889,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4089,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4170,7 +4176,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4295,7 +4301,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4785,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4991,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -5119,7 +5125,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5325,7 +5331,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5406,7 +5412,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5943,7 +5949,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6149,7 +6155,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7179,7 +7185,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7257,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>0.33</v>
@@ -8287,7 +8293,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ35">
         <v>2.3</v>
@@ -8415,7 +8421,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8621,7 +8627,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -8702,7 +8708,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>2.48</v>
@@ -9239,7 +9245,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9651,7 +9657,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9732,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR42">
         <v>1.57</v>
@@ -9857,7 +9863,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10269,7 +10275,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10681,7 +10687,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10762,7 +10768,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ47">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11093,7 +11099,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11505,7 +11511,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11711,7 +11717,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11917,7 +11923,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11995,7 +12001,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ53">
         <v>2.2</v>
@@ -12947,7 +12953,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13153,7 +13159,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13565,7 +13571,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13643,7 +13649,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -14058,7 +14064,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ63">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14595,7 +14601,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15007,7 +15013,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15831,7 +15837,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16115,7 +16121,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16243,7 +16249,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16324,7 +16330,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16449,7 +16455,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16655,7 +16661,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17067,7 +17073,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17273,7 +17279,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17351,7 +17357,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>1.09</v>
@@ -17479,7 +17485,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17972,7 +17978,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -18509,7 +18515,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18715,7 +18721,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18921,7 +18927,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19333,7 +19339,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19411,7 +19417,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ89">
         <v>0.44</v>
@@ -19539,7 +19545,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19745,7 +19751,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19951,7 +19957,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20157,7 +20163,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20444,7 +20450,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ94">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR94">
         <v>1.88</v>
@@ -20650,7 +20656,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR95">
         <v>0.8</v>
@@ -21187,7 +21193,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21393,7 +21399,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21471,7 +21477,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21599,7 +21605,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21805,7 +21811,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22011,7 +22017,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22089,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22423,7 +22429,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23247,7 +23253,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23659,7 +23665,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23865,7 +23871,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -23946,7 +23952,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ111">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR111">
         <v>1.41</v>
@@ -24767,10 +24773,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ115">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25307,7 +25313,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25719,7 +25725,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25800,7 +25806,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ120">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26131,7 +26137,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26337,7 +26343,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26415,7 +26421,7 @@
         <v>0.43</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
         <v>0.44</v>
@@ -27779,7 +27785,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27985,7 +27991,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28269,7 +28275,7 @@
         <v>0.14</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ132">
         <v>0.6</v>
@@ -28603,7 +28609,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28684,7 +28690,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ134">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR134">
         <v>1.8</v>
@@ -29221,7 +29227,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29427,7 +29433,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29633,7 +29639,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29839,7 +29845,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30045,7 +30051,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30126,7 +30132,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ141">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR141">
         <v>1.43</v>
@@ -30251,7 +30257,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30663,7 +30669,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30869,7 +30875,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -30947,7 +30953,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>1.2</v>
@@ -31487,7 +31493,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31565,7 +31571,7 @@
         <v>0.43</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ148">
         <v>0.33</v>
@@ -31693,7 +31699,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31774,7 +31780,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ149">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR149">
         <v>0.91</v>
@@ -31899,7 +31905,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32311,7 +32317,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32929,7 +32935,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33547,7 +33553,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33628,7 +33634,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ158">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33834,7 +33840,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ159">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR159">
         <v>1.58</v>
@@ -33959,7 +33965,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34165,7 +34171,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34783,7 +34789,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35195,7 +35201,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35276,7 +35282,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35685,7 +35691,7 @@
         <v>1.39</v>
       </c>
       <c r="AP168">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ168">
         <v>1.25</v>
@@ -35813,7 +35819,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35894,7 +35900,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ169">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36225,7 +36231,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36431,7 +36437,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36843,7 +36849,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37049,7 +37055,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37206,6 +37212,418 @@
       </c>
       <c r="BP175">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7847666</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45778.45833333334</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+      <c r="G176" t="s">
+        <v>87</v>
+      </c>
+      <c r="H176" t="s">
+        <v>85</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176" t="s">
+        <v>181</v>
+      </c>
+      <c r="P176" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q176">
+        <v>3.05</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.43</v>
+      </c>
+      <c r="U176">
+        <v>2.6</v>
+      </c>
+      <c r="V176">
+        <v>2.87</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>8</v>
+      </c>
+      <c r="Y176">
+        <v>1.07</v>
+      </c>
+      <c r="Z176">
+        <v>2.31</v>
+      </c>
+      <c r="AA176">
+        <v>3.08</v>
+      </c>
+      <c r="AB176">
+        <v>3.2</v>
+      </c>
+      <c r="AC176">
+        <v>1.06</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.4</v>
+      </c>
+      <c r="AF176">
+        <v>2.7</v>
+      </c>
+      <c r="AG176">
+        <v>1.93</v>
+      </c>
+      <c r="AH176">
+        <v>1.77</v>
+      </c>
+      <c r="AI176">
+        <v>1.75</v>
+      </c>
+      <c r="AJ176">
+        <v>1.93</v>
+      </c>
+      <c r="AK176">
+        <v>1.31</v>
+      </c>
+      <c r="AL176">
+        <v>1.33</v>
+      </c>
+      <c r="AM176">
+        <v>1.53</v>
+      </c>
+      <c r="AN176">
+        <v>1.5</v>
+      </c>
+      <c r="AO176">
+        <v>1.61</v>
+      </c>
+      <c r="AP176">
+        <v>1.42</v>
+      </c>
+      <c r="AQ176">
+        <v>1.68</v>
+      </c>
+      <c r="AR176">
+        <v>1.57</v>
+      </c>
+      <c r="AS176">
+        <v>1.23</v>
+      </c>
+      <c r="AT176">
+        <v>2.8</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>9</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>13</v>
+      </c>
+      <c r="BA176">
+        <v>6</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.91</v>
+      </c>
+      <c r="BE176">
+        <v>7</v>
+      </c>
+      <c r="BF176">
+        <v>2.3</v>
+      </c>
+      <c r="BG176">
+        <v>1.25</v>
+      </c>
+      <c r="BH176">
+        <v>3.84</v>
+      </c>
+      <c r="BI176">
+        <v>1.52</v>
+      </c>
+      <c r="BJ176">
+        <v>2.48</v>
+      </c>
+      <c r="BK176">
+        <v>2.01</v>
+      </c>
+      <c r="BL176">
+        <v>1.96</v>
+      </c>
+      <c r="BM176">
+        <v>2.24</v>
+      </c>
+      <c r="BN176">
+        <v>1.6</v>
+      </c>
+      <c r="BO176">
+        <v>2.83</v>
+      </c>
+      <c r="BP176">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7847667</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45778.58333333334</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+      <c r="G177" t="s">
+        <v>86</v>
+      </c>
+      <c r="H177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>89</v>
+      </c>
+      <c r="P177" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q177">
+        <v>4.15</v>
+      </c>
+      <c r="R177">
+        <v>1.73</v>
+      </c>
+      <c r="S177">
+        <v>3.3</v>
+      </c>
+      <c r="T177">
+        <v>1.55</v>
+      </c>
+      <c r="U177">
+        <v>2.25</v>
+      </c>
+      <c r="V177">
+        <v>3.7</v>
+      </c>
+      <c r="W177">
+        <v>1.2</v>
+      </c>
+      <c r="X177">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>3.28</v>
+      </c>
+      <c r="AA177">
+        <v>2.7</v>
+      </c>
+      <c r="AB177">
+        <v>2.3</v>
+      </c>
+      <c r="AC177">
+        <v>1.11</v>
+      </c>
+      <c r="AD177">
+        <v>5.3</v>
+      </c>
+      <c r="AE177">
+        <v>1.66</v>
+      </c>
+      <c r="AF177">
+        <v>2.2</v>
+      </c>
+      <c r="AG177">
+        <v>2.35</v>
+      </c>
+      <c r="AH177">
+        <v>1.35</v>
+      </c>
+      <c r="AI177">
+        <v>2.32</v>
+      </c>
+      <c r="AJ177">
+        <v>1.53</v>
+      </c>
+      <c r="AK177">
+        <v>1.37</v>
+      </c>
+      <c r="AL177">
+        <v>1.35</v>
+      </c>
+      <c r="AM177">
+        <v>1.2</v>
+      </c>
+      <c r="AN177">
+        <v>1.79</v>
+      </c>
+      <c r="AO177">
+        <v>1.94</v>
+      </c>
+      <c r="AP177">
+        <v>1.75</v>
+      </c>
+      <c r="AQ177">
+        <v>1.89</v>
+      </c>
+      <c r="AR177">
+        <v>1.26</v>
+      </c>
+      <c r="AS177">
+        <v>1.48</v>
+      </c>
+      <c r="AT177">
+        <v>2.74</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>10</v>
+      </c>
+      <c r="AY177">
+        <v>7</v>
+      </c>
+      <c r="AZ177">
+        <v>16</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>7</v>
+      </c>
+      <c r="BC177">
+        <v>10</v>
+      </c>
+      <c r="BD177">
+        <v>2.05</v>
+      </c>
+      <c r="BE177">
+        <v>6.15</v>
+      </c>
+      <c r="BF177">
+        <v>2.14</v>
+      </c>
+      <c r="BG177">
+        <v>1.38</v>
+      </c>
+      <c r="BH177">
+        <v>2.82</v>
+      </c>
+      <c r="BI177">
+        <v>1.65</v>
+      </c>
+      <c r="BJ177">
+        <v>2.16</v>
+      </c>
+      <c r="BK177">
+        <v>2.07</v>
+      </c>
+      <c r="BL177">
+        <v>1.7</v>
+      </c>
+      <c r="BM177">
+        <v>2.49</v>
+      </c>
+      <c r="BN177">
+        <v>1.44</v>
+      </c>
+      <c r="BO177">
+        <v>3.45</v>
+      </c>
+      <c r="BP177">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>['17', '82']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
   <si>
     <t>['34', '45+4', '46']</t>
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1420,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1623,7 +1626,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2241,7 +2244,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2447,7 +2450,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2653,7 +2656,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3065,7 +3068,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3271,7 +3274,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3352,7 +3355,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3683,7 +3686,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ13">
         <v>2.2</v>
@@ -3889,7 +3892,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4095,7 +4098,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4173,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ15">
         <v>1.8</v>
@@ -4301,7 +4304,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -5000,7 +5003,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5125,7 +5128,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5331,7 +5334,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5949,7 +5952,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6155,7 +6158,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7057,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ29">
         <v>0.89</v>
@@ -7185,7 +7188,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7472,7 +7475,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7881,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8090,7 +8093,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR34">
         <v>0.6899999999999999</v>
@@ -8421,7 +8424,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8627,7 +8630,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9245,7 +9248,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9657,7 +9660,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9863,7 +9866,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10275,7 +10278,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10559,7 +10562,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ46">
         <v>0.44</v>
@@ -10687,7 +10690,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11099,7 +11102,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11511,7 +11514,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11589,7 +11592,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ51">
         <v>0.78</v>
@@ -11717,7 +11720,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11923,7 +11926,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12416,7 +12419,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>0.74</v>
@@ -12953,7 +12956,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13159,7 +13162,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13443,7 +13446,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ60">
         <v>1.2</v>
@@ -13571,7 +13574,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13858,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
         <v>1.35</v>
@@ -14601,7 +14604,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14888,7 +14891,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15013,7 +15016,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15297,7 +15300,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ69">
         <v>0.33</v>
@@ -15837,7 +15840,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16249,7 +16252,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16455,7 +16458,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16661,7 +16664,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16742,7 +16745,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR76">
         <v>0.77</v>
@@ -17073,7 +17076,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17279,7 +17282,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17485,7 +17488,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17563,7 +17566,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
         <v>2.3</v>
@@ -18184,7 +18187,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
         <v>0.83</v>
@@ -18515,7 +18518,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18721,7 +18724,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18927,7 +18930,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19339,7 +19342,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19545,7 +19548,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19751,7 +19754,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19829,7 +19832,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -19957,7 +19960,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20038,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR92">
         <v>1.04</v>
@@ -20163,7 +20166,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20859,7 +20862,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ96">
         <v>1.6</v>
@@ -21193,7 +21196,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21399,7 +21402,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21605,7 +21608,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21811,7 +21814,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22017,7 +22020,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22429,7 +22432,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22507,7 +22510,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ104">
         <v>2.3</v>
@@ -23128,7 +23131,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23253,7 +23256,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23665,7 +23668,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23871,7 +23874,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24364,7 +24367,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24567,7 +24570,7 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ114">
         <v>1.5</v>
@@ -25188,7 +25191,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR117">
         <v>1.15</v>
@@ -25313,7 +25316,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25725,7 +25728,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25803,7 +25806,7 @@
         <v>1.86</v>
       </c>
       <c r="AP120">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ120">
         <v>1.82</v>
@@ -26137,7 +26140,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26343,7 +26346,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27785,7 +27788,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27991,7 +27994,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28278,7 +28281,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ132">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR132">
         <v>1.09</v>
@@ -28609,7 +28612,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28893,7 +28896,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ135">
         <v>0.78</v>
@@ -29102,7 +29105,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -29227,7 +29230,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29433,7 +29436,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29639,7 +29642,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29845,7 +29848,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -29923,7 +29926,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ140">
         <v>1.6</v>
@@ -30051,7 +30054,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30257,7 +30260,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30669,7 +30672,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30875,7 +30878,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31493,7 +31496,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31699,7 +31702,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31905,7 +31908,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -31983,10 +31986,10 @@
         <v>0.25</v>
       </c>
       <c r="AP150">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ150">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR150">
         <v>1.16</v>
@@ -32317,7 +32320,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32604,7 +32607,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ153">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR153">
         <v>1.85</v>
@@ -32935,7 +32938,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33553,7 +33556,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33965,7 +33968,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34046,7 +34049,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34171,7 +34174,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34249,10 +34252,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR161">
         <v>1.28</v>
@@ -34661,7 +34664,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ163">
         <v>1.1</v>
@@ -34789,7 +34792,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34867,7 +34870,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ164">
         <v>1.2</v>
@@ -35201,7 +35204,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35819,7 +35822,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36231,7 +36234,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36309,7 +36312,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ171">
         <v>1.1</v>
@@ -36437,7 +36440,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36515,10 +36518,10 @@
         <v>1.26</v>
       </c>
       <c r="AP172">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ172">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR172">
         <v>0.99</v>
@@ -36849,7 +36852,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37055,7 +37058,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37261,7 +37264,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37624,6 +37627,418 @@
       </c>
       <c r="BP177">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7847680</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45779.45833333334</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>83</v>
+      </c>
+      <c r="H178" t="s">
+        <v>77</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>182</v>
+      </c>
+      <c r="P178" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>1.77</v>
+      </c>
+      <c r="S178">
+        <v>4.45</v>
+      </c>
+      <c r="T178">
+        <v>1.75</v>
+      </c>
+      <c r="U178">
+        <v>2.11</v>
+      </c>
+      <c r="V178">
+        <v>4.33</v>
+      </c>
+      <c r="W178">
+        <v>1.18</v>
+      </c>
+      <c r="X178">
+        <v>15</v>
+      </c>
+      <c r="Y178">
+        <v>1.03</v>
+      </c>
+      <c r="Z178">
+        <v>2.45</v>
+      </c>
+      <c r="AA178">
+        <v>2.65</v>
+      </c>
+      <c r="AB178">
+        <v>3.2</v>
+      </c>
+      <c r="AC178">
+        <v>1.13</v>
+      </c>
+      <c r="AD178">
+        <v>5</v>
+      </c>
+      <c r="AE178">
+        <v>1.67</v>
+      </c>
+      <c r="AF178">
+        <v>2.05</v>
+      </c>
+      <c r="AG178">
+        <v>3.4</v>
+      </c>
+      <c r="AH178">
+        <v>1.33</v>
+      </c>
+      <c r="AI178">
+        <v>2.5</v>
+      </c>
+      <c r="AJ178">
+        <v>1.52</v>
+      </c>
+      <c r="AK178">
+        <v>1.32</v>
+      </c>
+      <c r="AL178">
+        <v>1.39</v>
+      </c>
+      <c r="AM178">
+        <v>1.45</v>
+      </c>
+      <c r="AN178">
+        <v>1.05</v>
+      </c>
+      <c r="AO178">
+        <v>0.8</v>
+      </c>
+      <c r="AP178">
+        <v>1.05</v>
+      </c>
+      <c r="AQ178">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR178">
+        <v>1.33</v>
+      </c>
+      <c r="AS178">
+        <v>0.97</v>
+      </c>
+      <c r="AT178">
+        <v>2.3</v>
+      </c>
+      <c r="AU178">
+        <v>8</v>
+      </c>
+      <c r="AV178">
+        <v>2</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>7</v>
+      </c>
+      <c r="BB178">
+        <v>2</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>1.59</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>2.91</v>
+      </c>
+      <c r="BG178">
+        <v>1.48</v>
+      </c>
+      <c r="BH178">
+        <v>2.5</v>
+      </c>
+      <c r="BI178">
+        <v>1.8</v>
+      </c>
+      <c r="BJ178">
+        <v>1.97</v>
+      </c>
+      <c r="BK178">
+        <v>2.65</v>
+      </c>
+      <c r="BL178">
+        <v>1.59</v>
+      </c>
+      <c r="BM178">
+        <v>2.9</v>
+      </c>
+      <c r="BN178">
+        <v>1.36</v>
+      </c>
+      <c r="BO178">
+        <v>3.8</v>
+      </c>
+      <c r="BP178">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7847681</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45779.58333333334</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s">
+        <v>71</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>89</v>
+      </c>
+      <c r="P179" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q179">
+        <v>3.8</v>
+      </c>
+      <c r="R179">
+        <v>1.75</v>
+      </c>
+      <c r="S179">
+        <v>3.36</v>
+      </c>
+      <c r="T179">
+        <v>1.7</v>
+      </c>
+      <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>3.8</v>
+      </c>
+      <c r="W179">
+        <v>1.2</v>
+      </c>
+      <c r="X179">
+        <v>15</v>
+      </c>
+      <c r="Y179">
+        <v>1.03</v>
+      </c>
+      <c r="Z179">
+        <v>3.1</v>
+      </c>
+      <c r="AA179">
+        <v>2.6</v>
+      </c>
+      <c r="AB179">
+        <v>2.69</v>
+      </c>
+      <c r="AC179">
+        <v>1.14</v>
+      </c>
+      <c r="AD179">
+        <v>5.8</v>
+      </c>
+      <c r="AE179">
+        <v>1.62</v>
+      </c>
+      <c r="AF179">
+        <v>2.2</v>
+      </c>
+      <c r="AG179">
+        <v>3.15</v>
+      </c>
+      <c r="AH179">
+        <v>1.36</v>
+      </c>
+      <c r="AI179">
+        <v>2.35</v>
+      </c>
+      <c r="AJ179">
+        <v>1.52</v>
+      </c>
+      <c r="AK179">
+        <v>1.33</v>
+      </c>
+      <c r="AL179">
+        <v>1.4</v>
+      </c>
+      <c r="AM179">
+        <v>1.32</v>
+      </c>
+      <c r="AN179">
+        <v>1.35</v>
+      </c>
+      <c r="AO179">
+        <v>1.11</v>
+      </c>
+      <c r="AP179">
+        <v>1.33</v>
+      </c>
+      <c r="AQ179">
+        <v>1.1</v>
+      </c>
+      <c r="AR179">
+        <v>1.3</v>
+      </c>
+      <c r="AS179">
+        <v>1.33</v>
+      </c>
+      <c r="AT179">
+        <v>2.63</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>0</v>
+      </c>
+      <c r="AW179">
+        <v>8</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>11</v>
+      </c>
+      <c r="AZ179">
+        <v>7</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.82</v>
+      </c>
+      <c r="BE179">
+        <v>7.4</v>
+      </c>
+      <c r="BF179">
+        <v>2.47</v>
+      </c>
+      <c r="BG179">
+        <v>1.54</v>
+      </c>
+      <c r="BH179">
+        <v>2.41</v>
+      </c>
+      <c r="BI179">
+        <v>1.96</v>
+      </c>
+      <c r="BJ179">
+        <v>1.84</v>
+      </c>
+      <c r="BK179">
+        <v>2.49</v>
+      </c>
+      <c r="BL179">
+        <v>1.52</v>
+      </c>
+      <c r="BM179">
+        <v>3.5</v>
+      </c>
+      <c r="BN179">
+        <v>1.22</v>
+      </c>
+      <c r="BO179">
+        <v>4.5</v>
+      </c>
+      <c r="BP179">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['16', '31']</t>
   </si>
   <si>
     <t>['34', '45+4', '46']</t>
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1423,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1626,7 +1629,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ5">
         <v>0.44</v>
@@ -2244,7 +2247,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2450,7 +2453,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2656,7 +2659,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2943,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3068,7 +3071,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3274,7 +3277,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3686,7 +3689,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3892,7 +3895,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4098,7 +4101,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4304,7 +4307,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4382,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ16">
         <v>2.3</v>
@@ -4797,7 +4800,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5128,7 +5131,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5334,7 +5337,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5952,7 +5955,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6033,7 +6036,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR24">
         <v>1.3</v>
@@ -6158,7 +6161,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6648,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ27">
         <v>1.6</v>
@@ -7188,7 +7191,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7887,7 +7890,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR33">
         <v>1.75</v>
@@ -8090,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ34">
         <v>0.64</v>
@@ -8424,7 +8427,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8630,7 +8633,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9248,7 +9251,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9660,7 +9663,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9738,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ42">
         <v>1.82</v>
@@ -9866,7 +9869,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10278,7 +10281,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10690,7 +10693,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11102,7 +11105,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11514,7 +11517,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11595,7 +11598,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR51">
         <v>1.77</v>
@@ -11720,7 +11723,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11926,7 +11929,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12213,7 +12216,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR54">
         <v>1.9</v>
@@ -12828,7 +12831,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ57">
         <v>2.2</v>
@@ -12956,7 +12959,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13162,7 +13165,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13574,7 +13577,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13858,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ62">
         <v>0.64</v>
@@ -14604,7 +14607,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15016,7 +15019,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15509,7 +15512,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ70">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR70">
         <v>1.68</v>
@@ -15715,7 +15718,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
         <v>1.88</v>
@@ -15840,7 +15843,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16252,7 +16255,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16458,7 +16461,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16664,7 +16667,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16742,7 +16745,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ76">
         <v>1.56</v>
@@ -17076,7 +17079,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17282,7 +17285,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17488,7 +17491,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17978,7 +17981,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ82">
         <v>1.8</v>
@@ -18518,7 +18521,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18724,7 +18727,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18930,7 +18933,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19011,7 +19014,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -19342,7 +19345,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19548,7 +19551,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19754,7 +19757,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19960,7 +19963,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20166,7 +20169,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20656,7 +20659,7 @@
         <v>1.8</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ95">
         <v>1.82</v>
@@ -21196,7 +21199,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21277,7 +21280,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21402,7 +21405,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21608,7 +21611,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21686,7 +21689,7 @@
         <v>1.8</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ100">
         <v>2.2</v>
@@ -21814,7 +21817,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22020,7 +22023,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22432,7 +22435,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22925,7 +22928,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -23256,7 +23259,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23668,7 +23671,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23874,7 +23877,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24161,7 +24164,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ112">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -25188,7 +25191,7 @@
         <v>2.4</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ117">
         <v>1.56</v>
@@ -25316,7 +25319,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25394,7 +25397,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ118">
         <v>1.09</v>
@@ -25728,7 +25731,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26140,7 +26143,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26346,7 +26349,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26633,7 +26636,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR124">
         <v>0.96</v>
@@ -26836,7 +26839,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125">
         <v>2.3</v>
@@ -27454,7 +27457,7 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -27788,7 +27791,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27994,7 +27997,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28612,7 +28615,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28899,7 +28902,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ135">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR135">
         <v>1.18</v>
@@ -29230,7 +29233,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29308,10 +29311,10 @@
         <v>0.43</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR137">
         <v>1.04</v>
@@ -29436,7 +29439,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29642,7 +29645,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29848,7 +29851,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30054,7 +30057,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30260,7 +30263,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30672,7 +30675,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30878,7 +30881,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31371,7 +31374,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31496,7 +31499,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31702,7 +31705,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31780,7 +31783,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ149">
         <v>1.8</v>
@@ -31908,7 +31911,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32320,7 +32323,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32813,7 +32816,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ154">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR154">
         <v>1.59</v>
@@ -32938,7 +32941,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33222,7 +33225,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AQ156">
         <v>1.05</v>
@@ -33428,7 +33431,7 @@
         <v>1.06</v>
       </c>
       <c r="AP157">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
         <v>1.1</v>
@@ -33556,7 +33559,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33968,7 +33971,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34046,7 +34049,7 @@
         <v>1.24</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ160">
         <v>1.33</v>
@@ -34174,7 +34177,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34458,10 +34461,10 @@
         <v>0.72</v>
       </c>
       <c r="AP162">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ162">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1</v>
@@ -34792,7 +34795,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34873,7 +34876,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ164">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AR164">
         <v>1.24</v>
@@ -35076,7 +35079,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AQ165">
         <v>1.05</v>
@@ -35204,7 +35207,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35822,7 +35825,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36106,7 +36109,7 @@
         <v>1.05</v>
       </c>
       <c r="AP170">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170">
         <v>1.05</v>
@@ -36234,7 +36237,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36440,7 +36443,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36724,10 +36727,10 @@
         <v>1.05</v>
       </c>
       <c r="AP173">
+        <v>0.9</v>
+      </c>
+      <c r="AQ173">
         <v>0.95</v>
-      </c>
-      <c r="AQ173">
-        <v>1</v>
       </c>
       <c r="AR173">
         <v>0.99</v>
@@ -36852,7 +36855,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37058,7 +37061,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37264,7 +37267,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37676,7 +37679,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38038,6 +38041,418 @@
         <v>4.5</v>
       </c>
       <c r="BP179">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7847682</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
+        <v>84</v>
+      </c>
+      <c r="H180" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>89</v>
+      </c>
+      <c r="P180" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q180">
+        <v>2.9</v>
+      </c>
+      <c r="R180">
+        <v>1.83</v>
+      </c>
+      <c r="S180">
+        <v>4.8</v>
+      </c>
+      <c r="T180">
+        <v>1.62</v>
+      </c>
+      <c r="U180">
+        <v>2.2</v>
+      </c>
+      <c r="V180">
+        <v>4.4</v>
+      </c>
+      <c r="W180">
+        <v>1.16</v>
+      </c>
+      <c r="X180">
+        <v>13</v>
+      </c>
+      <c r="Y180">
+        <v>1.03</v>
+      </c>
+      <c r="Z180">
+        <v>2.16</v>
+      </c>
+      <c r="AA180">
+        <v>2.62</v>
+      </c>
+      <c r="AB180">
+        <v>3.75</v>
+      </c>
+      <c r="AC180">
+        <v>1.17</v>
+      </c>
+      <c r="AD180">
+        <v>4.75</v>
+      </c>
+      <c r="AE180">
+        <v>1.67</v>
+      </c>
+      <c r="AF180">
+        <v>2.05</v>
+      </c>
+      <c r="AG180">
+        <v>3.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.33</v>
+      </c>
+      <c r="AI180">
+        <v>2.6</v>
+      </c>
+      <c r="AJ180">
+        <v>1.51</v>
+      </c>
+      <c r="AK180">
+        <v>1.48</v>
+      </c>
+      <c r="AL180">
+        <v>1.41</v>
+      </c>
+      <c r="AM180">
+        <v>1.68</v>
+      </c>
+      <c r="AN180">
+        <v>0.95</v>
+      </c>
+      <c r="AO180">
+        <v>1.2</v>
+      </c>
+      <c r="AP180">
+        <v>0.9</v>
+      </c>
+      <c r="AQ180">
+        <v>1.29</v>
+      </c>
+      <c r="AR180">
+        <v>0.99</v>
+      </c>
+      <c r="AS180">
+        <v>1.17</v>
+      </c>
+      <c r="AT180">
+        <v>2.16</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
+        <v>4</v>
+      </c>
+      <c r="AX180">
+        <v>5</v>
+      </c>
+      <c r="AY180">
+        <v>8</v>
+      </c>
+      <c r="AZ180">
+        <v>9</v>
+      </c>
+      <c r="BA180">
+        <v>6</v>
+      </c>
+      <c r="BB180">
+        <v>2</v>
+      </c>
+      <c r="BC180">
+        <v>8</v>
+      </c>
+      <c r="BD180">
+        <v>1.83</v>
+      </c>
+      <c r="BE180">
+        <v>6.1</v>
+      </c>
+      <c r="BF180">
+        <v>2.45</v>
+      </c>
+      <c r="BG180">
+        <v>1.36</v>
+      </c>
+      <c r="BH180">
+        <v>2.65</v>
+      </c>
+      <c r="BI180">
+        <v>1.7</v>
+      </c>
+      <c r="BJ180">
+        <v>2.05</v>
+      </c>
+      <c r="BK180">
+        <v>2.12</v>
+      </c>
+      <c r="BL180">
+        <v>1.58</v>
+      </c>
+      <c r="BM180">
+        <v>2.83</v>
+      </c>
+      <c r="BN180">
+        <v>1.39</v>
+      </c>
+      <c r="BO180">
+        <v>3.7</v>
+      </c>
+      <c r="BP180">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7847683</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>79</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>183</v>
+      </c>
+      <c r="P181" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q181">
+        <v>3.3</v>
+      </c>
+      <c r="R181">
+        <v>1.77</v>
+      </c>
+      <c r="S181">
+        <v>4.2</v>
+      </c>
+      <c r="T181">
+        <v>1.62</v>
+      </c>
+      <c r="U181">
+        <v>2.1</v>
+      </c>
+      <c r="V181">
+        <v>4</v>
+      </c>
+      <c r="W181">
+        <v>1.18</v>
+      </c>
+      <c r="X181">
+        <v>13</v>
+      </c>
+      <c r="Y181">
+        <v>1.02</v>
+      </c>
+      <c r="Z181">
+        <v>2.43</v>
+      </c>
+      <c r="AA181">
+        <v>2.62</v>
+      </c>
+      <c r="AB181">
+        <v>3.59</v>
+      </c>
+      <c r="AC181">
+        <v>1.11</v>
+      </c>
+      <c r="AD181">
+        <v>4.9</v>
+      </c>
+      <c r="AE181">
+        <v>1.75</v>
+      </c>
+      <c r="AF181">
+        <v>2.15</v>
+      </c>
+      <c r="AG181">
+        <v>3.3</v>
+      </c>
+      <c r="AH181">
+        <v>1.32</v>
+      </c>
+      <c r="AI181">
+        <v>2.4</v>
+      </c>
+      <c r="AJ181">
+        <v>1.49</v>
+      </c>
+      <c r="AK181">
+        <v>1.25</v>
+      </c>
+      <c r="AL181">
+        <v>1.38</v>
+      </c>
+      <c r="AM181">
+        <v>1.61</v>
+      </c>
+      <c r="AN181">
+        <v>0.68</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>0.8</v>
+      </c>
+      <c r="AQ181">
+        <v>0.95</v>
+      </c>
+      <c r="AR181">
+        <v>1.11</v>
+      </c>
+      <c r="AS181">
+        <v>1.19</v>
+      </c>
+      <c r="AT181">
+        <v>2.3</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>8</v>
+      </c>
+      <c r="AY181">
+        <v>10</v>
+      </c>
+      <c r="AZ181">
+        <v>13</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>8</v>
+      </c>
+      <c r="BD181">
+        <v>1.6</v>
+      </c>
+      <c r="BE181">
+        <v>7.5</v>
+      </c>
+      <c r="BF181">
+        <v>3.01</v>
+      </c>
+      <c r="BG181">
+        <v>1.55</v>
+      </c>
+      <c r="BH181">
+        <v>2.4</v>
+      </c>
+      <c r="BI181">
+        <v>1.85</v>
+      </c>
+      <c r="BJ181">
+        <v>1.81</v>
+      </c>
+      <c r="BK181">
+        <v>2.46</v>
+      </c>
+      <c r="BL181">
+        <v>1.48</v>
+      </c>
+      <c r="BM181">
+        <v>3.3</v>
+      </c>
+      <c r="BN181">
+        <v>1.24</v>
+      </c>
+      <c r="BO181">
+        <v>4.5</v>
+      </c>
+      <c r="BP181">
         <v>1.15</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['16', '31']</t>
   </si>
   <si>
+    <t>['55', '66', '84']</t>
+  </si>
+  <si>
+    <t>['9', '27', '55', '73', '90+4']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -803,6 +809,9 @@
   </si>
   <si>
     <t>['69', '73', '78', '90+3']</t>
+  </si>
+  <si>
+    <t>['75', '90']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1432,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1629,7 +1638,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2247,7 +2256,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2325,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.09</v>
@@ -2453,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2659,7 +2668,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3071,7 +3080,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3149,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3277,7 +3286,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3564,7 +3573,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3689,7 +3698,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3895,7 +3904,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4101,7 +4110,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4307,7 +4316,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4388,7 +4397,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5131,7 +5140,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5209,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>0.44</v>
@@ -5337,7 +5346,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5621,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ22">
         <v>1.09</v>
@@ -5955,7 +5964,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6161,7 +6170,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7066,7 +7075,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ29">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>0.83</v>
@@ -7191,7 +7200,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8302,7 +8311,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ35">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8427,7 +8436,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8633,7 +8642,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9251,7 +9260,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9663,7 +9672,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9869,7 +9878,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9947,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1.6</v>
@@ -10281,7 +10290,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10362,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR45">
         <v>1.27</v>
@@ -10693,7 +10702,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11105,7 +11114,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11186,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.04</v>
@@ -11517,7 +11526,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11723,7 +11732,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11929,7 +11938,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12959,7 +12968,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13040,7 +13049,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13165,7 +13174,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13243,7 +13252,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13577,7 +13586,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14273,7 +14282,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14607,7 +14616,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15019,7 +15028,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15715,7 +15724,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ71">
         <v>1.18</v>
@@ -15843,7 +15852,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -15924,7 +15933,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16255,7 +16264,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16461,7 +16470,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16542,7 +16551,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16667,7 +16676,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17079,7 +17088,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17157,7 +17166,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>2.2</v>
@@ -17285,7 +17294,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17491,7 +17500,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17572,7 +17581,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ80">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18521,7 +18530,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18727,7 +18736,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18805,10 +18814,10 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ86">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR86">
         <v>1.96</v>
@@ -18933,7 +18942,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19345,7 +19354,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19551,7 +19560,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19757,7 +19766,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19963,7 +19972,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20169,7 +20178,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20250,7 +20259,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -21199,7 +21208,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21277,7 +21286,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>0.7</v>
@@ -21405,7 +21414,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21611,7 +21620,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21817,7 +21826,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22023,7 +22032,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22307,7 +22316,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ103">
         <v>1.2</v>
@@ -22435,7 +22444,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22516,7 +22525,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ104">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23259,7 +23268,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23671,7 +23680,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23877,7 +23886,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -23955,7 +23964,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>1.8</v>
@@ -24161,7 +24170,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ112">
         <v>0.7</v>
@@ -24988,7 +24997,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ116">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR116">
         <v>1.73</v>
@@ -25319,7 +25328,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25731,7 +25740,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26143,7 +26152,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26349,7 +26358,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26842,7 +26851,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ125">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27663,7 +27672,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>0.33</v>
@@ -27791,7 +27800,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27872,7 +27881,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ130">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -27997,7 +28006,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28615,7 +28624,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28693,7 +28702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ134">
         <v>1.8</v>
@@ -29233,7 +29242,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29439,7 +29448,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29645,7 +29654,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29851,7 +29860,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30057,7 +30066,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30263,7 +30272,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30675,7 +30684,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30756,7 +30765,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ144">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR144">
         <v>1.03</v>
@@ -30881,7 +30890,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31168,7 +31177,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31371,7 +31380,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>1.18</v>
@@ -31499,7 +31508,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31705,7 +31714,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31911,7 +31920,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32323,7 +32332,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32607,7 +32616,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ153">
         <v>1.56</v>
@@ -32941,7 +32950,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33019,7 +33028,7 @@
         <v>1.29</v>
       </c>
       <c r="AP155">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ155">
         <v>1.25</v>
@@ -33559,7 +33568,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33637,7 +33646,7 @@
         <v>1.71</v>
       </c>
       <c r="AP158">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ158">
         <v>1.68</v>
@@ -33843,7 +33852,7 @@
         <v>1.76</v>
       </c>
       <c r="AP159">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="AQ159">
         <v>1.75</v>
@@ -33971,7 +33980,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34177,7 +34186,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34795,7 +34804,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35207,7 +35216,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35285,7 +35294,7 @@
         <v>1.41</v>
       </c>
       <c r="AP166">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AQ166">
         <v>1.42</v>
@@ -35491,10 +35500,10 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="AQ167">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35825,7 +35834,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35903,7 +35912,7 @@
         <v>1.88</v>
       </c>
       <c r="AP169">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ169">
         <v>1.89</v>
@@ -36237,7 +36246,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36443,7 +36452,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36855,7 +36864,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -36933,10 +36942,10 @@
         <v>2.32</v>
       </c>
       <c r="AP174">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ174">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37061,7 +37070,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37142,7 +37151,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ175">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AR175">
         <v>1.49</v>
@@ -37267,7 +37276,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37679,7 +37688,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38091,7 +38100,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38454,6 +38463,418 @@
       </c>
       <c r="BP181">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7847668</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45781.45833333334</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182" t="s">
+        <v>184</v>
+      </c>
+      <c r="P182" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q182">
+        <v>5.4</v>
+      </c>
+      <c r="R182">
+        <v>2.13</v>
+      </c>
+      <c r="S182">
+        <v>2.01</v>
+      </c>
+      <c r="T182">
+        <v>1.4</v>
+      </c>
+      <c r="U182">
+        <v>2.8</v>
+      </c>
+      <c r="V182">
+        <v>2.8</v>
+      </c>
+      <c r="W182">
+        <v>1.38</v>
+      </c>
+      <c r="X182">
+        <v>6.75</v>
+      </c>
+      <c r="Y182">
+        <v>1.06</v>
+      </c>
+      <c r="Z182">
+        <v>6</v>
+      </c>
+      <c r="AA182">
+        <v>3.8</v>
+      </c>
+      <c r="AB182">
+        <v>1.5</v>
+      </c>
+      <c r="AC182">
+        <v>1</v>
+      </c>
+      <c r="AD182">
+        <v>8.65</v>
+      </c>
+      <c r="AE182">
+        <v>1.28</v>
+      </c>
+      <c r="AF182">
+        <v>3.1</v>
+      </c>
+      <c r="AG182">
+        <v>1.93</v>
+      </c>
+      <c r="AH182">
+        <v>1.71</v>
+      </c>
+      <c r="AI182">
+        <v>2.17</v>
+      </c>
+      <c r="AJ182">
+        <v>1.66</v>
+      </c>
+      <c r="AK182">
+        <v>1.17</v>
+      </c>
+      <c r="AL182">
+        <v>1.24</v>
+      </c>
+      <c r="AM182">
+        <v>1.04</v>
+      </c>
+      <c r="AN182">
+        <v>1.37</v>
+      </c>
+      <c r="AO182">
+        <v>2.35</v>
+      </c>
+      <c r="AP182">
+        <v>1.45</v>
+      </c>
+      <c r="AQ182">
+        <v>2.24</v>
+      </c>
+      <c r="AR182">
+        <v>1.2</v>
+      </c>
+      <c r="AS182">
+        <v>1.56</v>
+      </c>
+      <c r="AT182">
+        <v>2.76</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>7</v>
+      </c>
+      <c r="AW182">
+        <v>4</v>
+      </c>
+      <c r="AX182">
+        <v>11</v>
+      </c>
+      <c r="AY182">
+        <v>10</v>
+      </c>
+      <c r="AZ182">
+        <v>18</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>9</v>
+      </c>
+      <c r="BC182">
+        <v>14</v>
+      </c>
+      <c r="BD182">
+        <v>3.25</v>
+      </c>
+      <c r="BE182">
+        <v>8.5</v>
+      </c>
+      <c r="BF182">
+        <v>1.44</v>
+      </c>
+      <c r="BG182">
+        <v>1.42</v>
+      </c>
+      <c r="BH182">
+        <v>2.62</v>
+      </c>
+      <c r="BI182">
+        <v>1.69</v>
+      </c>
+      <c r="BJ182">
+        <v>2.1</v>
+      </c>
+      <c r="BK182">
+        <v>2.11</v>
+      </c>
+      <c r="BL182">
+        <v>1.68</v>
+      </c>
+      <c r="BM182">
+        <v>2.74</v>
+      </c>
+      <c r="BN182">
+        <v>1.35</v>
+      </c>
+      <c r="BO182">
+        <v>3.6</v>
+      </c>
+      <c r="BP182">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7847669</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>70</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183" t="s">
+        <v>185</v>
+      </c>
+      <c r="P183" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q183">
+        <v>1.53</v>
+      </c>
+      <c r="R183">
+        <v>2.71</v>
+      </c>
+      <c r="S183">
+        <v>10</v>
+      </c>
+      <c r="T183">
+        <v>1.32</v>
+      </c>
+      <c r="U183">
+        <v>3.1</v>
+      </c>
+      <c r="V183">
+        <v>2.42</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>1.18</v>
+      </c>
+      <c r="AA183">
+        <v>6</v>
+      </c>
+      <c r="AB183">
+        <v>14</v>
+      </c>
+      <c r="AC183">
+        <v>1.02</v>
+      </c>
+      <c r="AD183">
+        <v>13.8</v>
+      </c>
+      <c r="AE183">
+        <v>1.18</v>
+      </c>
+      <c r="AF183">
+        <v>4.5</v>
+      </c>
+      <c r="AG183">
+        <v>1.52</v>
+      </c>
+      <c r="AH183">
+        <v>2.28</v>
+      </c>
+      <c r="AI183">
+        <v>2.32</v>
+      </c>
+      <c r="AJ183">
+        <v>1.55</v>
+      </c>
+      <c r="AK183">
+        <v>1.04</v>
+      </c>
+      <c r="AL183">
+        <v>1.13</v>
+      </c>
+      <c r="AM183">
+        <v>4.4</v>
+      </c>
+      <c r="AN183">
+        <v>2.26</v>
+      </c>
+      <c r="AO183">
+        <v>1.1</v>
+      </c>
+      <c r="AP183">
+        <v>2.3</v>
+      </c>
+      <c r="AQ183">
+        <v>1.05</v>
+      </c>
+      <c r="AR183">
+        <v>1.76</v>
+      </c>
+      <c r="AS183">
+        <v>1.04</v>
+      </c>
+      <c r="AT183">
+        <v>2.8</v>
+      </c>
+      <c r="AU183">
+        <v>9</v>
+      </c>
+      <c r="AV183">
+        <v>0</v>
+      </c>
+      <c r="AW183">
+        <v>6</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>16</v>
+      </c>
+      <c r="AZ183">
+        <v>3</v>
+      </c>
+      <c r="BA183">
+        <v>10</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>12</v>
+      </c>
+      <c r="BD183">
+        <v>1.27</v>
+      </c>
+      <c r="BE183">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF183">
+        <v>5.16</v>
+      </c>
+      <c r="BG183">
+        <v>1.27</v>
+      </c>
+      <c r="BH183">
+        <v>3.42</v>
+      </c>
+      <c r="BI183">
+        <v>1.51</v>
+      </c>
+      <c r="BJ183">
+        <v>2.3</v>
+      </c>
+      <c r="BK183">
+        <v>2.11</v>
+      </c>
+      <c r="BL183">
+        <v>1.93</v>
+      </c>
+      <c r="BM183">
+        <v>2.28</v>
+      </c>
+      <c r="BN183">
+        <v>1.56</v>
+      </c>
+      <c r="BO183">
+        <v>3.08</v>
+      </c>
+      <c r="BP183">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['9', '27', '55', '73', '90+4']</t>
   </si>
   <si>
+    <t>['71', '90+3']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -812,6 +815,12 @@
   </si>
   <si>
     <t>['75', '90']</t>
+  </si>
+  <si>
+    <t>['72', '82']</t>
+  </si>
+  <si>
+    <t>['1', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1441,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1638,7 +1647,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2256,7 +2265,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2337,7 +2346,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2462,7 +2471,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2668,7 +2677,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3080,7 +3089,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3161,7 +3170,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3286,7 +3295,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3367,7 +3376,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3698,7 +3707,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3776,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ13">
         <v>2.2</v>
@@ -3904,7 +3913,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3982,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ14">
         <v>0.33</v>
@@ -4110,7 +4119,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4188,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4316,7 +4325,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4600,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -5140,7 +5149,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5346,7 +5355,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5633,7 +5642,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>1.96</v>
@@ -5964,7 +5973,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6170,7 +6179,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6869,7 +6878,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR28">
         <v>0.89</v>
@@ -7072,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7200,7 +7209,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7487,7 +7496,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -7690,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
         <v>2.2</v>
@@ -7896,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ33">
         <v>1.18</v>
@@ -8436,7 +8445,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8514,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8642,7 +8651,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -8723,7 +8732,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR37">
         <v>2.48</v>
@@ -9260,7 +9269,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9341,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR40">
         <v>1.52</v>
@@ -9672,7 +9681,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9878,7 +9887,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10165,7 +10174,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10290,7 +10299,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10574,7 +10583,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ46">
         <v>0.44</v>
@@ -10702,7 +10711,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10783,7 +10792,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11114,7 +11123,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11526,7 +11535,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11604,7 +11613,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ51">
         <v>0.7</v>
@@ -11732,7 +11741,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11810,10 +11819,10 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR52">
         <v>1.11</v>
@@ -11938,7 +11947,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12222,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ54">
         <v>1.18</v>
@@ -12431,7 +12440,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>0.74</v>
@@ -12637,7 +12646,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR56">
         <v>1.48</v>
@@ -12968,7 +12977,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13174,7 +13183,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13458,7 +13467,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60">
         <v>1.2</v>
@@ -13586,7 +13595,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14488,7 +14497,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ65">
         <v>0.44</v>
@@ -14616,7 +14625,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14697,7 +14706,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR66">
         <v>1.26</v>
@@ -14900,7 +14909,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -15028,7 +15037,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15312,7 +15321,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ69">
         <v>0.33</v>
@@ -15852,7 +15861,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16264,7 +16273,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16470,7 +16479,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16676,7 +16685,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16757,7 +16766,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ76">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>0.77</v>
@@ -17088,7 +17097,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17294,7 +17303,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17375,7 +17384,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17500,7 +17509,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17578,7 +17587,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ80">
         <v>2.09</v>
@@ -17784,7 +17793,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ81">
         <v>1.6</v>
@@ -17993,7 +18002,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -18530,7 +18539,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18611,7 +18620,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18736,7 +18745,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18942,7 +18951,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19354,7 +19363,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19560,7 +19569,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19638,7 +19647,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ90">
         <v>1.2</v>
@@ -19766,7 +19775,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19844,7 +19853,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -19972,7 +19981,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20053,7 +20062,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.04</v>
@@ -20178,7 +20187,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20465,7 +20474,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ94">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR94">
         <v>1.88</v>
@@ -20874,7 +20883,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ96">
         <v>1.6</v>
@@ -21080,10 +21089,10 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ97">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR97">
         <v>1.73</v>
@@ -21208,7 +21217,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21414,7 +21423,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21620,7 +21629,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21826,7 +21835,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22032,7 +22041,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22444,7 +22453,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22522,7 +22531,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ104">
         <v>2.09</v>
@@ -23268,7 +23277,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23552,7 +23561,7 @@
         <v>1.6</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ109">
         <v>1.6</v>
@@ -23680,7 +23689,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23758,7 +23767,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -23886,7 +23895,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -23967,7 +23976,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR111">
         <v>1.41</v>
@@ -24582,10 +24591,10 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR114">
         <v>1.17</v>
@@ -25203,7 +25212,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ117">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.15</v>
@@ -25328,7 +25337,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25409,7 +25418,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ118">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR118">
         <v>0.78</v>
@@ -25740,7 +25749,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25818,7 +25827,7 @@
         <v>1.86</v>
       </c>
       <c r="AP120">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ120">
         <v>1.82</v>
@@ -26152,7 +26161,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26358,7 +26367,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27800,7 +27809,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27878,7 +27887,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ130">
         <v>0.8</v>
@@ -28006,7 +28015,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28084,10 +28093,10 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR131">
         <v>1.17</v>
@@ -28499,7 +28508,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28624,7 +28633,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28705,7 +28714,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ134">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR134">
         <v>1.8</v>
@@ -28908,7 +28917,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ135">
         <v>0.7</v>
@@ -29117,7 +29126,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -29242,7 +29251,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29448,7 +29457,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29654,7 +29663,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29860,7 +29869,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -29938,7 +29947,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ140">
         <v>1.6</v>
@@ -30066,7 +30075,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30272,7 +30281,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30684,7 +30693,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30890,7 +30899,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31174,7 +31183,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ146">
         <v>0.8</v>
@@ -31508,7 +31517,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31714,7 +31723,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31795,7 +31804,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR149">
         <v>0.91</v>
@@ -31920,7 +31929,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -31998,7 +32007,7 @@
         <v>0.25</v>
       </c>
       <c r="AP150">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ150">
         <v>0.64</v>
@@ -32332,7 +32341,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32413,7 +32422,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR152">
         <v>1.75</v>
@@ -32619,7 +32628,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ153">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.85</v>
@@ -32822,7 +32831,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ154">
         <v>0.7</v>
@@ -32950,7 +32959,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33031,7 +33040,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33568,7 +33577,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33649,7 +33658,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33980,7 +33989,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34061,7 +34070,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ160">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34186,7 +34195,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34804,7 +34813,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34882,7 +34891,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ164">
         <v>1.29</v>
@@ -35216,7 +35225,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35297,7 +35306,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ166">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35709,7 +35718,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -35834,7 +35843,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35915,7 +35924,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ169">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36246,7 +36255,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36452,7 +36461,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36533,7 +36542,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ172">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR172">
         <v>0.99</v>
@@ -36864,7 +36873,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37070,7 +37079,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37148,7 +37157,7 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AQ175">
         <v>2.3</v>
@@ -37276,7 +37285,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37354,10 +37363,10 @@
         <v>1.61</v>
       </c>
       <c r="AP176">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ176">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37563,7 +37572,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ177">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37688,7 +37697,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37972,7 +37981,7 @@
         <v>1.11</v>
       </c>
       <c r="AP179">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ179">
         <v>1.1</v>
@@ -38100,7 +38109,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38512,7 +38521,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38875,6 +38884,830 @@
       </c>
       <c r="BP183">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7847670</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45782.45833333334</v>
+      </c>
+      <c r="F184">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
+        <v>82</v>
+      </c>
+      <c r="H184" t="s">
+        <v>87</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>89</v>
+      </c>
+      <c r="P184" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>2.01</v>
+      </c>
+      <c r="S184">
+        <v>2.72</v>
+      </c>
+      <c r="T184">
+        <v>1.42</v>
+      </c>
+      <c r="U184">
+        <v>2.65</v>
+      </c>
+      <c r="V184">
+        <v>3.1</v>
+      </c>
+      <c r="W184">
+        <v>1.32</v>
+      </c>
+      <c r="X184">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y184">
+        <v>1.02</v>
+      </c>
+      <c r="Z184">
+        <v>3.47</v>
+      </c>
+      <c r="AA184">
+        <v>2.68</v>
+      </c>
+      <c r="AB184">
+        <v>2.18</v>
+      </c>
+      <c r="AC184">
+        <v>1.04</v>
+      </c>
+      <c r="AD184">
+        <v>7.8</v>
+      </c>
+      <c r="AE184">
+        <v>1.31</v>
+      </c>
+      <c r="AF184">
+        <v>3.1</v>
+      </c>
+      <c r="AG184">
+        <v>1.92</v>
+      </c>
+      <c r="AH184">
+        <v>1.78</v>
+      </c>
+      <c r="AI184">
+        <v>1.9</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.28</v>
+      </c>
+      <c r="AL184">
+        <v>1.35</v>
+      </c>
+      <c r="AM184">
+        <v>1.33</v>
+      </c>
+      <c r="AN184">
+        <v>1.25</v>
+      </c>
+      <c r="AO184">
+        <v>1.42</v>
+      </c>
+      <c r="AP184">
+        <v>1.19</v>
+      </c>
+      <c r="AQ184">
+        <v>1.5</v>
+      </c>
+      <c r="AR184">
+        <v>1.46</v>
+      </c>
+      <c r="AS184">
+        <v>1.56</v>
+      </c>
+      <c r="AT184">
+        <v>3.02</v>
+      </c>
+      <c r="AU184">
+        <v>0</v>
+      </c>
+      <c r="AV184">
+        <v>6</v>
+      </c>
+      <c r="AW184">
+        <v>6</v>
+      </c>
+      <c r="AX184">
+        <v>6</v>
+      </c>
+      <c r="AY184">
+        <v>6</v>
+      </c>
+      <c r="AZ184">
+        <v>12</v>
+      </c>
+      <c r="BA184">
+        <v>2</v>
+      </c>
+      <c r="BB184">
+        <v>10</v>
+      </c>
+      <c r="BC184">
+        <v>12</v>
+      </c>
+      <c r="BD184">
+        <v>2.4</v>
+      </c>
+      <c r="BE184">
+        <v>6.2</v>
+      </c>
+      <c r="BF184">
+        <v>1.85</v>
+      </c>
+      <c r="BG184">
+        <v>1.3</v>
+      </c>
+      <c r="BH184">
+        <v>2.97</v>
+      </c>
+      <c r="BI184">
+        <v>1.65</v>
+      </c>
+      <c r="BJ184">
+        <v>2.16</v>
+      </c>
+      <c r="BK184">
+        <v>1.85</v>
+      </c>
+      <c r="BL184">
+        <v>1.72</v>
+      </c>
+      <c r="BM184">
+        <v>2.6</v>
+      </c>
+      <c r="BN184">
+        <v>1.44</v>
+      </c>
+      <c r="BO184">
+        <v>3.58</v>
+      </c>
+      <c r="BP184">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7847671</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45782.58333333334</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
+        <v>85</v>
+      </c>
+      <c r="H185" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>186</v>
+      </c>
+      <c r="P185" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q185">
+        <v>4.2</v>
+      </c>
+      <c r="R185">
+        <v>1.97</v>
+      </c>
+      <c r="S185">
+        <v>2.72</v>
+      </c>
+      <c r="T185">
+        <v>1.48</v>
+      </c>
+      <c r="U185">
+        <v>2.59</v>
+      </c>
+      <c r="V185">
+        <v>3.34</v>
+      </c>
+      <c r="W185">
+        <v>1.3</v>
+      </c>
+      <c r="X185">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y185">
+        <v>1.01</v>
+      </c>
+      <c r="Z185">
+        <v>3.5</v>
+      </c>
+      <c r="AA185">
+        <v>3</v>
+      </c>
+      <c r="AB185">
+        <v>2.05</v>
+      </c>
+      <c r="AC185">
+        <v>1.1</v>
+      </c>
+      <c r="AD185">
+        <v>7.27</v>
+      </c>
+      <c r="AE185">
+        <v>1.42</v>
+      </c>
+      <c r="AF185">
+        <v>2.75</v>
+      </c>
+      <c r="AG185">
+        <v>2.25</v>
+      </c>
+      <c r="AH185">
+        <v>1.57</v>
+      </c>
+      <c r="AI185">
+        <v>1.98</v>
+      </c>
+      <c r="AJ185">
+        <v>1.79</v>
+      </c>
+      <c r="AK185">
+        <v>1.38</v>
+      </c>
+      <c r="AL185">
+        <v>1.3</v>
+      </c>
+      <c r="AM185">
+        <v>1.25</v>
+      </c>
+      <c r="AN185">
+        <v>1.68</v>
+      </c>
+      <c r="AO185">
+        <v>1.89</v>
+      </c>
+      <c r="AP185">
+        <v>1.65</v>
+      </c>
+      <c r="AQ185">
+        <v>1.85</v>
+      </c>
+      <c r="AR185">
+        <v>1.26</v>
+      </c>
+      <c r="AS185">
+        <v>1.5</v>
+      </c>
+      <c r="AT185">
+        <v>2.76</v>
+      </c>
+      <c r="AU185">
+        <v>7</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>9</v>
+      </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
+      <c r="AY185">
+        <v>16</v>
+      </c>
+      <c r="AZ185">
+        <v>10</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>5</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>2.25</v>
+      </c>
+      <c r="BE185">
+        <v>7.3</v>
+      </c>
+      <c r="BF185">
+        <v>1.95</v>
+      </c>
+      <c r="BG185">
+        <v>1.33</v>
+      </c>
+      <c r="BH185">
+        <v>3</v>
+      </c>
+      <c r="BI185">
+        <v>1.57</v>
+      </c>
+      <c r="BJ185">
+        <v>2.25</v>
+      </c>
+      <c r="BK185">
+        <v>2.08</v>
+      </c>
+      <c r="BL185">
+        <v>1.8</v>
+      </c>
+      <c r="BM185">
+        <v>2.4</v>
+      </c>
+      <c r="BN185">
+        <v>1.5</v>
+      </c>
+      <c r="BO185">
+        <v>3.2</v>
+      </c>
+      <c r="BP185">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7853043</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45783.45833333334</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186" t="s">
+        <v>83</v>
+      </c>
+      <c r="H186" t="s">
+        <v>71</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>89</v>
+      </c>
+      <c r="P186" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q186">
+        <v>3.25</v>
+      </c>
+      <c r="R186">
+        <v>1.7</v>
+      </c>
+      <c r="S186">
+        <v>4.33</v>
+      </c>
+      <c r="T186">
+        <v>1.67</v>
+      </c>
+      <c r="U186">
+        <v>2.05</v>
+      </c>
+      <c r="V186">
+        <v>4.33</v>
+      </c>
+      <c r="W186">
+        <v>1.2</v>
+      </c>
+      <c r="X186">
+        <v>15</v>
+      </c>
+      <c r="Y186">
+        <v>1.03</v>
+      </c>
+      <c r="Z186">
+        <v>2.73</v>
+      </c>
+      <c r="AA186">
+        <v>2.45</v>
+      </c>
+      <c r="AB186">
+        <v>2.9</v>
+      </c>
+      <c r="AC186">
+        <v>1.11</v>
+      </c>
+      <c r="AD186">
+        <v>4.9</v>
+      </c>
+      <c r="AE186">
+        <v>1.78</v>
+      </c>
+      <c r="AF186">
+        <v>1.92</v>
+      </c>
+      <c r="AG186">
+        <v>3.41</v>
+      </c>
+      <c r="AH186">
+        <v>1.27</v>
+      </c>
+      <c r="AI186">
+        <v>2.51</v>
+      </c>
+      <c r="AJ186">
+        <v>1.49</v>
+      </c>
+      <c r="AK186">
+        <v>1.3</v>
+      </c>
+      <c r="AL186">
+        <v>1.47</v>
+      </c>
+      <c r="AM186">
+        <v>1.49</v>
+      </c>
+      <c r="AN186">
+        <v>1.05</v>
+      </c>
+      <c r="AO186">
+        <v>1.1</v>
+      </c>
+      <c r="AP186">
+        <v>1.05</v>
+      </c>
+      <c r="AQ186">
+        <v>1.1</v>
+      </c>
+      <c r="AR186">
+        <v>1.35</v>
+      </c>
+      <c r="AS186">
+        <v>1.31</v>
+      </c>
+      <c r="AT186">
+        <v>2.66</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>2</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>7</v>
+      </c>
+      <c r="AY186">
+        <v>10</v>
+      </c>
+      <c r="AZ186">
+        <v>9</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>2</v>
+      </c>
+      <c r="BC186">
+        <v>3</v>
+      </c>
+      <c r="BD186">
+        <v>1.85</v>
+      </c>
+      <c r="BE186">
+        <v>7.3</v>
+      </c>
+      <c r="BF186">
+        <v>2.42</v>
+      </c>
+      <c r="BG186">
+        <v>1.42</v>
+      </c>
+      <c r="BH186">
+        <v>2.62</v>
+      </c>
+      <c r="BI186">
+        <v>1.7</v>
+      </c>
+      <c r="BJ186">
+        <v>2</v>
+      </c>
+      <c r="BK186">
+        <v>2.1</v>
+      </c>
+      <c r="BL186">
+        <v>1.65</v>
+      </c>
+      <c r="BM186">
+        <v>2.8</v>
+      </c>
+      <c r="BN186">
+        <v>1.38</v>
+      </c>
+      <c r="BO186">
+        <v>3.6</v>
+      </c>
+      <c r="BP186">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7853044</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45783.58333333334</v>
+      </c>
+      <c r="F187">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" t="s">
+        <v>80</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>89</v>
+      </c>
+      <c r="P187" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q187">
+        <v>3.43</v>
+      </c>
+      <c r="R187">
+        <v>1.7</v>
+      </c>
+      <c r="S187">
+        <v>4.15</v>
+      </c>
+      <c r="T187">
+        <v>1.72</v>
+      </c>
+      <c r="U187">
+        <v>2.16</v>
+      </c>
+      <c r="V187">
+        <v>4.1</v>
+      </c>
+      <c r="W187">
+        <v>1.17</v>
+      </c>
+      <c r="X187">
+        <v>17</v>
+      </c>
+      <c r="Y187">
+        <v>1.03</v>
+      </c>
+      <c r="Z187">
+        <v>2.5</v>
+      </c>
+      <c r="AA187">
+        <v>2.7</v>
+      </c>
+      <c r="AB187">
+        <v>3</v>
+      </c>
+      <c r="AC187">
+        <v>1.11</v>
+      </c>
+      <c r="AD187">
+        <v>5.3</v>
+      </c>
+      <c r="AE187">
+        <v>1.78</v>
+      </c>
+      <c r="AF187">
+        <v>2.08</v>
+      </c>
+      <c r="AG187">
+        <v>2.9</v>
+      </c>
+      <c r="AH187">
+        <v>1.35</v>
+      </c>
+      <c r="AI187">
+        <v>2.2</v>
+      </c>
+      <c r="AJ187">
+        <v>1.55</v>
+      </c>
+      <c r="AK187">
+        <v>1.42</v>
+      </c>
+      <c r="AL187">
+        <v>1.41</v>
+      </c>
+      <c r="AM187">
+        <v>1.45</v>
+      </c>
+      <c r="AN187">
+        <v>1.33</v>
+      </c>
+      <c r="AO187">
+        <v>1.1</v>
+      </c>
+      <c r="AP187">
+        <v>1.32</v>
+      </c>
+      <c r="AQ187">
+        <v>1.1</v>
+      </c>
+      <c r="AR187">
+        <v>1.3</v>
+      </c>
+      <c r="AS187">
+        <v>1.05</v>
+      </c>
+      <c r="AT187">
+        <v>2.35</v>
+      </c>
+      <c r="AU187">
+        <v>7</v>
+      </c>
+      <c r="AV187">
+        <v>3</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>6</v>
+      </c>
+      <c r="AY187">
+        <v>13</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>6</v>
+      </c>
+      <c r="BD187">
+        <v>1.91</v>
+      </c>
+      <c r="BE187">
+        <v>6.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.38</v>
+      </c>
+      <c r="BG187">
+        <v>1.53</v>
+      </c>
+      <c r="BH187">
+        <v>2.38</v>
+      </c>
+      <c r="BI187">
+        <v>1.91</v>
+      </c>
+      <c r="BJ187">
+        <v>1.8</v>
+      </c>
+      <c r="BK187">
+        <v>2.4</v>
+      </c>
+      <c r="BL187">
+        <v>1.5</v>
+      </c>
+      <c r="BM187">
+        <v>3.2</v>
+      </c>
+      <c r="BN187">
+        <v>1.3</v>
+      </c>
+      <c r="BO187">
+        <v>4.33</v>
+      </c>
+      <c r="BP187">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1182,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -3994,7 +3994,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ24">
         <v>0.7</v>
@@ -7290,7 +7290,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -9553,7 +9553,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ41">
         <v>0.44</v>
@@ -10998,7 +10998,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR48">
         <v>0.85</v>
@@ -13055,7 +13055,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
         <v>2.09</v>
@@ -15324,7 +15324,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ69">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR69">
         <v>1.78</v>
@@ -16351,7 +16351,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74">
         <v>1.82</v>
@@ -19238,7 +19238,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ88">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -20265,7 +20265,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ93">
         <v>0.8</v>
@@ -21916,7 +21916,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR101">
         <v>1.45</v>
@@ -24385,7 +24385,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ113">
         <v>0.64</v>
@@ -27684,7 +27684,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -28505,7 +28505,7 @@
         <v>1.71</v>
       </c>
       <c r="AP133">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ133">
         <v>1.64</v>
@@ -31598,7 +31598,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ148">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR148">
         <v>1.06</v>
@@ -33243,7 +33243,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AQ156">
         <v>1.05</v>
@@ -33449,7 +33449,7 @@
         <v>1.06</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ157">
         <v>1.1</v>
@@ -34482,7 +34482,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ162">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AR162">
         <v>1</v>
@@ -34894,7 +34894,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR164">
         <v>1.24</v>
@@ -36127,7 +36127,7 @@
         <v>1.05</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AQ170">
         <v>1.05</v>
@@ -38190,7 +38190,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ180">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AR180">
         <v>0.99</v>
@@ -38393,7 +38393,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AQ181">
         <v>0.95</v>
@@ -39708,6 +39708,212 @@
       </c>
       <c r="BP187">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7853045</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45784.45833333334</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="G188" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" t="s">
+        <v>73</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>89</v>
+      </c>
+      <c r="P188" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q188">
+        <v>4.65</v>
+      </c>
+      <c r="R188">
+        <v>1.65</v>
+      </c>
+      <c r="S188">
+        <v>3.35</v>
+      </c>
+      <c r="T188">
+        <v>1.84</v>
+      </c>
+      <c r="U188">
+        <v>2.02</v>
+      </c>
+      <c r="V188">
+        <v>4.2</v>
+      </c>
+      <c r="W188">
+        <v>1.17</v>
+      </c>
+      <c r="X188">
+        <v>12</v>
+      </c>
+      <c r="Y188">
+        <v>1</v>
+      </c>
+      <c r="Z188">
+        <v>3.51</v>
+      </c>
+      <c r="AA188">
+        <v>2.47</v>
+      </c>
+      <c r="AB188">
+        <v>2.32</v>
+      </c>
+      <c r="AC188">
+        <v>1.15</v>
+      </c>
+      <c r="AD188">
+        <v>4.6</v>
+      </c>
+      <c r="AE188">
+        <v>1.74</v>
+      </c>
+      <c r="AF188">
+        <v>1.96</v>
+      </c>
+      <c r="AG188">
+        <v>3.09</v>
+      </c>
+      <c r="AH188">
+        <v>1.32</v>
+      </c>
+      <c r="AI188">
+        <v>2.5</v>
+      </c>
+      <c r="AJ188">
+        <v>1.47</v>
+      </c>
+      <c r="AK188">
+        <v>1.37</v>
+      </c>
+      <c r="AL188">
+        <v>1.43</v>
+      </c>
+      <c r="AM188">
+        <v>1.22</v>
+      </c>
+      <c r="AN188">
+        <v>1.29</v>
+      </c>
+      <c r="AO188">
+        <v>0.8</v>
+      </c>
+      <c r="AP188">
+        <v>1.23</v>
+      </c>
+      <c r="AQ188">
+        <v>0.9</v>
+      </c>
+      <c r="AR188">
+        <v>1.16</v>
+      </c>
+      <c r="AS188">
+        <v>1.12</v>
+      </c>
+      <c r="AT188">
+        <v>2.28</v>
+      </c>
+      <c r="AU188">
+        <v>0</v>
+      </c>
+      <c r="AV188">
+        <v>4</v>
+      </c>
+      <c r="AW188">
+        <v>6</v>
+      </c>
+      <c r="AX188">
+        <v>9</v>
+      </c>
+      <c r="AY188">
+        <v>6</v>
+      </c>
+      <c r="AZ188">
+        <v>13</v>
+      </c>
+      <c r="BA188">
+        <v>1</v>
+      </c>
+      <c r="BB188">
+        <v>8</v>
+      </c>
+      <c r="BC188">
+        <v>9</v>
+      </c>
+      <c r="BD188">
+        <v>2.26</v>
+      </c>
+      <c r="BE188">
+        <v>7</v>
+      </c>
+      <c r="BF188">
+        <v>1.95</v>
+      </c>
+      <c r="BG188">
+        <v>1.48</v>
+      </c>
+      <c r="BH188">
+        <v>2.5</v>
+      </c>
+      <c r="BI188">
+        <v>1.75</v>
+      </c>
+      <c r="BJ188">
+        <v>1.95</v>
+      </c>
+      <c r="BK188">
+        <v>2.65</v>
+      </c>
+      <c r="BL188">
+        <v>1.57</v>
+      </c>
+      <c r="BM188">
+        <v>2.9</v>
+      </c>
+      <c r="BN188">
+        <v>1.36</v>
+      </c>
+      <c r="BO188">
+        <v>3.8</v>
+      </c>
+      <c r="BP188">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -822,6 +822,9 @@
   <si>
     <t>['1', '90+1']</t>
   </si>
+  <si>
+    <t>['74']</t>
+  </si>
 </sst>
 </file>
 
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP188"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2140,7 +2143,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ5">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ9">
         <v>0.7</v>
@@ -5230,7 +5233,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -6463,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -9556,7 +9559,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ41">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR41">
         <v>1.45</v>
@@ -10377,7 +10380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ45">
         <v>2.09</v>
@@ -10586,7 +10589,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ46">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR46">
         <v>0.9399999999999999</v>
@@ -11201,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -14500,7 +14503,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ65">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR65">
         <v>2.1</v>
@@ -16969,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -19444,7 +19447,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ89">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR89">
         <v>1.05</v>
@@ -20059,7 +20062,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -22740,7 +22743,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ105">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR105">
         <v>0.91</v>
@@ -26239,7 +26242,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
         <v>2.2</v>
@@ -26448,7 +26451,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ123">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR123">
         <v>1.55</v>
@@ -29741,7 +29744,7 @@
         <v>1.14</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ139">
         <v>1.38</v>
@@ -30568,7 +30571,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ143">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -34276,7 +34279,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ161">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AR161">
         <v>1.28</v>
@@ -34479,7 +34482,7 @@
         <v>0.72</v>
       </c>
       <c r="AP162">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
         <v>0.9</v>
@@ -34685,7 +34688,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AQ163">
         <v>1.1</v>
@@ -36539,7 +36542,7 @@
         <v>1.26</v>
       </c>
       <c r="AP172">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AQ172">
         <v>1.32</v>
@@ -36745,7 +36748,7 @@
         <v>1.05</v>
       </c>
       <c r="AP173">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>0.95</v>
@@ -37778,7 +37781,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ178">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AR178">
         <v>1.33</v>
@@ -38187,7 +38190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ180">
         <v>1.23</v>
@@ -39914,6 +39917,212 @@
       </c>
       <c r="BP188">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7853046</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45784.58333333334</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189" t="s">
+        <v>77</v>
+      </c>
+      <c r="H189" t="s">
+        <v>84</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>89</v>
+      </c>
+      <c r="P189" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q189">
+        <v>3.89</v>
+      </c>
+      <c r="R189">
+        <v>1.62</v>
+      </c>
+      <c r="S189">
+        <v>3.9</v>
+      </c>
+      <c r="T189">
+        <v>1.93</v>
+      </c>
+      <c r="U189">
+        <v>1.89</v>
+      </c>
+      <c r="V189">
+        <v>4.8</v>
+      </c>
+      <c r="W189">
+        <v>1.14</v>
+      </c>
+      <c r="X189">
+        <v>12</v>
+      </c>
+      <c r="Y189">
+        <v>1</v>
+      </c>
+      <c r="Z189">
+        <v>2.95</v>
+      </c>
+      <c r="AA189">
+        <v>2.45</v>
+      </c>
+      <c r="AB189">
+        <v>2.8</v>
+      </c>
+      <c r="AC189">
+        <v>1.2</v>
+      </c>
+      <c r="AD189">
+        <v>3.8</v>
+      </c>
+      <c r="AE189">
+        <v>1.99</v>
+      </c>
+      <c r="AF189">
+        <v>1.83</v>
+      </c>
+      <c r="AG189">
+        <v>3.8</v>
+      </c>
+      <c r="AH189">
+        <v>1.22</v>
+      </c>
+      <c r="AI189">
+        <v>2.65</v>
+      </c>
+      <c r="AJ189">
+        <v>1.42</v>
+      </c>
+      <c r="AK189">
+        <v>1.52</v>
+      </c>
+      <c r="AL189">
+        <v>1.42</v>
+      </c>
+      <c r="AM189">
+        <v>1.32</v>
+      </c>
+      <c r="AN189">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO189">
+        <v>0.9</v>
+      </c>
+      <c r="AP189">
+        <v>0.77</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>0.97</v>
+      </c>
+      <c r="AS189">
+        <v>1</v>
+      </c>
+      <c r="AT189">
+        <v>1.97</v>
+      </c>
+      <c r="AU189">
+        <v>0</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>4</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>4</v>
+      </c>
+      <c r="AZ189">
+        <v>6</v>
+      </c>
+      <c r="BA189">
+        <v>6</v>
+      </c>
+      <c r="BB189">
+        <v>8</v>
+      </c>
+      <c r="BC189">
+        <v>14</v>
+      </c>
+      <c r="BD189">
+        <v>1.9</v>
+      </c>
+      <c r="BE189">
+        <v>5.95</v>
+      </c>
+      <c r="BF189">
+        <v>2.38</v>
+      </c>
+      <c r="BG189">
+        <v>1.57</v>
+      </c>
+      <c r="BH189">
+        <v>2.25</v>
+      </c>
+      <c r="BI189">
+        <v>1.91</v>
+      </c>
+      <c r="BJ189">
+        <v>1.8</v>
+      </c>
+      <c r="BK189">
+        <v>2.54</v>
+      </c>
+      <c r="BL189">
+        <v>1.5</v>
+      </c>
+      <c r="BM189">
+        <v>3.35</v>
+      </c>
+      <c r="BN189">
+        <v>1.26</v>
+      </c>
+      <c r="BO189">
+        <v>4.6</v>
+      </c>
+      <c r="BP189">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['71', '90+3']</t>
   </si>
   <si>
+    <t>['35', '45+3', '58', '79']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -824,6 +827,9 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['6', '81']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1450,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1650,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1731,7 +1737,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2268,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2474,7 +2480,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2680,7 +2686,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3092,7 +3098,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3170,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10">
         <v>1.64</v>
@@ -3298,7 +3304,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3710,7 +3716,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3916,7 +3922,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4122,7 +4128,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4328,7 +4334,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -5152,7 +5158,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5358,7 +5364,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5642,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ22">
         <v>1.08</v>
@@ -5976,7 +5982,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6182,7 +6188,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6263,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -7212,7 +7218,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8448,7 +8454,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8654,7 +8660,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9147,7 +9153,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9272,7 +9278,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9684,7 +9690,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9890,7 +9896,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10302,7 +10308,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10714,7 +10720,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11126,7 +11132,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11538,7 +11544,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11744,7 +11750,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11950,7 +11956,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12980,7 +12986,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13186,7 +13192,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13598,7 +13604,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13679,7 +13685,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR61">
         <v>1.52</v>
@@ -14294,7 +14300,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14628,7 +14634,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15040,7 +15046,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15736,7 +15742,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ71">
         <v>1.18</v>
@@ -15864,7 +15870,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16276,7 +16282,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16482,7 +16488,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16688,7 +16694,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17100,7 +17106,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17306,7 +17312,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17512,7 +17518,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17799,7 +17805,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ81">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR81">
         <v>1.81</v>
@@ -18542,7 +18548,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18748,7 +18754,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18826,7 +18832,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ86">
         <v>2.09</v>
@@ -18954,7 +18960,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19366,7 +19372,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19572,7 +19578,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19778,7 +19784,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19984,7 +19990,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20190,7 +20196,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20889,7 +20895,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21220,7 +21226,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21426,7 +21432,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21632,7 +21638,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21838,7 +21844,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22044,7 +22050,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22328,7 +22334,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ103">
         <v>1.2</v>
@@ -22456,7 +22462,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23280,7 +23286,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23361,7 +23367,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR108">
         <v>0.86</v>
@@ -23692,7 +23698,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23898,7 +23904,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24182,7 +24188,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ112">
         <v>0.7</v>
@@ -25340,7 +25346,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25752,7 +25758,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26164,7 +26170,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26370,7 +26376,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27275,7 +27281,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ127">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR127">
         <v>1.47</v>
@@ -27812,7 +27818,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28018,7 +28024,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28636,7 +28642,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28714,7 +28720,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ134">
         <v>1.73</v>
@@ -29254,7 +29260,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29460,7 +29466,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29666,7 +29672,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29872,7 +29878,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -29953,7 +29959,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ140">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR140">
         <v>1.52</v>
@@ -30078,7 +30084,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30284,7 +30290,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30696,7 +30702,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30902,7 +30908,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31520,7 +31526,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31726,7 +31732,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31932,7 +31938,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32344,7 +32350,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32628,7 +32634,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ153">
         <v>1.5</v>
@@ -32962,7 +32968,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33580,7 +33586,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33867,7 +33873,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ159">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR159">
         <v>1.58</v>
@@ -33992,7 +33998,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34198,7 +34204,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34816,7 +34822,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35228,7 +35234,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35515,7 +35521,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ167">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35718,7 +35724,7 @@
         <v>1.39</v>
       </c>
       <c r="AP168">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ168">
         <v>1.19</v>
@@ -35846,7 +35852,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36258,7 +36264,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36464,7 +36470,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36876,7 +36882,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37082,7 +37088,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37163,7 +37169,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ175">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AR175">
         <v>1.49</v>
@@ -37288,7 +37294,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37572,7 +37578,7 @@
         <v>1.94</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177">
         <v>1.85</v>
@@ -37700,7 +37706,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38112,7 +38118,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38524,7 +38530,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38808,7 +38814,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ183">
         <v>1.05</v>
@@ -38936,7 +38942,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39142,7 +39148,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39760,7 +39766,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -39874,10 +39880,10 @@
         <v>1</v>
       </c>
       <c r="BB188">
+        <v>7</v>
+      </c>
+      <c r="BC188">
         <v>8</v>
-      </c>
-      <c r="BC188">
-        <v>9</v>
       </c>
       <c r="BD188">
         <v>2.26</v>
@@ -39966,7 +39972,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40077,13 +40083,13 @@
         <v>6</v>
       </c>
       <c r="BA189">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB189">
         <v>8</v>
       </c>
       <c r="BC189">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD189">
         <v>1.9</v>
@@ -40123,6 +40129,212 @@
       </c>
       <c r="BP189">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7853023</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45785.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190" t="s">
+        <v>78</v>
+      </c>
+      <c r="H190" t="s">
+        <v>86</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>4</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>6</v>
+      </c>
+      <c r="O190" t="s">
+        <v>187</v>
+      </c>
+      <c r="P190" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q190">
+        <v>1.94</v>
+      </c>
+      <c r="R190">
+        <v>2.45</v>
+      </c>
+      <c r="S190">
+        <v>5.2</v>
+      </c>
+      <c r="T190">
+        <v>1.4</v>
+      </c>
+      <c r="U190">
+        <v>2.7</v>
+      </c>
+      <c r="V190">
+        <v>2.88</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>7</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
+        <v>1.38</v>
+      </c>
+      <c r="AA190">
+        <v>4</v>
+      </c>
+      <c r="AB190">
+        <v>7</v>
+      </c>
+      <c r="AC190">
+        <v>1</v>
+      </c>
+      <c r="AD190">
+        <v>9</v>
+      </c>
+      <c r="AE190">
+        <v>1.2</v>
+      </c>
+      <c r="AF190">
+        <v>3.58</v>
+      </c>
+      <c r="AG190">
+        <v>1.77</v>
+      </c>
+      <c r="AH190">
+        <v>1.7</v>
+      </c>
+      <c r="AI190">
+        <v>1.85</v>
+      </c>
+      <c r="AJ190">
+        <v>1.65</v>
+      </c>
+      <c r="AK190">
+        <v>1.11</v>
+      </c>
+      <c r="AL190">
+        <v>1.23</v>
+      </c>
+      <c r="AM190">
+        <v>2.7</v>
+      </c>
+      <c r="AN190">
+        <v>2.3</v>
+      </c>
+      <c r="AO190">
+        <v>1.75</v>
+      </c>
+      <c r="AP190">
+        <v>2.33</v>
+      </c>
+      <c r="AQ190">
+        <v>1.67</v>
+      </c>
+      <c r="AR190">
+        <v>1.78</v>
+      </c>
+      <c r="AS190">
+        <v>1.24</v>
+      </c>
+      <c r="AT190">
+        <v>3.02</v>
+      </c>
+      <c r="AU190">
+        <v>10</v>
+      </c>
+      <c r="AV190">
+        <v>6</v>
+      </c>
+      <c r="AW190">
+        <v>10</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
+        <v>20</v>
+      </c>
+      <c r="AZ190">
+        <v>12</v>
+      </c>
+      <c r="BA190">
+        <v>6</v>
+      </c>
+      <c r="BB190">
+        <v>2</v>
+      </c>
+      <c r="BC190">
+        <v>8</v>
+      </c>
+      <c r="BD190">
+        <v>1.37</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>3.74</v>
+      </c>
+      <c r="BG190">
+        <v>1.29</v>
+      </c>
+      <c r="BH190">
+        <v>3.12</v>
+      </c>
+      <c r="BI190">
+        <v>1.49</v>
+      </c>
+      <c r="BJ190">
+        <v>2.3</v>
+      </c>
+      <c r="BK190">
+        <v>1.8</v>
+      </c>
+      <c r="BL190">
+        <v>1.79</v>
+      </c>
+      <c r="BM190">
+        <v>2.41</v>
+      </c>
+      <c r="BN190">
+        <v>1.52</v>
+      </c>
+      <c r="BO190">
+        <v>3.15</v>
+      </c>
+      <c r="BP190">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['35', '45+3', '58', '79']</t>
   </si>
   <si>
+    <t>['64', '90+4']</t>
+  </si>
+  <si>
+    <t>['11', '49']</t>
+  </si>
+  <si>
+    <t>['4', '21', '82', '86']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -830,6 +839,15 @@
   </si>
   <si>
     <t>['6', '81']</t>
+  </si>
+  <si>
+    <t>['14', '69']</t>
+  </si>
+  <si>
+    <t>['25', '90+4']</t>
+  </si>
+  <si>
+    <t>['48', '74']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1468,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1656,7 +1674,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2274,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2352,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ6">
         <v>1.08</v>
@@ -2480,7 +2498,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2561,7 +2579,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2686,7 +2704,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3098,7 +3116,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3304,7 +3322,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3716,7 +3734,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3922,7 +3940,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4128,7 +4146,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4209,7 +4227,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ15">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4334,7 +4352,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4415,7 +4433,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4618,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -5030,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19">
         <v>0.64</v>
@@ -5158,7 +5176,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5236,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ20">
         <v>0.7</v>
@@ -5364,7 +5382,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5982,7 +6000,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6188,7 +6206,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6475,7 +6493,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -7218,7 +7236,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7296,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7708,7 +7726,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>2.2</v>
@@ -8329,7 +8347,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ35">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8454,7 +8472,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8660,7 +8678,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -8741,7 +8759,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ37">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>2.48</v>
@@ -8947,7 +8965,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR38">
         <v>1.3</v>
@@ -9278,7 +9296,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9690,7 +9708,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9896,7 +9914,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9974,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ43">
         <v>1.6</v>
@@ -10308,7 +10326,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10389,7 +10407,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ45">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR45">
         <v>1.27</v>
@@ -10720,7 +10738,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10801,7 +10819,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ47">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11132,7 +11150,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11544,7 +11562,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11750,7 +11768,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11828,7 +11846,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
         <v>1.64</v>
@@ -11956,7 +11974,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12986,7 +13004,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13067,7 +13085,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ58">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13192,7 +13210,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13270,7 +13288,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13479,7 +13497,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR60">
         <v>1.01</v>
@@ -13604,7 +13622,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13682,7 +13700,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ61">
         <v>1.45</v>
@@ -14634,7 +14652,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14918,7 +14936,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -15046,7 +15064,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15870,7 +15888,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16282,7 +16300,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16488,7 +16506,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16694,7 +16712,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17106,7 +17124,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17184,7 +17202,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ78">
         <v>2.2</v>
@@ -17312,7 +17330,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17390,7 +17408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -17518,7 +17536,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17599,7 +17617,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ80">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18011,7 +18029,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -18548,7 +18566,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18754,7 +18772,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18835,7 +18853,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ86">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR86">
         <v>1.96</v>
@@ -18960,7 +18978,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19372,7 +19390,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19578,7 +19596,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19656,10 +19674,10 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
         <v>1.09</v>
@@ -19784,7 +19802,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19990,7 +20008,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20196,7 +20214,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20483,7 +20501,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ94">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
         <v>1.88</v>
@@ -21226,7 +21244,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21304,7 +21322,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ98">
         <v>0.7</v>
@@ -21432,7 +21450,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21510,7 +21528,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21638,7 +21656,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21844,7 +21862,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22050,7 +22068,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22128,7 +22146,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22337,7 +22355,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ103">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR103">
         <v>2.01</v>
@@ -22462,7 +22480,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22543,7 +22561,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ104">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23286,7 +23304,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23570,7 +23588,7 @@
         <v>1.6</v>
       </c>
       <c r="AP109">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ109">
         <v>1.6</v>
@@ -23698,7 +23716,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23904,7 +23922,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -23982,10 +24000,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ111">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.41</v>
@@ -25346,7 +25364,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25633,7 +25651,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -25758,7 +25776,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26170,7 +26188,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26376,7 +26394,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26454,7 +26472,7 @@
         <v>0.43</v>
       </c>
       <c r="AP123">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ123">
         <v>0.7</v>
@@ -26869,7 +26887,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ125">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27690,7 +27708,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ129">
         <v>0.6</v>
@@ -27818,7 +27836,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28024,7 +28042,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28102,7 +28120,7 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ131">
         <v>1.08</v>
@@ -28642,7 +28660,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28723,7 +28741,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ134">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR134">
         <v>1.8</v>
@@ -29260,7 +29278,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29466,7 +29484,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29672,7 +29690,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29878,7 +29896,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30084,7 +30102,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30290,7 +30308,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30702,7 +30720,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30783,7 +30801,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ144">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AR144">
         <v>1.03</v>
@@ -30908,7 +30926,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -30986,10 +31004,10 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ145">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR145">
         <v>1.67</v>
@@ -31192,7 +31210,7 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ146">
         <v>0.8</v>
@@ -31398,7 +31416,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ147">
         <v>1.18</v>
@@ -31526,7 +31544,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31732,7 +31750,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31813,7 +31831,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ149">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR149">
         <v>0.91</v>
@@ -31938,7 +31956,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32350,7 +32368,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32968,7 +32986,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33049,7 +33067,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ155">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33586,7 +33604,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33664,10 +33682,10 @@
         <v>1.71</v>
       </c>
       <c r="AP158">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ158">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33870,7 +33888,7 @@
         <v>1.76</v>
       </c>
       <c r="AP159">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AQ159">
         <v>1.67</v>
@@ -33998,7 +34016,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34204,7 +34222,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34822,7 +34840,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35234,7 +35252,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35312,10 +35330,10 @@
         <v>1.41</v>
       </c>
       <c r="AP166">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35518,7 +35536,7 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AQ167">
         <v>2.33</v>
@@ -35727,7 +35745,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ168">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -35852,7 +35870,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35933,7 +35951,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ169">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36264,7 +36282,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36470,7 +36488,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36882,7 +36900,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -36963,7 +36981,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ174">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37088,7 +37106,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37166,7 +37184,7 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ175">
         <v>2.33</v>
@@ -37294,7 +37312,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37372,10 +37390,10 @@
         <v>1.61</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ176">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37581,7 +37599,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ177">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37706,7 +37724,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38118,7 +38136,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38530,7 +38548,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38608,10 +38626,10 @@
         <v>2.35</v>
       </c>
       <c r="AP182">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ182">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="AR182">
         <v>1.2</v>
@@ -38942,7 +38960,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39020,10 +39038,10 @@
         <v>1.42</v>
       </c>
       <c r="AP184">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AQ184">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39148,7 +39166,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39226,10 +39244,10 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AQ185">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AR185">
         <v>1.26</v>
@@ -39766,7 +39784,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -39865,16 +39883,16 @@
         <v>4</v>
       </c>
       <c r="AW188">
+        <v>5</v>
+      </c>
+      <c r="AX188">
         <v>6</v>
-      </c>
-      <c r="AX188">
-        <v>9</v>
       </c>
       <c r="AY188">
         <v>6</v>
       </c>
       <c r="AZ188">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA188">
         <v>1</v>
@@ -39972,7 +39990,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40178,7 +40196,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40335,6 +40353,624 @@
       </c>
       <c r="BP190">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7853024</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45786.45833333334</v>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+      <c r="G191" t="s">
+        <v>87</v>
+      </c>
+      <c r="H191" t="s">
+        <v>76</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>188</v>
+      </c>
+      <c r="P191" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q191">
+        <v>4.12</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>2.65</v>
+      </c>
+      <c r="T191">
+        <v>1.42</v>
+      </c>
+      <c r="U191">
+        <v>2.55</v>
+      </c>
+      <c r="V191">
+        <v>2.95</v>
+      </c>
+      <c r="W191">
+        <v>1.36</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>3.57</v>
+      </c>
+      <c r="AA191">
+        <v>3.08</v>
+      </c>
+      <c r="AB191">
+        <v>2.09</v>
+      </c>
+      <c r="AC191">
+        <v>1.05</v>
+      </c>
+      <c r="AD191">
+        <v>7</v>
+      </c>
+      <c r="AE191">
+        <v>1.33</v>
+      </c>
+      <c r="AF191">
+        <v>2.95</v>
+      </c>
+      <c r="AG191">
+        <v>2.07</v>
+      </c>
+      <c r="AH191">
+        <v>1.7</v>
+      </c>
+      <c r="AI191">
+        <v>1.85</v>
+      </c>
+      <c r="AJ191">
+        <v>1.8</v>
+      </c>
+      <c r="AK191">
+        <v>1.35</v>
+      </c>
+      <c r="AL191">
+        <v>1.33</v>
+      </c>
+      <c r="AM191">
+        <v>1.22</v>
+      </c>
+      <c r="AN191">
+        <v>1.5</v>
+      </c>
+      <c r="AO191">
+        <v>1.85</v>
+      </c>
+      <c r="AP191">
+        <v>1.48</v>
+      </c>
+      <c r="AQ191">
+        <v>1.81</v>
+      </c>
+      <c r="AR191">
+        <v>1.56</v>
+      </c>
+      <c r="AS191">
+        <v>1.48</v>
+      </c>
+      <c r="AT191">
+        <v>3.04</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
+        <v>5</v>
+      </c>
+      <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
+        <v>2</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>7</v>
+      </c>
+      <c r="BA191">
+        <v>2</v>
+      </c>
+      <c r="BB191">
+        <v>4</v>
+      </c>
+      <c r="BC191">
+        <v>6</v>
+      </c>
+      <c r="BD191">
+        <v>2</v>
+      </c>
+      <c r="BE191">
+        <v>6.2</v>
+      </c>
+      <c r="BF191">
+        <v>2.2</v>
+      </c>
+      <c r="BG191">
+        <v>1.32</v>
+      </c>
+      <c r="BH191">
+        <v>3.1</v>
+      </c>
+      <c r="BI191">
+        <v>1.59</v>
+      </c>
+      <c r="BJ191">
+        <v>2.26</v>
+      </c>
+      <c r="BK191">
+        <v>1.93</v>
+      </c>
+      <c r="BL191">
+        <v>1.76</v>
+      </c>
+      <c r="BM191">
+        <v>2.46</v>
+      </c>
+      <c r="BN191">
+        <v>1.43</v>
+      </c>
+      <c r="BO191">
+        <v>3.34</v>
+      </c>
+      <c r="BP191">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7853025</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45786.58333333334</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192" t="s">
+        <v>74</v>
+      </c>
+      <c r="H192" t="s">
+        <v>82</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>189</v>
+      </c>
+      <c r="P192" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q192">
+        <v>3.18</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>3.92</v>
+      </c>
+      <c r="T192">
+        <v>1.42</v>
+      </c>
+      <c r="U192">
+        <v>2.6</v>
+      </c>
+      <c r="V192">
+        <v>3.1</v>
+      </c>
+      <c r="W192">
+        <v>1.32</v>
+      </c>
+      <c r="X192">
+        <v>8.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.02</v>
+      </c>
+      <c r="Z192">
+        <v>2.5</v>
+      </c>
+      <c r="AA192">
+        <v>3</v>
+      </c>
+      <c r="AB192">
+        <v>2.9</v>
+      </c>
+      <c r="AC192">
+        <v>1.04</v>
+      </c>
+      <c r="AD192">
+        <v>7</v>
+      </c>
+      <c r="AE192">
+        <v>1.37</v>
+      </c>
+      <c r="AF192">
+        <v>2.88</v>
+      </c>
+      <c r="AG192">
+        <v>2.2</v>
+      </c>
+      <c r="AH192">
+        <v>1.62</v>
+      </c>
+      <c r="AI192">
+        <v>1.77</v>
+      </c>
+      <c r="AJ192">
+        <v>1.85</v>
+      </c>
+      <c r="AK192">
+        <v>1.33</v>
+      </c>
+      <c r="AL192">
+        <v>1.36</v>
+      </c>
+      <c r="AM192">
+        <v>1.49</v>
+      </c>
+      <c r="AN192">
+        <v>1.45</v>
+      </c>
+      <c r="AO192">
+        <v>1.19</v>
+      </c>
+      <c r="AP192">
+        <v>1.43</v>
+      </c>
+      <c r="AQ192">
+        <v>1.18</v>
+      </c>
+      <c r="AR192">
+        <v>1.2</v>
+      </c>
+      <c r="AS192">
+        <v>1.42</v>
+      </c>
+      <c r="AT192">
+        <v>2.62</v>
+      </c>
+      <c r="AU192">
+        <v>4</v>
+      </c>
+      <c r="AV192">
+        <v>7</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>6</v>
+      </c>
+      <c r="AY192">
+        <v>9</v>
+      </c>
+      <c r="AZ192">
+        <v>13</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>7</v>
+      </c>
+      <c r="BC192">
+        <v>14</v>
+      </c>
+      <c r="BD192">
+        <v>2.15</v>
+      </c>
+      <c r="BE192">
+        <v>7</v>
+      </c>
+      <c r="BF192">
+        <v>2.15</v>
+      </c>
+      <c r="BG192">
+        <v>1.37</v>
+      </c>
+      <c r="BH192">
+        <v>2.63</v>
+      </c>
+      <c r="BI192">
+        <v>1.7</v>
+      </c>
+      <c r="BJ192">
+        <v>2.05</v>
+      </c>
+      <c r="BK192">
+        <v>2.6</v>
+      </c>
+      <c r="BL192">
+        <v>1.66</v>
+      </c>
+      <c r="BM192">
+        <v>2.78</v>
+      </c>
+      <c r="BN192">
+        <v>1.39</v>
+      </c>
+      <c r="BO192">
+        <v>3.75</v>
+      </c>
+      <c r="BP192">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7853026</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45786.58333333334</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="G193" t="s">
+        <v>85</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193">
+        <v>6</v>
+      </c>
+      <c r="O193" t="s">
+        <v>190</v>
+      </c>
+      <c r="P193" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q193">
+        <v>4.49</v>
+      </c>
+      <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>2.15</v>
+      </c>
+      <c r="T193">
+        <v>1.32</v>
+      </c>
+      <c r="U193">
+        <v>2.9</v>
+      </c>
+      <c r="V193">
+        <v>2.62</v>
+      </c>
+      <c r="W193">
+        <v>1.42</v>
+      </c>
+      <c r="X193">
+        <v>6</v>
+      </c>
+      <c r="Y193">
+        <v>1.09</v>
+      </c>
+      <c r="Z193">
+        <v>3.99</v>
+      </c>
+      <c r="AA193">
+        <v>3.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.9</v>
+      </c>
+      <c r="AC193">
+        <v>1.05</v>
+      </c>
+      <c r="AD193">
+        <v>9.25</v>
+      </c>
+      <c r="AE193">
+        <v>1.23</v>
+      </c>
+      <c r="AF193">
+        <v>3.42</v>
+      </c>
+      <c r="AG193">
+        <v>1.85</v>
+      </c>
+      <c r="AH193">
+        <v>1.85</v>
+      </c>
+      <c r="AI193">
+        <v>1.71</v>
+      </c>
+      <c r="AJ193">
+        <v>2.05</v>
+      </c>
+      <c r="AK193">
+        <v>1.3</v>
+      </c>
+      <c r="AL193">
+        <v>1.29</v>
+      </c>
+      <c r="AM193">
+        <v>1.15</v>
+      </c>
+      <c r="AN193">
+        <v>1.65</v>
+      </c>
+      <c r="AO193">
+        <v>2.24</v>
+      </c>
+      <c r="AP193">
+        <v>1.71</v>
+      </c>
+      <c r="AQ193">
+        <v>2.14</v>
+      </c>
+      <c r="AR193">
+        <v>1.29</v>
+      </c>
+      <c r="AS193">
+        <v>1.59</v>
+      </c>
+      <c r="AT193">
+        <v>2.88</v>
+      </c>
+      <c r="AU193">
+        <v>9</v>
+      </c>
+      <c r="AV193">
+        <v>7</v>
+      </c>
+      <c r="AW193">
+        <v>2</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>12</v>
+      </c>
+      <c r="BA193">
+        <v>1</v>
+      </c>
+      <c r="BB193">
+        <v>10</v>
+      </c>
+      <c r="BC193">
+        <v>11</v>
+      </c>
+      <c r="BD193">
+        <v>2.38</v>
+      </c>
+      <c r="BE193">
+        <v>6.35</v>
+      </c>
+      <c r="BF193">
+        <v>1.9</v>
+      </c>
+      <c r="BG193">
+        <v>1.22</v>
+      </c>
+      <c r="BH193">
+        <v>3.27</v>
+      </c>
+      <c r="BI193">
+        <v>1.5</v>
+      </c>
+      <c r="BJ193">
+        <v>2.39</v>
+      </c>
+      <c r="BK193">
+        <v>2.08</v>
+      </c>
+      <c r="BL193">
+        <v>1.9</v>
+      </c>
+      <c r="BM193">
+        <v>2.32</v>
+      </c>
+      <c r="BN193">
+        <v>1.54</v>
+      </c>
+      <c r="BO193">
+        <v>3</v>
+      </c>
+      <c r="BP193">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1209,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2991,7 +2991,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ9">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12">
         <v>0.8</v>
@@ -6081,7 +6081,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR24">
         <v>1.3</v>
@@ -7520,7 +7520,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -11022,7 +11022,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ48">
         <v>0.6</v>
@@ -11643,7 +11643,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ51">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR51">
         <v>1.77</v>
@@ -15142,7 +15142,7 @@
         <v>1.67</v>
       </c>
       <c r="AP68">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ68">
         <v>1.6</v>
@@ -15557,7 +15557,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ70">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>1.68</v>
@@ -18232,7 +18232,7 @@
         <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ83">
         <v>0.64</v>
@@ -21325,7 +21325,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ98">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -23382,7 +23382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ108">
         <v>1.45</v>
@@ -24209,7 +24209,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ112">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -26678,7 +26678,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ124">
         <v>1.18</v>
@@ -28947,7 +28947,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR135">
         <v>1.18</v>
@@ -30798,7 +30798,7 @@
         <v>2.13</v>
       </c>
       <c r="AP144">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ144">
         <v>1.92</v>
@@ -32240,7 +32240,7 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ151">
         <v>1.17</v>
@@ -32861,7 +32861,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ154">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR154">
         <v>1.59</v>
@@ -33479,7 +33479,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ157">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR157">
         <v>1.17</v>
@@ -34715,7 +34715,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ163">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR163">
         <v>0.99</v>
@@ -36363,7 +36363,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ171">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -39659,7 +39659,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ187">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR187">
         <v>1.3</v>
@@ -40971,6 +40971,212 @@
       </c>
       <c r="BP193">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7853047</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="F194">
+        <v>6</v>
+      </c>
+      <c r="G194" t="s">
+        <v>80</v>
+      </c>
+      <c r="H194" t="s">
+        <v>79</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>89</v>
+      </c>
+      <c r="P194" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q194">
+        <v>3.4</v>
+      </c>
+      <c r="R194">
+        <v>1.73</v>
+      </c>
+      <c r="S194">
+        <v>4.33</v>
+      </c>
+      <c r="T194">
+        <v>1.8</v>
+      </c>
+      <c r="U194">
+        <v>1.91</v>
+      </c>
+      <c r="V194">
+        <v>5</v>
+      </c>
+      <c r="W194">
+        <v>1.14</v>
+      </c>
+      <c r="X194">
+        <v>11</v>
+      </c>
+      <c r="Y194">
+        <v>1.02</v>
+      </c>
+      <c r="Z194">
+        <v>2.45</v>
+      </c>
+      <c r="AA194">
+        <v>2.47</v>
+      </c>
+      <c r="AB194">
+        <v>3.7</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+      <c r="AD194">
+        <v>0</v>
+      </c>
+      <c r="AE194">
+        <v>1.75</v>
+      </c>
+      <c r="AF194">
+        <v>1.95</v>
+      </c>
+      <c r="AG194">
+        <v>3.75</v>
+      </c>
+      <c r="AH194">
+        <v>1.25</v>
+      </c>
+      <c r="AI194">
+        <v>2.75</v>
+      </c>
+      <c r="AJ194">
+        <v>1.4</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>0</v>
+      </c>
+      <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>1.1</v>
+      </c>
+      <c r="AO194">
+        <v>0.95</v>
+      </c>
+      <c r="AP194">
+        <v>1.09</v>
+      </c>
+      <c r="AQ194">
+        <v>0.95</v>
+      </c>
+      <c r="AR194">
+        <v>1.05</v>
+      </c>
+      <c r="AS194">
+        <v>1.2</v>
+      </c>
+      <c r="AT194">
+        <v>2.25</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>5</v>
+      </c>
+      <c r="AX194">
+        <v>3</v>
+      </c>
+      <c r="AY194">
+        <v>9</v>
+      </c>
+      <c r="AZ194">
+        <v>6</v>
+      </c>
+      <c r="BA194">
+        <v>7</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>7</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>0</v>
+      </c>
+      <c r="BG194">
+        <v>0</v>
+      </c>
+      <c r="BH194">
+        <v>0</v>
+      </c>
+      <c r="BI194">
+        <v>0</v>
+      </c>
+      <c r="BJ194">
+        <v>0</v>
+      </c>
+      <c r="BK194">
+        <v>0</v>
+      </c>
+      <c r="BL194">
+        <v>0</v>
+      </c>
+      <c r="BM194">
+        <v>0</v>
+      </c>
+      <c r="BN194">
+        <v>0</v>
+      </c>
+      <c r="BO194">
+        <v>0</v>
+      </c>
+      <c r="BP194">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -41059,10 +41059,10 @@
         <v>3.7</v>
       </c>
       <c r="AC194">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD194">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE194">
         <v>1.75</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -849,6 +849,9 @@
   <si>
     <t>['48', '74']</t>
   </si>
+  <si>
+    <t>['16']</t>
+  </si>
 </sst>
 </file>
 
@@ -1209,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP194"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2167,7 +2170,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ5">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4224,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -5257,7 +5260,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -7932,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ33">
         <v>1.18</v>
@@ -9583,7 +9586,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ41">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>1.45</v>
@@ -10613,7 +10616,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ46">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>0.9399999999999999</v>
@@ -11640,7 +11643,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ51">
         <v>0.73</v>
@@ -14527,7 +14530,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ65">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
         <v>2.1</v>
@@ -15348,7 +15351,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ69">
         <v>0.6</v>
@@ -19471,7 +19474,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ89">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR89">
         <v>1.05</v>
@@ -19880,7 +19883,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -22558,7 +22561,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ104">
         <v>1.92</v>
@@ -22767,7 +22770,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ105">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>0.91</v>
@@ -25854,7 +25857,7 @@
         <v>1.86</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ120">
         <v>1.82</v>
@@ -26475,7 +26478,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ123">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR123">
         <v>1.55</v>
@@ -29974,7 +29977,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ140">
         <v>1.45</v>
@@ -30595,7 +30598,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ143">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -33273,7 +33276,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ156">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.1</v>
@@ -34506,7 +34509,7 @@
         <v>0.72</v>
       </c>
       <c r="AP162">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ162">
         <v>0.9</v>
@@ -35127,7 +35130,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ165">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.23</v>
@@ -36157,7 +36160,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ170">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.17</v>
@@ -36772,7 +36775,7 @@
         <v>1.05</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ173">
         <v>0.95</v>
@@ -37802,7 +37805,7 @@
         <v>0.8</v>
       </c>
       <c r="AP178">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
         <v>0.77</v>
@@ -38214,7 +38217,7 @@
         <v>1.2</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ180">
         <v>1.23</v>
@@ -39450,7 +39453,7 @@
         <v>1.1</v>
       </c>
       <c r="AP186">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>1.1</v>
@@ -40071,7 +40074,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ189">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AR189">
         <v>0.97</v>
@@ -41177,6 +41180,212 @@
       </c>
       <c r="BP194">
         <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7853048</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45788.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>6</v>
+      </c>
+      <c r="G195" t="s">
+        <v>83</v>
+      </c>
+      <c r="H195" t="s">
+        <v>84</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>89</v>
+      </c>
+      <c r="P195" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q195">
+        <v>3.78</v>
+      </c>
+      <c r="R195">
+        <v>1.65</v>
+      </c>
+      <c r="S195">
+        <v>3.95</v>
+      </c>
+      <c r="T195">
+        <v>1.65</v>
+      </c>
+      <c r="U195">
+        <v>2.05</v>
+      </c>
+      <c r="V195">
+        <v>4.33</v>
+      </c>
+      <c r="W195">
+        <v>1.14</v>
+      </c>
+      <c r="X195">
+        <v>14</v>
+      </c>
+      <c r="Y195">
+        <v>1.02</v>
+      </c>
+      <c r="Z195">
+        <v>2.85</v>
+      </c>
+      <c r="AA195">
+        <v>2.56</v>
+      </c>
+      <c r="AB195">
+        <v>3.1</v>
+      </c>
+      <c r="AC195">
+        <v>1.17</v>
+      </c>
+      <c r="AD195">
+        <v>4.7</v>
+      </c>
+      <c r="AE195">
+        <v>1.73</v>
+      </c>
+      <c r="AF195">
+        <v>2.05</v>
+      </c>
+      <c r="AG195">
+        <v>3</v>
+      </c>
+      <c r="AH195">
+        <v>1.33</v>
+      </c>
+      <c r="AI195">
+        <v>2.4</v>
+      </c>
+      <c r="AJ195">
+        <v>1.5</v>
+      </c>
+      <c r="AK195">
+        <v>1.38</v>
+      </c>
+      <c r="AL195">
+        <v>1.43</v>
+      </c>
+      <c r="AM195">
+        <v>1.57</v>
+      </c>
+      <c r="AN195">
+        <v>1.05</v>
+      </c>
+      <c r="AO195">
+        <v>1</v>
+      </c>
+      <c r="AP195">
+        <v>1</v>
+      </c>
+      <c r="AQ195">
+        <v>1.09</v>
+      </c>
+      <c r="AR195">
+        <v>1.34</v>
+      </c>
+      <c r="AS195">
+        <v>1</v>
+      </c>
+      <c r="AT195">
+        <v>2.34</v>
+      </c>
+      <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>9</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+      <c r="AY195">
+        <v>14</v>
+      </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
+      <c r="BA195">
+        <v>13</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>14</v>
+      </c>
+      <c r="BD195">
+        <v>1.64</v>
+      </c>
+      <c r="BE195">
+        <v>7.6</v>
+      </c>
+      <c r="BF195">
+        <v>2.86</v>
+      </c>
+      <c r="BG195">
+        <v>1.44</v>
+      </c>
+      <c r="BH195">
+        <v>2.66</v>
+      </c>
+      <c r="BI195">
+        <v>1.77</v>
+      </c>
+      <c r="BJ195">
+        <v>1.98</v>
+      </c>
+      <c r="BK195">
+        <v>2.55</v>
+      </c>
+      <c r="BL195">
+        <v>1.63</v>
+      </c>
+      <c r="BM195">
+        <v>2.92</v>
+      </c>
+      <c r="BN195">
+        <v>1.31</v>
+      </c>
+      <c r="BO195">
+        <v>3.8</v>
+      </c>
+      <c r="BP195">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['4', '21', '82', '86']</t>
   </si>
   <si>
+    <t>['14', '41']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -851,6 +854,9 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['55', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1477,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1677,7 +1683,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1961,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
         <v>1.6</v>
@@ -2295,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2501,7 +2507,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2707,7 +2713,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3119,7 +3125,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3325,7 +3331,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3406,7 +3412,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3737,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3943,7 +3949,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4024,7 +4030,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4149,7 +4155,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4355,7 +4361,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -5179,7 +5185,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5385,7 +5391,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -6003,7 +6009,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6081,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>0.73</v>
@@ -6209,7 +6215,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7239,7 +7245,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7320,7 +7326,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7526,7 +7532,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR31">
         <v>1.06</v>
@@ -8475,7 +8481,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8681,7 +8687,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9299,7 +9305,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9583,7 +9589,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
         <v>0.91</v>
@@ -9711,7 +9717,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9917,7 +9923,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10329,7 +10335,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10741,7 +10747,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11028,7 +11034,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR48">
         <v>0.85</v>
@@ -11153,7 +11159,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11565,7 +11571,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11771,7 +11777,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11977,7 +11983,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12470,7 +12476,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR55">
         <v>0.74</v>
@@ -13007,7 +13013,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13085,7 +13091,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
         <v>1.92</v>
@@ -13213,7 +13219,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13625,7 +13631,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14655,7 +14661,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15067,7 +15073,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15354,7 +15360,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ69">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR69">
         <v>1.78</v>
@@ -15891,7 +15897,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16303,7 +16309,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16381,7 +16387,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74">
         <v>1.82</v>
@@ -16509,7 +16515,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16715,7 +16721,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16796,7 +16802,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR76">
         <v>0.77</v>
@@ -17127,7 +17133,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17333,7 +17339,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17539,7 +17545,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -18569,7 +18575,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18775,7 +18781,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18981,7 +18987,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19268,7 +19274,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ88">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -19393,7 +19399,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19599,7 +19605,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19805,7 +19811,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -20011,7 +20017,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20092,7 +20098,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR92">
         <v>1.04</v>
@@ -20217,7 +20223,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20295,7 +20301,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93">
         <v>0.8</v>
@@ -21247,7 +21253,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21453,7 +21459,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21659,7 +21665,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21865,7 +21871,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21946,7 +21952,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ101">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR101">
         <v>1.45</v>
@@ -22071,7 +22077,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22483,7 +22489,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23307,7 +23313,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23719,7 +23725,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23925,7 +23931,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24415,7 +24421,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ113">
         <v>0.64</v>
@@ -25242,7 +25248,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR117">
         <v>1.15</v>
@@ -25367,7 +25373,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25779,7 +25785,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26191,7 +26197,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26397,7 +26403,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27714,7 +27720,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ129">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -27839,7 +27845,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28045,7 +28051,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28535,7 +28541,7 @@
         <v>1.71</v>
       </c>
       <c r="AP133">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ133">
         <v>1.64</v>
@@ -28663,7 +28669,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29156,7 +29162,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR136">
         <v>1.71</v>
@@ -29281,7 +29287,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29487,7 +29493,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29693,7 +29699,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29899,7 +29905,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30105,7 +30111,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30311,7 +30317,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30723,7 +30729,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30929,7 +30935,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31547,7 +31553,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31628,7 +31634,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ148">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AR148">
         <v>1.06</v>
@@ -31753,7 +31759,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31959,7 +31965,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32371,7 +32377,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32658,7 +32664,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR153">
         <v>1.85</v>
@@ -32989,7 +32995,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33273,7 +33279,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33479,7 +33485,7 @@
         <v>1.06</v>
       </c>
       <c r="AP157">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AQ157">
         <v>1.09</v>
@@ -33607,7 +33613,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -34019,7 +34025,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34100,7 +34106,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ160">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34225,7 +34231,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34303,7 +34309,7 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ161">
         <v>0.77</v>
@@ -34512,7 +34518,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ162">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR162">
         <v>1</v>
@@ -34843,7 +34849,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34921,10 +34927,10 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ164">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AR164">
         <v>1.24</v>
@@ -35255,7 +35261,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35873,7 +35879,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36157,7 +36163,7 @@
         <v>1.05</v>
       </c>
       <c r="AP170">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36285,7 +36291,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36363,7 +36369,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ171">
         <v>1.09</v>
@@ -36491,7 +36497,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36572,7 +36578,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ172">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR172">
         <v>0.99</v>
@@ -36903,7 +36909,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37109,7 +37115,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37315,7 +37321,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37727,7 +37733,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38011,10 +38017,10 @@
         <v>1.11</v>
       </c>
       <c r="AP179">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ179">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR179">
         <v>1.3</v>
@@ -38139,7 +38145,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38220,7 +38226,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ180">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AR180">
         <v>0.99</v>
@@ -38423,7 +38429,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ181">
         <v>0.95</v>
@@ -38551,7 +38557,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38963,7 +38969,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39169,7 +39175,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39456,7 +39462,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AR186">
         <v>1.35</v>
@@ -39659,7 +39665,7 @@
         <v>1.1</v>
       </c>
       <c r="AP187">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ187">
         <v>1.09</v>
@@ -39787,7 +39793,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -39865,10 +39871,10 @@
         <v>0.8</v>
       </c>
       <c r="AP188">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AQ188">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR188">
         <v>1.16</v>
@@ -39993,7 +39999,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40199,7 +40205,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40405,7 +40411,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40611,7 +40617,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40817,7 +40823,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -41229,7 +41235,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41386,6 +41392,418 @@
       </c>
       <c r="BP195">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7853049</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F196">
+        <v>6</v>
+      </c>
+      <c r="G196" t="s">
+        <v>72</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>89</v>
+      </c>
+      <c r="P196" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q196">
+        <v>3.75</v>
+      </c>
+      <c r="R196">
+        <v>1.75</v>
+      </c>
+      <c r="S196">
+        <v>3.5</v>
+      </c>
+      <c r="T196">
+        <v>1.84</v>
+      </c>
+      <c r="U196">
+        <v>1.93</v>
+      </c>
+      <c r="V196">
+        <v>4</v>
+      </c>
+      <c r="W196">
+        <v>1.17</v>
+      </c>
+      <c r="X196">
+        <v>12.5</v>
+      </c>
+      <c r="Y196">
+        <v>1.01</v>
+      </c>
+      <c r="Z196">
+        <v>3.75</v>
+      </c>
+      <c r="AA196">
+        <v>2.45</v>
+      </c>
+      <c r="AB196">
+        <v>2.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.15</v>
+      </c>
+      <c r="AD196">
+        <v>4.8</v>
+      </c>
+      <c r="AE196">
+        <v>1.65</v>
+      </c>
+      <c r="AF196">
+        <v>1.83</v>
+      </c>
+      <c r="AG196">
+        <v>3</v>
+      </c>
+      <c r="AH196">
+        <v>1.35</v>
+      </c>
+      <c r="AI196">
+        <v>2.97</v>
+      </c>
+      <c r="AJ196">
+        <v>1.41</v>
+      </c>
+      <c r="AK196">
+        <v>1.44</v>
+      </c>
+      <c r="AL196">
+        <v>1.4</v>
+      </c>
+      <c r="AM196">
+        <v>1.37</v>
+      </c>
+      <c r="AN196">
+        <v>1.23</v>
+      </c>
+      <c r="AO196">
+        <v>1.1</v>
+      </c>
+      <c r="AP196">
+        <v>1.17</v>
+      </c>
+      <c r="AQ196">
+        <v>1.18</v>
+      </c>
+      <c r="AR196">
+        <v>1.14</v>
+      </c>
+      <c r="AS196">
+        <v>1.3</v>
+      </c>
+      <c r="AT196">
+        <v>2.44</v>
+      </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
+      <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
+        <v>13</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>17</v>
+      </c>
+      <c r="AZ196">
+        <v>5</v>
+      </c>
+      <c r="BA196">
+        <v>5</v>
+      </c>
+      <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
+        <v>7</v>
+      </c>
+      <c r="BD196">
+        <v>2.24</v>
+      </c>
+      <c r="BE196">
+        <v>7.2</v>
+      </c>
+      <c r="BF196">
+        <v>1.95</v>
+      </c>
+      <c r="BG196">
+        <v>1.38</v>
+      </c>
+      <c r="BH196">
+        <v>2.8</v>
+      </c>
+      <c r="BI196">
+        <v>1.67</v>
+      </c>
+      <c r="BJ196">
+        <v>2.1</v>
+      </c>
+      <c r="BK196">
+        <v>2.1</v>
+      </c>
+      <c r="BL196">
+        <v>1.63</v>
+      </c>
+      <c r="BM196">
+        <v>2.62</v>
+      </c>
+      <c r="BN196">
+        <v>1.42</v>
+      </c>
+      <c r="BO196">
+        <v>3.6</v>
+      </c>
+      <c r="BP196">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7853050</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="F197">
+        <v>6</v>
+      </c>
+      <c r="G197" t="s">
+        <v>81</v>
+      </c>
+      <c r="H197" t="s">
+        <v>73</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>191</v>
+      </c>
+      <c r="P197" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q197">
+        <v>3.47</v>
+      </c>
+      <c r="R197">
+        <v>1.76</v>
+      </c>
+      <c r="S197">
+        <v>3.55</v>
+      </c>
+      <c r="T197">
+        <v>1.67</v>
+      </c>
+      <c r="U197">
+        <v>2.1</v>
+      </c>
+      <c r="V197">
+        <v>4.1</v>
+      </c>
+      <c r="W197">
+        <v>1.22</v>
+      </c>
+      <c r="X197">
+        <v>12.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.03</v>
+      </c>
+      <c r="Z197">
+        <v>2.9</v>
+      </c>
+      <c r="AA197">
+        <v>2.78</v>
+      </c>
+      <c r="AB197">
+        <v>2.7</v>
+      </c>
+      <c r="AC197">
+        <v>1.13</v>
+      </c>
+      <c r="AD197">
+        <v>5.3</v>
+      </c>
+      <c r="AE197">
+        <v>1.65</v>
+      </c>
+      <c r="AF197">
+        <v>2.15</v>
+      </c>
+      <c r="AG197">
+        <v>3</v>
+      </c>
+      <c r="AH197">
+        <v>1.37</v>
+      </c>
+      <c r="AI197">
+        <v>2.3</v>
+      </c>
+      <c r="AJ197">
+        <v>1.53</v>
+      </c>
+      <c r="AK197">
+        <v>1.34</v>
+      </c>
+      <c r="AL197">
+        <v>1.36</v>
+      </c>
+      <c r="AM197">
+        <v>1.45</v>
+      </c>
+      <c r="AN197">
+        <v>1.32</v>
+      </c>
+      <c r="AO197">
+        <v>0.9</v>
+      </c>
+      <c r="AP197">
+        <v>1.3</v>
+      </c>
+      <c r="AQ197">
+        <v>0.91</v>
+      </c>
+      <c r="AR197">
+        <v>1.31</v>
+      </c>
+      <c r="AS197">
+        <v>1.12</v>
+      </c>
+      <c r="AT197">
+        <v>2.43</v>
+      </c>
+      <c r="AU197">
+        <v>6</v>
+      </c>
+      <c r="AV197">
+        <v>5</v>
+      </c>
+      <c r="AW197">
+        <v>5</v>
+      </c>
+      <c r="AX197">
+        <v>12</v>
+      </c>
+      <c r="AY197">
+        <v>11</v>
+      </c>
+      <c r="AZ197">
+        <v>17</v>
+      </c>
+      <c r="BA197">
+        <v>3</v>
+      </c>
+      <c r="BB197">
+        <v>6</v>
+      </c>
+      <c r="BC197">
+        <v>9</v>
+      </c>
+      <c r="BD197">
+        <v>2.03</v>
+      </c>
+      <c r="BE197">
+        <v>5.95</v>
+      </c>
+      <c r="BF197">
+        <v>2.19</v>
+      </c>
+      <c r="BG197">
+        <v>1.49</v>
+      </c>
+      <c r="BH197">
+        <v>2.38</v>
+      </c>
+      <c r="BI197">
+        <v>1.89</v>
+      </c>
+      <c r="BJ197">
+        <v>1.85</v>
+      </c>
+      <c r="BK197">
+        <v>2.4</v>
+      </c>
+      <c r="BL197">
+        <v>1.5</v>
+      </c>
+      <c r="BM197">
+        <v>3.2</v>
+      </c>
+      <c r="BN197">
+        <v>1.3</v>
+      </c>
+      <c r="BO197">
+        <v>4.33</v>
+      </c>
+      <c r="BP197">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1218,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3824,7 +3824,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ19">
         <v>0.64</v>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ30">
         <v>0.64</v>
@@ -7738,7 +7738,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -12064,7 +12064,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ53">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR53">
         <v>0.97</v>
@@ -12888,7 +12888,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ57">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR57">
         <v>0.89</v>
@@ -13709,7 +13709,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ61">
         <v>1.45</v>
@@ -17214,7 +17214,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ78">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR78">
         <v>1.46</v>
@@ -17417,7 +17417,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -21537,7 +21537,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21746,7 +21746,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ100">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR100">
         <v>1.18</v>
@@ -22155,7 +22155,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -26278,7 +26278,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ122">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR122">
         <v>1.04</v>
@@ -26481,7 +26481,7 @@
         <v>0.43</v>
       </c>
       <c r="AP123">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ123">
         <v>0.91</v>
@@ -29574,7 +29574,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR138">
         <v>1.02</v>
@@ -31013,7 +31013,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -35342,7 +35342,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ166">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35548,7 +35548,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ167">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -37196,7 +37196,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ175">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AR175">
         <v>1.49</v>
@@ -37399,7 +37399,7 @@
         <v>1.61</v>
       </c>
       <c r="AP176">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ176">
         <v>1.71</v>
@@ -38841,7 +38841,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AQ183">
         <v>1.05</v>
@@ -39050,7 +39050,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ184">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -40283,7 +40283,7 @@
         <v>1.75</v>
       </c>
       <c r="AP190">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AQ190">
         <v>1.67</v>
@@ -40489,7 +40489,7 @@
         <v>1.85</v>
       </c>
       <c r="AP191">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ191">
         <v>1.81</v>
@@ -41804,6 +41804,212 @@
       </c>
       <c r="BP197">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7853028</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45790.45833333334</v>
+      </c>
+      <c r="F198">
+        <v>6</v>
+      </c>
+      <c r="G198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" t="s">
+        <v>78</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>89</v>
+      </c>
+      <c r="P198" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q198">
+        <v>4.85</v>
+      </c>
+      <c r="R198">
+        <v>2.34</v>
+      </c>
+      <c r="S198">
+        <v>1.8</v>
+      </c>
+      <c r="T198">
+        <v>1.27</v>
+      </c>
+      <c r="U198">
+        <v>3.2</v>
+      </c>
+      <c r="V198">
+        <v>2.4</v>
+      </c>
+      <c r="W198">
+        <v>1.47</v>
+      </c>
+      <c r="X198">
+        <v>5.3</v>
+      </c>
+      <c r="Y198">
+        <v>1.1</v>
+      </c>
+      <c r="Z198">
+        <v>5.2</v>
+      </c>
+      <c r="AA198">
+        <v>3.82</v>
+      </c>
+      <c r="AB198">
+        <v>1.51</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.18</v>
+      </c>
+      <c r="AF198">
+        <v>4.2</v>
+      </c>
+      <c r="AG198">
+        <v>1.76</v>
+      </c>
+      <c r="AH198">
+        <v>1.94</v>
+      </c>
+      <c r="AI198">
+        <v>1.78</v>
+      </c>
+      <c r="AJ198">
+        <v>1.86</v>
+      </c>
+      <c r="AK198">
+        <v>1.12</v>
+      </c>
+      <c r="AL198">
+        <v>1.18</v>
+      </c>
+      <c r="AM198">
+        <v>1.12</v>
+      </c>
+      <c r="AN198">
+        <v>1.48</v>
+      </c>
+      <c r="AO198">
+        <v>2.33</v>
+      </c>
+      <c r="AP198">
+        <v>1.41</v>
+      </c>
+      <c r="AQ198">
+        <v>2.36</v>
+      </c>
+      <c r="AR198">
+        <v>1.55</v>
+      </c>
+      <c r="AS198">
+        <v>1.8</v>
+      </c>
+      <c r="AT198">
+        <v>3.35</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
+        <v>5</v>
+      </c>
+      <c r="AX198">
+        <v>11</v>
+      </c>
+      <c r="AY198">
+        <v>9</v>
+      </c>
+      <c r="AZ198">
+        <v>14</v>
+      </c>
+      <c r="BA198">
+        <v>2</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>5</v>
+      </c>
+      <c r="BD198">
+        <v>2.28</v>
+      </c>
+      <c r="BE198">
+        <v>7.5</v>
+      </c>
+      <c r="BF198">
+        <v>1.9</v>
+      </c>
+      <c r="BG198">
+        <v>1.23</v>
+      </c>
+      <c r="BH198">
+        <v>3.22</v>
+      </c>
+      <c r="BI198">
+        <v>1.44</v>
+      </c>
+      <c r="BJ198">
+        <v>2.38</v>
+      </c>
+      <c r="BK198">
+        <v>2.14</v>
+      </c>
+      <c r="BL198">
+        <v>1.89</v>
+      </c>
+      <c r="BM198">
+        <v>2.34</v>
+      </c>
+      <c r="BN198">
+        <v>1.56</v>
+      </c>
+      <c r="BO198">
+        <v>3.05</v>
+      </c>
+      <c r="BP198">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['14', '41']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -857,6 +860,12 @@
   </si>
   <si>
     <t>['55', '90+2']</t>
+  </si>
+  <si>
+    <t>['45+10']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1486,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1555,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1683,7 +1692,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1764,7 +1773,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ3">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2301,7 +2310,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2379,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>1.08</v>
@@ -2507,7 +2516,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2713,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2791,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3125,7 +3134,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3331,7 +3340,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3743,7 +3752,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3949,7 +3958,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4155,7 +4164,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4361,7 +4370,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4442,7 +4451,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5185,7 +5194,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5263,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20">
         <v>0.91</v>
@@ -5391,7 +5400,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5472,7 +5481,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -6009,7 +6018,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6215,7 +6224,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6293,10 +6302,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6911,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.64</v>
@@ -7245,7 +7254,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8356,7 +8365,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ35">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8481,7 +8490,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8687,7 +8696,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9177,10 +9186,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9305,7 +9314,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9383,7 +9392,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
         <v>1.64</v>
@@ -9717,7 +9726,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9798,7 +9807,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ42">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.57</v>
@@ -9923,7 +9932,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10001,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>1.6</v>
@@ -10335,7 +10344,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10416,7 +10425,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ45">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.27</v>
@@ -10747,7 +10756,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11159,7 +11168,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11571,7 +11580,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11777,7 +11786,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11983,7 +11992,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12473,7 +12482,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.64</v>
@@ -12679,7 +12688,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>1.08</v>
@@ -13013,7 +13022,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13094,7 +13103,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13219,7 +13228,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13297,7 +13306,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13631,7 +13640,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13712,7 +13721,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ61">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR61">
         <v>1.52</v>
@@ -14124,7 +14133,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ63">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14661,7 +14670,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15073,7 +15082,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15897,7 +15906,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -15975,7 +15984,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>0.8</v>
@@ -16309,7 +16318,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16390,7 +16399,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16515,7 +16524,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16721,7 +16730,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17133,7 +17142,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17211,7 +17220,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ78">
         <v>2.27</v>
@@ -17339,7 +17348,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17545,7 +17554,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17626,7 +17635,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ80">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -17832,7 +17841,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ81">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR81">
         <v>1.81</v>
@@ -18575,7 +18584,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18781,7 +18790,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18862,7 +18871,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ86">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.96</v>
@@ -18987,7 +18996,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19065,7 +19074,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ87">
         <v>1.18</v>
@@ -19271,7 +19280,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
         <v>0.64</v>
@@ -19399,7 +19408,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19605,7 +19614,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19811,7 +19820,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -20017,7 +20026,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20223,7 +20232,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20716,7 +20725,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ95">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>0.8</v>
@@ -20922,7 +20931,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ96">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21253,7 +21262,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21331,7 +21340,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98">
         <v>0.73</v>
@@ -21459,7 +21468,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21665,7 +21674,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21871,7 +21880,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22077,7 +22086,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22489,7 +22498,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22570,7 +22579,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ104">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -22773,7 +22782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
         <v>0.91</v>
@@ -23185,7 +23194,7 @@
         <v>0.2</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ107">
         <v>0.64</v>
@@ -23313,7 +23322,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23394,7 +23403,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR108">
         <v>0.86</v>
@@ -23725,7 +23734,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23931,7 +23940,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24009,7 +24018,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -24836,7 +24845,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ115">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25373,7 +25382,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25657,7 +25666,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ119">
         <v>1.18</v>
@@ -25785,7 +25794,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25866,7 +25875,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ120">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26069,7 +26078,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
         <v>1.38</v>
@@ -26197,7 +26206,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26403,7 +26412,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26896,7 +26905,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ125">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27308,7 +27317,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ127">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR127">
         <v>1.47</v>
@@ -27717,7 +27726,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ129">
         <v>0.64</v>
@@ -27845,7 +27854,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28051,7 +28060,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28669,7 +28678,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29287,7 +29296,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29493,7 +29502,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29571,7 +29580,7 @@
         <v>2.14</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
         <v>2.27</v>
@@ -29699,7 +29708,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29905,7 +29914,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -29986,7 +29995,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ140">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AR140">
         <v>1.52</v>
@@ -30111,7 +30120,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30192,7 +30201,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ141">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AR141">
         <v>1.43</v>
@@ -30317,7 +30326,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30395,7 +30404,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ142">
         <v>1.6</v>
@@ -30729,7 +30738,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30810,7 +30819,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR144">
         <v>1.03</v>
@@ -30935,7 +30944,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31425,7 +31434,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ147">
         <v>1.18</v>
@@ -31553,7 +31562,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31759,7 +31768,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31965,7 +31974,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32377,7 +32386,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32995,7 +33004,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33613,7 +33622,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33691,10 +33700,10 @@
         <v>1.71</v>
       </c>
       <c r="AP158">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ158">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33897,10 +33906,10 @@
         <v>1.76</v>
       </c>
       <c r="AP159">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AQ159">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AR159">
         <v>1.58</v>
@@ -34025,7 +34034,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34231,7 +34240,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34849,7 +34858,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35261,7 +35270,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35339,7 +35348,7 @@
         <v>1.41</v>
       </c>
       <c r="AP166">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ166">
         <v>1.41</v>
@@ -35545,7 +35554,7 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AQ167">
         <v>2.36</v>
@@ -35751,7 +35760,7 @@
         <v>1.39</v>
       </c>
       <c r="AP168">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AQ168">
         <v>1.18</v>
@@ -35879,7 +35888,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35960,7 +35969,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ169">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36291,7 +36300,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36497,7 +36506,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36909,7 +36918,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -36990,7 +36999,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ174">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37115,7 +37124,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37321,7 +37330,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37402,7 +37411,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ176">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37605,10 +37614,10 @@
         <v>1.94</v>
       </c>
       <c r="AP177">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AQ177">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37733,7 +37742,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38145,7 +38154,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38557,7 +38566,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38635,10 +38644,10 @@
         <v>2.35</v>
       </c>
       <c r="AP182">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ182">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AR182">
         <v>1.2</v>
@@ -38969,7 +38978,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39175,7 +39184,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39253,10 +39262,10 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ185">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR185">
         <v>1.26</v>
@@ -39793,7 +39802,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -39999,7 +40008,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40205,7 +40214,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40286,7 +40295,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ190">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AR190">
         <v>1.78</v>
@@ -40411,7 +40420,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40492,7 +40501,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ191">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR191">
         <v>1.56</v>
@@ -40617,7 +40626,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40695,7 +40704,7 @@
         <v>1.19</v>
       </c>
       <c r="AP192">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ192">
         <v>1.18</v>
@@ -40823,7 +40832,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -40901,10 +40910,10 @@
         <v>2.24</v>
       </c>
       <c r="AP193">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AQ193">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41235,7 +41244,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41647,7 +41656,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41811,7 +41820,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7853028</v>
+        <v>7853027</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41826,190 +41835,808 @@
         <v>6</v>
       </c>
       <c r="G198" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H198" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198">
         <v>1</v>
       </c>
       <c r="N198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O198" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P198" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="Q198">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="R198">
-        <v>2.34</v>
+        <v>1.82</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2.79</v>
       </c>
       <c r="T198">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="U198">
-        <v>3.2</v>
+        <v>2.31</v>
       </c>
       <c r="V198">
-        <v>2.4</v>
+        <v>3.98</v>
       </c>
       <c r="W198">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="X198">
-        <v>5.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y198">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="Z198">
-        <v>5.2</v>
+        <v>4.17</v>
       </c>
       <c r="AA198">
-        <v>3.82</v>
+        <v>2.79</v>
       </c>
       <c r="AB198">
-        <v>1.51</v>
+        <v>2.05</v>
       </c>
       <c r="AC198">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AD198">
-        <v>10</v>
+        <v>6.55</v>
       </c>
       <c r="AE198">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AF198">
-        <v>4.2</v>
+        <v>2.31</v>
       </c>
       <c r="AG198">
-        <v>1.76</v>
+        <v>2.65</v>
       </c>
       <c r="AH198">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="AI198">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="AJ198">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="AK198">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AL198">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AM198">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AN198">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AO198">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP198">
         <v>1.41</v>
       </c>
       <c r="AQ198">
+        <v>1.64</v>
+      </c>
+      <c r="AR198">
+        <v>1.21</v>
+      </c>
+      <c r="AS198">
+        <v>1.25</v>
+      </c>
+      <c r="AT198">
+        <v>2.46</v>
+      </c>
+      <c r="AU198">
+        <v>5</v>
+      </c>
+      <c r="AV198">
+        <v>8</v>
+      </c>
+      <c r="AW198">
+        <v>7</v>
+      </c>
+      <c r="AX198">
+        <v>9</v>
+      </c>
+      <c r="AY198">
+        <v>12</v>
+      </c>
+      <c r="AZ198">
+        <v>17</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
+        <v>4</v>
+      </c>
+      <c r="BC198">
+        <v>8</v>
+      </c>
+      <c r="BD198">
+        <v>2.39</v>
+      </c>
+      <c r="BE198">
+        <v>7.3</v>
+      </c>
+      <c r="BF198">
+        <v>1.8</v>
+      </c>
+      <c r="BG198">
+        <v>1.41</v>
+      </c>
+      <c r="BH198">
+        <v>2.7</v>
+      </c>
+      <c r="BI198">
+        <v>1.7</v>
+      </c>
+      <c r="BJ198">
+        <v>2.08</v>
+      </c>
+      <c r="BK198">
+        <v>2.45</v>
+      </c>
+      <c r="BL198">
+        <v>1.67</v>
+      </c>
+      <c r="BM198">
+        <v>2.7</v>
+      </c>
+      <c r="BN198">
+        <v>1.41</v>
+      </c>
+      <c r="BO198">
+        <v>3.62</v>
+      </c>
+      <c r="BP198">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7853028</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45790.45833333334</v>
+      </c>
+      <c r="F199">
+        <v>6</v>
+      </c>
+      <c r="G199" t="s">
+        <v>87</v>
+      </c>
+      <c r="H199" t="s">
+        <v>78</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>89</v>
+      </c>
+      <c r="P199" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q199">
+        <v>4.85</v>
+      </c>
+      <c r="R199">
+        <v>2.34</v>
+      </c>
+      <c r="S199">
+        <v>1.8</v>
+      </c>
+      <c r="T199">
+        <v>1.27</v>
+      </c>
+      <c r="U199">
+        <v>3.2</v>
+      </c>
+      <c r="V199">
+        <v>2.4</v>
+      </c>
+      <c r="W199">
+        <v>1.47</v>
+      </c>
+      <c r="X199">
+        <v>5.3</v>
+      </c>
+      <c r="Y199">
+        <v>1.1</v>
+      </c>
+      <c r="Z199">
+        <v>5.2</v>
+      </c>
+      <c r="AA199">
+        <v>3.82</v>
+      </c>
+      <c r="AB199">
+        <v>1.51</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>10</v>
+      </c>
+      <c r="AE199">
+        <v>1.18</v>
+      </c>
+      <c r="AF199">
+        <v>4.2</v>
+      </c>
+      <c r="AG199">
+        <v>1.76</v>
+      </c>
+      <c r="AH199">
+        <v>1.94</v>
+      </c>
+      <c r="AI199">
+        <v>1.78</v>
+      </c>
+      <c r="AJ199">
+        <v>1.86</v>
+      </c>
+      <c r="AK199">
+        <v>1.12</v>
+      </c>
+      <c r="AL199">
+        <v>1.18</v>
+      </c>
+      <c r="AM199">
+        <v>1.12</v>
+      </c>
+      <c r="AN199">
+        <v>1.48</v>
+      </c>
+      <c r="AO199">
+        <v>2.33</v>
+      </c>
+      <c r="AP199">
+        <v>1.41</v>
+      </c>
+      <c r="AQ199">
         <v>2.36</v>
       </c>
-      <c r="AR198">
+      <c r="AR199">
         <v>1.55</v>
       </c>
-      <c r="AS198">
+      <c r="AS199">
         <v>1.8</v>
       </c>
-      <c r="AT198">
+      <c r="AT199">
         <v>3.35</v>
       </c>
-      <c r="AU198">
+      <c r="AU199">
         <v>4</v>
       </c>
-      <c r="AV198">
+      <c r="AV199">
         <v>3</v>
       </c>
-      <c r="AW198">
+      <c r="AW199">
         <v>5</v>
       </c>
-      <c r="AX198">
+      <c r="AX199">
         <v>11</v>
       </c>
-      <c r="AY198">
+      <c r="AY199">
         <v>9</v>
       </c>
-      <c r="AZ198">
+      <c r="AZ199">
         <v>14</v>
       </c>
-      <c r="BA198">
-        <v>2</v>
-      </c>
-      <c r="BB198">
+      <c r="BA199">
+        <v>2</v>
+      </c>
+      <c r="BB199">
         <v>3</v>
       </c>
-      <c r="BC198">
+      <c r="BC199">
         <v>5</v>
       </c>
-      <c r="BD198">
+      <c r="BD199">
         <v>2.28</v>
       </c>
-      <c r="BE198">
+      <c r="BE199">
         <v>7.5</v>
       </c>
-      <c r="BF198">
+      <c r="BF199">
         <v>1.9</v>
       </c>
-      <c r="BG198">
+      <c r="BG199">
         <v>1.23</v>
       </c>
-      <c r="BH198">
+      <c r="BH199">
         <v>3.22</v>
       </c>
-      <c r="BI198">
+      <c r="BI199">
         <v>1.44</v>
       </c>
-      <c r="BJ198">
+      <c r="BJ199">
         <v>2.38</v>
       </c>
-      <c r="BK198">
+      <c r="BK199">
         <v>2.14</v>
       </c>
-      <c r="BL198">
+      <c r="BL199">
         <v>1.89</v>
       </c>
-      <c r="BM198">
+      <c r="BM199">
         <v>2.34</v>
       </c>
-      <c r="BN198">
+      <c r="BN199">
         <v>1.56</v>
       </c>
-      <c r="BO198">
+      <c r="BO199">
         <v>3.05</v>
       </c>
-      <c r="BP198">
+      <c r="BP199">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7853029</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45790.58333333334</v>
+      </c>
+      <c r="F200">
+        <v>6</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" t="s">
+        <v>85</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>192</v>
+      </c>
+      <c r="P200" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q200">
+        <v>5.95</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>1.5</v>
+      </c>
+      <c r="U200">
+        <v>2.6</v>
+      </c>
+      <c r="V200">
+        <v>3.2</v>
+      </c>
+      <c r="W200">
+        <v>1.3</v>
+      </c>
+      <c r="X200">
+        <v>9.1</v>
+      </c>
+      <c r="Y200">
+        <v>1.04</v>
+      </c>
+      <c r="Z200">
+        <v>4.75</v>
+      </c>
+      <c r="AA200">
+        <v>3.25</v>
+      </c>
+      <c r="AB200">
+        <v>1.79</v>
+      </c>
+      <c r="AC200">
+        <v>1.07</v>
+      </c>
+      <c r="AD200">
+        <v>7.8</v>
+      </c>
+      <c r="AE200">
+        <v>1.37</v>
+      </c>
+      <c r="AF200">
+        <v>2.66</v>
+      </c>
+      <c r="AG200">
+        <v>2.26</v>
+      </c>
+      <c r="AH200">
+        <v>1.6</v>
+      </c>
+      <c r="AI200">
+        <v>2.14</v>
+      </c>
+      <c r="AJ200">
+        <v>1.72</v>
+      </c>
+      <c r="AK200">
+        <v>2.07</v>
+      </c>
+      <c r="AL200">
+        <v>1.28</v>
+      </c>
+      <c r="AM200">
+        <v>1.1</v>
+      </c>
+      <c r="AN200">
+        <v>1.05</v>
+      </c>
+      <c r="AO200">
+        <v>1.71</v>
+      </c>
+      <c r="AP200">
+        <v>1.05</v>
+      </c>
+      <c r="AQ200">
+        <v>1.68</v>
+      </c>
+      <c r="AR200">
+        <v>1.01</v>
+      </c>
+      <c r="AS200">
+        <v>1.29</v>
+      </c>
+      <c r="AT200">
+        <v>2.3</v>
+      </c>
+      <c r="AU200">
+        <v>3</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>3</v>
+      </c>
+      <c r="AX200">
+        <v>5</v>
+      </c>
+      <c r="AY200">
+        <v>6</v>
+      </c>
+      <c r="AZ200">
+        <v>10</v>
+      </c>
+      <c r="BA200">
+        <v>3</v>
+      </c>
+      <c r="BB200">
+        <v>4</v>
+      </c>
+      <c r="BC200">
+        <v>7</v>
+      </c>
+      <c r="BD200">
+        <v>2.5</v>
+      </c>
+      <c r="BE200">
+        <v>7.6</v>
+      </c>
+      <c r="BF200">
+        <v>1.78</v>
+      </c>
+      <c r="BG200">
+        <v>1.33</v>
+      </c>
+      <c r="BH200">
+        <v>3.07</v>
+      </c>
+      <c r="BI200">
+        <v>1.59</v>
+      </c>
+      <c r="BJ200">
+        <v>2.29</v>
+      </c>
+      <c r="BK200">
+        <v>1.85</v>
+      </c>
+      <c r="BL200">
+        <v>1.8</v>
+      </c>
+      <c r="BM200">
+        <v>2.54</v>
+      </c>
+      <c r="BN200">
+        <v>1.5</v>
+      </c>
+      <c r="BO200">
+        <v>3.22</v>
+      </c>
+      <c r="BP200">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7853030</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45790.58333333334</v>
+      </c>
+      <c r="F201">
+        <v>6</v>
+      </c>
+      <c r="G201" t="s">
+        <v>76</v>
+      </c>
+      <c r="H201" t="s">
+        <v>75</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>89</v>
+      </c>
+      <c r="P201" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q201">
+        <v>3.5</v>
+      </c>
+      <c r="R201">
+        <v>2.01</v>
+      </c>
+      <c r="S201">
+        <v>2.94</v>
+      </c>
+      <c r="T201">
+        <v>1.4</v>
+      </c>
+      <c r="U201">
+        <v>2.6</v>
+      </c>
+      <c r="V201">
+        <v>3</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>7.3</v>
+      </c>
+      <c r="Y201">
+        <v>1.06</v>
+      </c>
+      <c r="Z201">
+        <v>3.03</v>
+      </c>
+      <c r="AA201">
+        <v>3</v>
+      </c>
+      <c r="AB201">
+        <v>2.3</v>
+      </c>
+      <c r="AC201">
+        <v>1.03</v>
+      </c>
+      <c r="AD201">
+        <v>7.7</v>
+      </c>
+      <c r="AE201">
+        <v>1.33</v>
+      </c>
+      <c r="AF201">
+        <v>3</v>
+      </c>
+      <c r="AG201">
+        <v>2.15</v>
+      </c>
+      <c r="AH201">
+        <v>1.66</v>
+      </c>
+      <c r="AI201">
+        <v>1.86</v>
+      </c>
+      <c r="AJ201">
+        <v>1.84</v>
+      </c>
+      <c r="AK201">
+        <v>1.26</v>
+      </c>
+      <c r="AL201">
+        <v>1.33</v>
+      </c>
+      <c r="AM201">
+        <v>1.33</v>
+      </c>
+      <c r="AN201">
+        <v>1.81</v>
+      </c>
+      <c r="AO201">
+        <v>2.14</v>
+      </c>
+      <c r="AP201">
+        <v>1.73</v>
+      </c>
+      <c r="AQ201">
+        <v>2.17</v>
+      </c>
+      <c r="AR201">
+        <v>1.46</v>
+      </c>
+      <c r="AS201">
+        <v>1.59</v>
+      </c>
+      <c r="AT201">
+        <v>3.05</v>
+      </c>
+      <c r="AU201">
+        <v>2</v>
+      </c>
+      <c r="AV201">
+        <v>4</v>
+      </c>
+      <c r="AW201">
+        <v>9</v>
+      </c>
+      <c r="AX201">
+        <v>4</v>
+      </c>
+      <c r="AY201">
+        <v>11</v>
+      </c>
+      <c r="AZ201">
+        <v>8</v>
+      </c>
+      <c r="BA201">
+        <v>2</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>7</v>
+      </c>
+      <c r="BD201">
+        <v>2.05</v>
+      </c>
+      <c r="BE201">
+        <v>7.4</v>
+      </c>
+      <c r="BF201">
+        <v>2.13</v>
+      </c>
+      <c r="BG201">
+        <v>1.31</v>
+      </c>
+      <c r="BH201">
+        <v>2.92</v>
+      </c>
+      <c r="BI201">
+        <v>1.68</v>
+      </c>
+      <c r="BJ201">
+        <v>2.1</v>
+      </c>
+      <c r="BK201">
+        <v>2.15</v>
+      </c>
+      <c r="BL201">
+        <v>1.68</v>
+      </c>
+      <c r="BM201">
+        <v>2.56</v>
+      </c>
+      <c r="BN201">
+        <v>1.49</v>
+      </c>
+      <c r="BO201">
+        <v>3.7</v>
+      </c>
+      <c r="BP201">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -866,6 +869,12 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['51', '76']</t>
+  </si>
+  <si>
+    <t>['9', '45+9', '58', '72']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,7 +1495,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1692,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1770,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
         <v>1.42</v>
@@ -2185,7 +2194,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ5">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2310,7 +2319,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2516,7 +2525,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2722,7 +2731,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3006,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
         <v>0.73</v>
@@ -3134,7 +3143,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3340,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3418,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ11">
         <v>1.64</v>
@@ -3752,7 +3761,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3958,7 +3967,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4039,7 +4048,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ14">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4164,7 +4173,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4242,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -4370,7 +4379,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4863,7 +4872,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ18">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5194,7 +5203,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5275,7 +5284,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ20">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5400,7 +5409,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5890,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -6018,7 +6027,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6224,7 +6233,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6508,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ26">
         <v>1.18</v>
@@ -7254,7 +7263,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7335,7 +7344,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7950,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ33">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.75</v>
@@ -8490,7 +8499,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8696,7 +8705,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -8774,7 +8783,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ37">
         <v>1.67</v>
@@ -8980,7 +8989,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.18</v>
@@ -9314,7 +9323,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9601,7 +9610,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR41">
         <v>1.45</v>
@@ -9726,7 +9735,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9932,7 +9941,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10216,7 +10225,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44">
         <v>1.08</v>
@@ -10344,7 +10353,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10422,7 +10431,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10631,7 +10640,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR46">
         <v>0.9399999999999999</v>
@@ -10756,7 +10765,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10834,7 +10843,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47">
         <v>1.67</v>
@@ -11043,7 +11052,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ48">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>0.85</v>
@@ -11168,7 +11177,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11246,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ49">
         <v>0.8</v>
@@ -11580,7 +11589,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11658,7 +11667,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ51">
         <v>0.73</v>
@@ -11786,7 +11795,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11992,7 +12001,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12279,7 +12288,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ54">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.9</v>
@@ -13022,7 +13031,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13228,7 +13237,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13640,7 +13649,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14130,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ63">
         <v>1.75</v>
@@ -14545,7 +14554,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR65">
         <v>2.1</v>
@@ -14670,7 +14679,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14748,7 +14757,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ66">
         <v>1.64</v>
@@ -15082,7 +15091,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15366,10 +15375,10 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.78</v>
@@ -15781,7 +15790,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.88</v>
@@ -15906,7 +15915,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16318,7 +16327,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16524,7 +16533,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16602,7 +16611,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ75">
         <v>0.8</v>
@@ -16730,7 +16739,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17014,7 +17023,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -17142,7 +17151,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17348,7 +17357,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17554,7 +17563,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -18456,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18584,7 +18593,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18662,7 +18671,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ85">
         <v>1.64</v>
@@ -18790,7 +18799,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18996,7 +19005,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19077,7 +19086,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ87">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -19283,7 +19292,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -19408,7 +19417,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19489,7 +19498,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR89">
         <v>1.05</v>
@@ -19614,7 +19623,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19820,7 +19829,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19898,7 +19907,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ91">
         <v>1.6</v>
@@ -20026,7 +20035,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20104,7 +20113,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ92">
         <v>1.64</v>
@@ -20232,7 +20241,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -21262,7 +21271,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21468,7 +21477,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21674,7 +21683,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21880,7 +21889,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21958,10 +21967,10 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR101">
         <v>1.45</v>
@@ -22086,7 +22095,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22498,7 +22507,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22576,7 +22585,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ104">
         <v>2</v>
@@ -22785,7 +22794,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR105">
         <v>0.91</v>
@@ -22988,10 +22997,10 @@
         <v>0.4</v>
       </c>
       <c r="AP106">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ106">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -23322,7 +23331,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23734,7 +23743,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23940,7 +23949,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -25382,7 +25391,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25794,7 +25803,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25872,7 +25881,7 @@
         <v>1.86</v>
       </c>
       <c r="AP120">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ120">
         <v>1.75</v>
@@ -26206,7 +26215,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26284,7 +26293,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ122">
         <v>2.27</v>
@@ -26412,7 +26421,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26493,7 +26502,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ123">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR123">
         <v>1.55</v>
@@ -26699,7 +26708,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ124">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR124">
         <v>0.96</v>
@@ -27108,7 +27117,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ126">
         <v>1.6</v>
@@ -27314,7 +27323,7 @@
         <v>1.71</v>
       </c>
       <c r="AP127">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ127">
         <v>1.42</v>
@@ -27729,7 +27738,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ129">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -27854,7 +27863,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28060,7 +28069,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28678,7 +28687,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29296,7 +29305,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29377,7 +29386,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.04</v>
@@ -29502,7 +29511,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29708,7 +29717,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29786,7 +29795,7 @@
         <v>1.14</v>
       </c>
       <c r="AP139">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ139">
         <v>1.38</v>
@@ -29914,7 +29923,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -29992,7 +30001,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ140">
         <v>1.42</v>
@@ -30120,7 +30129,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30198,7 +30207,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ141">
         <v>1.75</v>
@@ -30326,7 +30335,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30610,10 +30619,10 @@
         <v>0.5</v>
       </c>
       <c r="AP143">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ143">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -30738,7 +30747,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30944,7 +30953,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31437,7 +31446,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ147">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31562,7 +31571,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31643,7 +31652,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ148">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR148">
         <v>1.06</v>
@@ -31768,7 +31777,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31974,7 +31983,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32386,7 +32395,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -33004,7 +33013,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33288,7 +33297,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33494,7 +33503,7 @@
         <v>1.06</v>
       </c>
       <c r="AP157">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AQ157">
         <v>1.09</v>
@@ -33622,7 +33631,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -34034,7 +34043,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34112,7 +34121,7 @@
         <v>1.24</v>
       </c>
       <c r="AP160">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ160">
         <v>1.3</v>
@@ -34240,7 +34249,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34318,10 +34327,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ161">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AR161">
         <v>1.28</v>
@@ -34527,7 +34536,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ162">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1</v>
@@ -34730,7 +34739,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AQ163">
         <v>1.09</v>
@@ -34858,7 +34867,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34939,7 +34948,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ164">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR164">
         <v>1.24</v>
@@ -35142,7 +35151,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35270,7 +35279,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35888,7 +35897,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36172,7 +36181,7 @@
         <v>1.05</v>
       </c>
       <c r="AP170">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36300,7 +36309,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36378,7 +36387,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ171">
         <v>1.09</v>
@@ -36506,7 +36515,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36584,7 +36593,7 @@
         <v>1.26</v>
       </c>
       <c r="AP172">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AQ172">
         <v>1.3</v>
@@ -36793,7 +36802,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ173">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR173">
         <v>0.99</v>
@@ -36918,7 +36927,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37124,7 +37133,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37330,7 +37339,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37742,7 +37751,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37823,7 +37832,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AR178">
         <v>1.33</v>
@@ -38029,7 +38038,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ179">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR179">
         <v>1.3</v>
@@ -38154,7 +38163,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38235,7 +38244,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ180">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR180">
         <v>0.99</v>
@@ -38438,10 +38447,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AQ181">
         <v>0.91</v>
-      </c>
-      <c r="AQ181">
-        <v>0.95</v>
       </c>
       <c r="AR181">
         <v>1.11</v>
@@ -38566,7 +38575,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38978,7 +38987,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39184,7 +39193,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39471,7 +39480,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR186">
         <v>1.35</v>
@@ -39802,7 +39811,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -39880,10 +39889,10 @@
         <v>0.8</v>
       </c>
       <c r="AP188">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AQ188">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR188">
         <v>1.16</v>
@@ -40008,7 +40017,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40086,7 +40095,7 @@
         <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="AQ189">
         <v>1.09</v>
@@ -40214,7 +40223,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40420,7 +40429,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40626,7 +40635,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40832,7 +40841,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -41119,7 +41128,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ194">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AR194">
         <v>1.05</v>
@@ -41244,7 +41253,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41528,10 +41537,10 @@
         <v>1.1</v>
       </c>
       <c r="AP196">
+        <v>1.25</v>
+      </c>
+      <c r="AQ196">
         <v>1.17</v>
-      </c>
-      <c r="AQ196">
-        <v>1.18</v>
       </c>
       <c r="AR196">
         <v>1.14</v>
@@ -41656,7 +41665,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41737,7 +41746,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ197">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.31</v>
@@ -42274,7 +42283,7 @@
         <v>192</v>
       </c>
       <c r="P200" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q200">
         <v>5.95</v>
@@ -42480,7 +42489,7 @@
         <v>89</v>
       </c>
       <c r="P201" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42637,6 +42646,830 @@
       </c>
       <c r="BP201">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7853052</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F202">
+        <v>7</v>
+      </c>
+      <c r="G202" t="s">
+        <v>77</v>
+      </c>
+      <c r="H202" t="s">
+        <v>73</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>140</v>
+      </c>
+      <c r="P202" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q202">
+        <v>3.91</v>
+      </c>
+      <c r="R202">
+        <v>1.72</v>
+      </c>
+      <c r="S202">
+        <v>3.28</v>
+      </c>
+      <c r="T202">
+        <v>1.73</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>4.6</v>
+      </c>
+      <c r="W202">
+        <v>1.18</v>
+      </c>
+      <c r="X202">
+        <v>10</v>
+      </c>
+      <c r="Y202">
+        <v>1.02</v>
+      </c>
+      <c r="Z202">
+        <v>3</v>
+      </c>
+      <c r="AA202">
+        <v>2.6</v>
+      </c>
+      <c r="AB202">
+        <v>2.5</v>
+      </c>
+      <c r="AC202">
+        <v>1.12</v>
+      </c>
+      <c r="AD202">
+        <v>4.8</v>
+      </c>
+      <c r="AE202">
+        <v>1.76</v>
+      </c>
+      <c r="AF202">
+        <v>2</v>
+      </c>
+      <c r="AG202">
+        <v>3.6</v>
+      </c>
+      <c r="AH202">
+        <v>1.25</v>
+      </c>
+      <c r="AI202">
+        <v>2.35</v>
+      </c>
+      <c r="AJ202">
+        <v>1.43</v>
+      </c>
+      <c r="AK202">
+        <v>1.35</v>
+      </c>
+      <c r="AL202">
+        <v>1.42</v>
+      </c>
+      <c r="AM202">
+        <v>1.27</v>
+      </c>
+      <c r="AN202">
+        <v>0.77</v>
+      </c>
+      <c r="AO202">
+        <v>0.91</v>
+      </c>
+      <c r="AP202">
+        <v>0.74</v>
+      </c>
+      <c r="AQ202">
+        <v>1</v>
+      </c>
+      <c r="AR202">
+        <v>0.96</v>
+      </c>
+      <c r="AS202">
+        <v>1.16</v>
+      </c>
+      <c r="AT202">
+        <v>2.12</v>
+      </c>
+      <c r="AU202">
+        <v>5</v>
+      </c>
+      <c r="AV202">
+        <v>5</v>
+      </c>
+      <c r="AW202">
+        <v>6</v>
+      </c>
+      <c r="AX202">
+        <v>8</v>
+      </c>
+      <c r="AY202">
+        <v>11</v>
+      </c>
+      <c r="AZ202">
+        <v>13</v>
+      </c>
+      <c r="BA202">
+        <v>4</v>
+      </c>
+      <c r="BB202">
+        <v>5</v>
+      </c>
+      <c r="BC202">
+        <v>9</v>
+      </c>
+      <c r="BD202">
+        <v>2.58</v>
+      </c>
+      <c r="BE202">
+        <v>7</v>
+      </c>
+      <c r="BF202">
+        <v>1.67</v>
+      </c>
+      <c r="BG202">
+        <v>1.51</v>
+      </c>
+      <c r="BH202">
+        <v>2.45</v>
+      </c>
+      <c r="BI202">
+        <v>1.8</v>
+      </c>
+      <c r="BJ202">
+        <v>1.89</v>
+      </c>
+      <c r="BK202">
+        <v>2.41</v>
+      </c>
+      <c r="BL202">
+        <v>1.53</v>
+      </c>
+      <c r="BM202">
+        <v>3.2</v>
+      </c>
+      <c r="BN202">
+        <v>1.3</v>
+      </c>
+      <c r="BO202">
+        <v>4.3</v>
+      </c>
+      <c r="BP202">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7853051</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F203">
+        <v>7</v>
+      </c>
+      <c r="G203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>84</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>193</v>
+      </c>
+      <c r="P203" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q203">
+        <v>4.33</v>
+      </c>
+      <c r="R203">
+        <v>1.79</v>
+      </c>
+      <c r="S203">
+        <v>3.25</v>
+      </c>
+      <c r="T203">
+        <v>1.79</v>
+      </c>
+      <c r="U203">
+        <v>2.03</v>
+      </c>
+      <c r="V203">
+        <v>4.35</v>
+      </c>
+      <c r="W203">
+        <v>1.15</v>
+      </c>
+      <c r="X203">
+        <v>15</v>
+      </c>
+      <c r="Y203">
+        <v>1.02</v>
+      </c>
+      <c r="Z203">
+        <v>3.25</v>
+      </c>
+      <c r="AA203">
+        <v>2.7</v>
+      </c>
+      <c r="AB203">
+        <v>2.37</v>
+      </c>
+      <c r="AC203">
+        <v>1.14</v>
+      </c>
+      <c r="AD203">
+        <v>4.6</v>
+      </c>
+      <c r="AE203">
+        <v>1.76</v>
+      </c>
+      <c r="AF203">
+        <v>2.06</v>
+      </c>
+      <c r="AG203">
+        <v>3.4</v>
+      </c>
+      <c r="AH203">
+        <v>1.3</v>
+      </c>
+      <c r="AI203">
+        <v>2.45</v>
+      </c>
+      <c r="AJ203">
+        <v>1.45</v>
+      </c>
+      <c r="AK203">
+        <v>1.52</v>
+      </c>
+      <c r="AL203">
+        <v>1.42</v>
+      </c>
+      <c r="AM203">
+        <v>1.23</v>
+      </c>
+      <c r="AN203">
+        <v>1.18</v>
+      </c>
+      <c r="AO203">
+        <v>1.09</v>
+      </c>
+      <c r="AP203">
+        <v>1.17</v>
+      </c>
+      <c r="AQ203">
+        <v>1.09</v>
+      </c>
+      <c r="AR203">
+        <v>1.27</v>
+      </c>
+      <c r="AS203">
+        <v>1</v>
+      </c>
+      <c r="AT203">
+        <v>2.27</v>
+      </c>
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>3</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>2</v>
+      </c>
+      <c r="AY203">
+        <v>8</v>
+      </c>
+      <c r="AZ203">
+        <v>5</v>
+      </c>
+      <c r="BA203">
+        <v>1</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>4</v>
+      </c>
+      <c r="BD203">
+        <v>1.72</v>
+      </c>
+      <c r="BE203">
+        <v>6.35</v>
+      </c>
+      <c r="BF203">
+        <v>2.66</v>
+      </c>
+      <c r="BG203">
+        <v>1.43</v>
+      </c>
+      <c r="BH203">
+        <v>2.74</v>
+      </c>
+      <c r="BI203">
+        <v>1.74</v>
+      </c>
+      <c r="BJ203">
+        <v>2.02</v>
+      </c>
+      <c r="BK203">
+        <v>2.55</v>
+      </c>
+      <c r="BL203">
+        <v>1.63</v>
+      </c>
+      <c r="BM203">
+        <v>2.8</v>
+      </c>
+      <c r="BN203">
+        <v>1.38</v>
+      </c>
+      <c r="BO203">
+        <v>3.8</v>
+      </c>
+      <c r="BP203">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7853054</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F204">
+        <v>7</v>
+      </c>
+      <c r="G204" t="s">
+        <v>79</v>
+      </c>
+      <c r="H204" t="s">
+        <v>72</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>4</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>89</v>
+      </c>
+      <c r="P204" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q204">
+        <v>2.81</v>
+      </c>
+      <c r="R204">
+        <v>1.78</v>
+      </c>
+      <c r="S204">
+        <v>5.47</v>
+      </c>
+      <c r="T204">
+        <v>1.71</v>
+      </c>
+      <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>4.3</v>
+      </c>
+      <c r="W204">
+        <v>1.18</v>
+      </c>
+      <c r="X204">
+        <v>10</v>
+      </c>
+      <c r="Y204">
+        <v>1.03</v>
+      </c>
+      <c r="Z204">
+        <v>2.1</v>
+      </c>
+      <c r="AA204">
+        <v>2.62</v>
+      </c>
+      <c r="AB204">
+        <v>3.75</v>
+      </c>
+      <c r="AC204">
+        <v>1.17</v>
+      </c>
+      <c r="AD204">
+        <v>5.09</v>
+      </c>
+      <c r="AE204">
+        <v>1.69</v>
+      </c>
+      <c r="AF204">
+        <v>2.1</v>
+      </c>
+      <c r="AG204">
+        <v>3.29</v>
+      </c>
+      <c r="AH204">
+        <v>1.3</v>
+      </c>
+      <c r="AI204">
+        <v>2.45</v>
+      </c>
+      <c r="AJ204">
+        <v>1.5</v>
+      </c>
+      <c r="AK204">
+        <v>1.5</v>
+      </c>
+      <c r="AL204">
+        <v>1.35</v>
+      </c>
+      <c r="AM204">
+        <v>1.69</v>
+      </c>
+      <c r="AN204">
+        <v>0.95</v>
+      </c>
+      <c r="AO204">
+        <v>1.17</v>
+      </c>
+      <c r="AP204">
+        <v>0.91</v>
+      </c>
+      <c r="AQ204">
+        <v>1.25</v>
+      </c>
+      <c r="AR204">
+        <v>1.19</v>
+      </c>
+      <c r="AS204">
+        <v>1.16</v>
+      </c>
+      <c r="AT204">
+        <v>2.35</v>
+      </c>
+      <c r="AU204">
+        <v>8</v>
+      </c>
+      <c r="AV204">
+        <v>6</v>
+      </c>
+      <c r="AW204">
+        <v>11</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>19</v>
+      </c>
+      <c r="AZ204">
+        <v>10</v>
+      </c>
+      <c r="BA204">
+        <v>10</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>10</v>
+      </c>
+      <c r="BD204">
+        <v>1.61</v>
+      </c>
+      <c r="BE204">
+        <v>7.3</v>
+      </c>
+      <c r="BF204">
+        <v>2.96</v>
+      </c>
+      <c r="BG204">
+        <v>1.55</v>
+      </c>
+      <c r="BH204">
+        <v>2.46</v>
+      </c>
+      <c r="BI204">
+        <v>1.8</v>
+      </c>
+      <c r="BJ204">
+        <v>1.86</v>
+      </c>
+      <c r="BK204">
+        <v>2.33</v>
+      </c>
+      <c r="BL204">
+        <v>1.48</v>
+      </c>
+      <c r="BM204">
+        <v>3.2</v>
+      </c>
+      <c r="BN204">
+        <v>1.26</v>
+      </c>
+      <c r="BO204">
+        <v>4.45</v>
+      </c>
+      <c r="BP204">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7853053</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="F205">
+        <v>7</v>
+      </c>
+      <c r="G205" t="s">
+        <v>83</v>
+      </c>
+      <c r="H205" t="s">
+        <v>80</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205" t="s">
+        <v>89</v>
+      </c>
+      <c r="P205" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q205">
+        <v>3.95</v>
+      </c>
+      <c r="R205">
+        <v>1.6</v>
+      </c>
+      <c r="S205">
+        <v>4.27</v>
+      </c>
+      <c r="T205">
+        <v>2.03</v>
+      </c>
+      <c r="U205">
+        <v>1.81</v>
+      </c>
+      <c r="V205">
+        <v>5.55</v>
+      </c>
+      <c r="W205">
+        <v>1.11</v>
+      </c>
+      <c r="X205">
+        <v>23</v>
+      </c>
+      <c r="Y205">
+        <v>1.01</v>
+      </c>
+      <c r="Z205">
+        <v>2.49</v>
+      </c>
+      <c r="AA205">
+        <v>2.55</v>
+      </c>
+      <c r="AB205">
+        <v>3.45</v>
+      </c>
+      <c r="AC205">
+        <v>1.25</v>
+      </c>
+      <c r="AD205">
+        <v>3.65</v>
+      </c>
+      <c r="AE205">
+        <v>2.16</v>
+      </c>
+      <c r="AF205">
+        <v>1.68</v>
+      </c>
+      <c r="AG205">
+        <v>4.3</v>
+      </c>
+      <c r="AH205">
+        <v>1.18</v>
+      </c>
+      <c r="AI205">
+        <v>2.95</v>
+      </c>
+      <c r="AJ205">
+        <v>1.3</v>
+      </c>
+      <c r="AK205">
+        <v>1.4</v>
+      </c>
+      <c r="AL205">
+        <v>1.6</v>
+      </c>
+      <c r="AM205">
+        <v>1.4</v>
+      </c>
+      <c r="AN205">
+        <v>1</v>
+      </c>
+      <c r="AO205">
+        <v>1.09</v>
+      </c>
+      <c r="AP205">
+        <v>1</v>
+      </c>
+      <c r="AQ205">
+        <v>1.09</v>
+      </c>
+      <c r="AR205">
+        <v>1.36</v>
+      </c>
+      <c r="AS205">
+        <v>1.07</v>
+      </c>
+      <c r="AT205">
+        <v>2.43</v>
+      </c>
+      <c r="AU205">
+        <v>3</v>
+      </c>
+      <c r="AV205">
+        <v>2</v>
+      </c>
+      <c r="AW205">
+        <v>2</v>
+      </c>
+      <c r="AX205">
+        <v>4</v>
+      </c>
+      <c r="AY205">
+        <v>5</v>
+      </c>
+      <c r="AZ205">
+        <v>6</v>
+      </c>
+      <c r="BA205">
+        <v>4</v>
+      </c>
+      <c r="BB205">
+        <v>1</v>
+      </c>
+      <c r="BC205">
+        <v>5</v>
+      </c>
+      <c r="BD205">
+        <v>1.65</v>
+      </c>
+      <c r="BE205">
+        <v>7.8</v>
+      </c>
+      <c r="BF205">
+        <v>2.7</v>
+      </c>
+      <c r="BG205">
+        <v>1.44</v>
+      </c>
+      <c r="BH205">
+        <v>2.43</v>
+      </c>
+      <c r="BI205">
+        <v>1.8</v>
+      </c>
+      <c r="BJ205">
+        <v>1.95</v>
+      </c>
+      <c r="BK205">
+        <v>2.28</v>
+      </c>
+      <c r="BL205">
+        <v>1.47</v>
+      </c>
+      <c r="BM205">
+        <v>2.93</v>
+      </c>
+      <c r="BN205">
+        <v>1.35</v>
+      </c>
+      <c r="BO205">
+        <v>4</v>
+      </c>
+      <c r="BP205">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,9 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['21', '90+6']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -875,6 +878,12 @@
   </si>
   <si>
     <t>['9', '45+9', '58', '72']</t>
+  </si>
+  <si>
+    <t>['8', '40', '76', '83']</t>
+  </si>
+  <si>
+    <t>['55', '62']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1504,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1701,7 +1710,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2319,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2525,7 +2534,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2731,7 +2740,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2812,7 +2821,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3143,7 +3152,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3221,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3349,7 +3358,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3761,7 +3770,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3967,7 +3976,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4045,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ14">
         <v>0.83</v>
@@ -4173,7 +4182,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4379,7 +4388,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4460,7 +4469,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4869,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5203,7 +5212,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5409,7 +5418,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5490,7 +5499,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5693,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>1.08</v>
@@ -6027,7 +6036,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6233,7 +6242,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6932,7 +6941,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>0.89</v>
@@ -7263,7 +7272,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8371,10 +8380,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8499,7 +8508,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8577,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8705,7 +8714,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9323,7 +9332,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9404,7 +9413,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.52</v>
@@ -9735,7 +9744,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9816,7 +9825,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR42">
         <v>1.57</v>
@@ -9941,7 +9950,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10353,7 +10362,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10434,7 +10443,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR45">
         <v>1.27</v>
@@ -10765,7 +10774,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11177,7 +11186,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11589,7 +11598,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11795,7 +11804,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11876,7 +11885,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.11</v>
@@ -12001,7 +12010,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12079,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ53">
         <v>2.27</v>
@@ -12285,7 +12294,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -13031,7 +13040,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13112,7 +13121,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13237,7 +13246,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13649,7 +13658,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14142,7 +14151,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14345,7 +14354,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14551,7 +14560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ65">
         <v>0.92</v>
@@ -14679,7 +14688,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14760,7 +14769,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ66">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
         <v>1.26</v>
@@ -15091,7 +15100,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15787,7 +15796,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15915,7 +15924,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16199,7 +16208,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16327,7 +16336,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16408,7 +16417,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16533,7 +16542,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16739,7 +16748,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17151,7 +17160,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17357,7 +17366,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17563,7 +17572,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17644,7 +17653,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -17847,7 +17856,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ81">
         <v>1.42</v>
@@ -18593,7 +18602,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18674,7 +18683,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ85">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18799,7 +18808,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18877,10 +18886,10 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR86">
         <v>1.96</v>
@@ -19005,7 +19014,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19417,7 +19426,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19495,7 +19504,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ89">
         <v>0.92</v>
@@ -19623,7 +19632,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19829,7 +19838,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -20035,7 +20044,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20241,7 +20250,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20734,7 +20743,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR95">
         <v>0.8</v>
@@ -21143,7 +21152,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ97">
         <v>1.08</v>
@@ -21271,7 +21280,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21477,7 +21486,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21683,7 +21692,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21889,7 +21898,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22095,7 +22104,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22379,7 +22388,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ103">
         <v>1.18</v>
@@ -22507,7 +22516,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22588,7 +22597,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23331,7 +23340,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23743,7 +23752,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23821,7 +23830,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -23949,7 +23958,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24233,7 +24242,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ112">
         <v>0.73</v>
@@ -24648,7 +24657,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ114">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.17</v>
@@ -24851,10 +24860,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25391,7 +25400,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25803,7 +25812,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25884,7 +25893,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26215,7 +26224,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26421,7 +26430,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26914,7 +26923,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ125">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27863,7 +27872,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27941,7 +27950,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ130">
         <v>0.8</v>
@@ -28069,7 +28078,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28353,7 +28362,7 @@
         <v>0.14</v>
       </c>
       <c r="AP132">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ132">
         <v>0.64</v>
@@ -28562,7 +28571,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ133">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -28687,7 +28696,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28765,7 +28774,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ134">
         <v>1.67</v>
@@ -29305,7 +29314,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29511,7 +29520,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29717,7 +29726,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29923,7 +29932,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30129,7 +30138,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30210,7 +30219,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ141">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR141">
         <v>1.43</v>
@@ -30335,7 +30344,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30747,7 +30756,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30828,7 +30837,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ144">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR144">
         <v>1.03</v>
@@ -30953,7 +30962,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31571,7 +31580,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31649,7 +31658,7 @@
         <v>0.43</v>
       </c>
       <c r="AP148">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ148">
         <v>0.83</v>
@@ -31777,7 +31786,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31983,7 +31992,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32395,7 +32404,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32476,7 +32485,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
         <v>1.75</v>
@@ -32679,7 +32688,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ153">
         <v>1.64</v>
@@ -32885,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ154">
         <v>0.73</v>
@@ -33013,7 +33022,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33094,7 +33103,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33631,7 +33640,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33712,7 +33721,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ158">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33915,10 +33924,10 @@
         <v>1.76</v>
       </c>
       <c r="AP159">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ159">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AR159">
         <v>1.58</v>
@@ -34043,7 +34052,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34249,7 +34258,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34867,7 +34876,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35279,7 +35288,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35360,7 +35369,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ166">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35563,10 +35572,10 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ167">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35769,10 +35778,10 @@
         <v>1.39</v>
       </c>
       <c r="AP168">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AQ168">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -35897,7 +35906,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36309,7 +36318,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36515,7 +36524,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36927,7 +36936,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37008,7 +37017,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ174">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37133,7 +37142,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37211,10 +37220,10 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ175">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AR175">
         <v>1.49</v>
@@ -37339,7 +37348,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37417,10 +37426,10 @@
         <v>1.61</v>
       </c>
       <c r="AP176">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AQ176">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37623,7 +37632,7 @@
         <v>1.94</v>
       </c>
       <c r="AP177">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AQ177">
         <v>1.73</v>
@@ -37751,7 +37760,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38163,7 +38172,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38575,7 +38584,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38656,7 +38665,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ182">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR182">
         <v>1.2</v>
@@ -38859,7 +38868,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AQ183">
         <v>1.05</v>
@@ -38987,7 +38996,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39065,10 +39074,10 @@
         <v>1.42</v>
       </c>
       <c r="AP184">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ184">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39193,7 +39202,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39271,7 +39280,7 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ185">
         <v>1.73</v>
@@ -39811,7 +39820,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -40017,7 +40026,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40223,7 +40232,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40301,10 +40310,10 @@
         <v>1.75</v>
       </c>
       <c r="AP190">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AQ190">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AR190">
         <v>1.78</v>
@@ -40429,7 +40438,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40507,7 +40516,7 @@
         <v>1.85</v>
       </c>
       <c r="AP191">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AQ191">
         <v>1.73</v>
@@ -40635,7 +40644,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40716,7 +40725,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ192">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR192">
         <v>1.2</v>
@@ -40841,7 +40850,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -40919,10 +40928,10 @@
         <v>2.24</v>
       </c>
       <c r="AP193">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AQ193">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41253,7 +41262,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41665,7 +41674,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41952,7 +41961,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ198">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AR198">
         <v>1.21</v>
@@ -42155,10 +42164,10 @@
         <v>2.33</v>
       </c>
       <c r="AP199">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AQ199">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AR199">
         <v>1.55</v>
@@ -42283,7 +42292,7 @@
         <v>192</v>
       </c>
       <c r="P200" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q200">
         <v>5.95</v>
@@ -42364,7 +42373,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ200">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AR200">
         <v>1.01</v>
@@ -42489,7 +42498,7 @@
         <v>89</v>
       </c>
       <c r="P201" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42570,7 +42579,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ201">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -42695,7 +42704,7 @@
         <v>140</v>
       </c>
       <c r="P202" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q202">
         <v>3.91</v>
@@ -42901,7 +42910,7 @@
         <v>193</v>
       </c>
       <c r="P203" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43107,7 +43116,7 @@
         <v>89</v>
       </c>
       <c r="P204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q204">
         <v>2.81</v>
@@ -43470,6 +43479,624 @@
       </c>
       <c r="BP205">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7853033</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F206">
+        <v>7</v>
+      </c>
+      <c r="G206" t="s">
+        <v>86</v>
+      </c>
+      <c r="H206" t="s">
+        <v>87</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>4</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>89</v>
+      </c>
+      <c r="P206" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q206">
+        <v>2.9</v>
+      </c>
+      <c r="R206">
+        <v>2.07</v>
+      </c>
+      <c r="S206">
+        <v>3.8</v>
+      </c>
+      <c r="T206">
+        <v>1.44</v>
+      </c>
+      <c r="U206">
+        <v>2.55</v>
+      </c>
+      <c r="V206">
+        <v>3</v>
+      </c>
+      <c r="W206">
+        <v>1.32</v>
+      </c>
+      <c r="X206">
+        <v>7</v>
+      </c>
+      <c r="Y206">
+        <v>1.05</v>
+      </c>
+      <c r="Z206">
+        <v>2.15</v>
+      </c>
+      <c r="AA206">
+        <v>3.1</v>
+      </c>
+      <c r="AB206">
+        <v>2.95</v>
+      </c>
+      <c r="AC206">
+        <v>1.02</v>
+      </c>
+      <c r="AD206">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE206">
+        <v>1.28</v>
+      </c>
+      <c r="AF206">
+        <v>2.9</v>
+      </c>
+      <c r="AG206">
+        <v>2</v>
+      </c>
+      <c r="AH206">
+        <v>1.89</v>
+      </c>
+      <c r="AI206">
+        <v>1.8</v>
+      </c>
+      <c r="AJ206">
+        <v>2</v>
+      </c>
+      <c r="AK206">
+        <v>1.36</v>
+      </c>
+      <c r="AL206">
+        <v>1.36</v>
+      </c>
+      <c r="AM206">
+        <v>1.64</v>
+      </c>
+      <c r="AN206">
+        <v>1.64</v>
+      </c>
+      <c r="AO206">
+        <v>1.41</v>
+      </c>
+      <c r="AP206">
+        <v>1.57</v>
+      </c>
+      <c r="AQ206">
+        <v>1.48</v>
+      </c>
+      <c r="AR206">
+        <v>1.29</v>
+      </c>
+      <c r="AS206">
+        <v>1.53</v>
+      </c>
+      <c r="AT206">
+        <v>2.82</v>
+      </c>
+      <c r="AU206">
+        <v>4</v>
+      </c>
+      <c r="AV206">
+        <v>9</v>
+      </c>
+      <c r="AW206">
+        <v>7</v>
+      </c>
+      <c r="AX206">
+        <v>5</v>
+      </c>
+      <c r="AY206">
+        <v>12</v>
+      </c>
+      <c r="AZ206">
+        <v>14</v>
+      </c>
+      <c r="BA206">
+        <v>4</v>
+      </c>
+      <c r="BB206">
+        <v>3</v>
+      </c>
+      <c r="BC206">
+        <v>7</v>
+      </c>
+      <c r="BD206">
+        <v>2.05</v>
+      </c>
+      <c r="BE206">
+        <v>6.15</v>
+      </c>
+      <c r="BF206">
+        <v>2.13</v>
+      </c>
+      <c r="BG206">
+        <v>1.3</v>
+      </c>
+      <c r="BH206">
+        <v>2.97</v>
+      </c>
+      <c r="BI206">
+        <v>1.56</v>
+      </c>
+      <c r="BJ206">
+        <v>2.16</v>
+      </c>
+      <c r="BK206">
+        <v>2.09</v>
+      </c>
+      <c r="BL206">
+        <v>1.7</v>
+      </c>
+      <c r="BM206">
+        <v>2.55</v>
+      </c>
+      <c r="BN206">
+        <v>1.49</v>
+      </c>
+      <c r="BO206">
+        <v>3.48</v>
+      </c>
+      <c r="BP206">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7853032</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F207">
+        <v>7</v>
+      </c>
+      <c r="G207" t="s">
+        <v>78</v>
+      </c>
+      <c r="H207" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>194</v>
+      </c>
+      <c r="P207" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q207">
+        <v>2.15</v>
+      </c>
+      <c r="R207">
+        <v>2.13</v>
+      </c>
+      <c r="S207">
+        <v>6.24</v>
+      </c>
+      <c r="T207">
+        <v>1.33</v>
+      </c>
+      <c r="U207">
+        <v>2.9</v>
+      </c>
+      <c r="V207">
+        <v>2.8</v>
+      </c>
+      <c r="W207">
+        <v>1.36</v>
+      </c>
+      <c r="X207">
+        <v>6.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.06</v>
+      </c>
+      <c r="Z207">
+        <v>1.54</v>
+      </c>
+      <c r="AA207">
+        <v>3.75</v>
+      </c>
+      <c r="AB207">
+        <v>6</v>
+      </c>
+      <c r="AC207">
+        <v>1.05</v>
+      </c>
+      <c r="AD207">
+        <v>8.5</v>
+      </c>
+      <c r="AE207">
+        <v>1.25</v>
+      </c>
+      <c r="AF207">
+        <v>3.35</v>
+      </c>
+      <c r="AG207">
+        <v>1.83</v>
+      </c>
+      <c r="AH207">
+        <v>1.85</v>
+      </c>
+      <c r="AI207">
+        <v>1.92</v>
+      </c>
+      <c r="AJ207">
+        <v>1.73</v>
+      </c>
+      <c r="AK207">
+        <v>1.2</v>
+      </c>
+      <c r="AL207">
+        <v>1.18</v>
+      </c>
+      <c r="AM207">
+        <v>2.5</v>
+      </c>
+      <c r="AN207">
+        <v>2.36</v>
+      </c>
+      <c r="AO207">
+        <v>1.68</v>
+      </c>
+      <c r="AP207">
+        <v>2.39</v>
+      </c>
+      <c r="AQ207">
+        <v>1.61</v>
+      </c>
+      <c r="AR207">
+        <v>1.77</v>
+      </c>
+      <c r="AS207">
+        <v>1.3</v>
+      </c>
+      <c r="AT207">
+        <v>3.07</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
+        <v>8</v>
+      </c>
+      <c r="AX207">
+        <v>2</v>
+      </c>
+      <c r="AY207">
+        <v>14</v>
+      </c>
+      <c r="AZ207">
+        <v>4</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>2</v>
+      </c>
+      <c r="BC207">
+        <v>7</v>
+      </c>
+      <c r="BD207">
+        <v>1.5</v>
+      </c>
+      <c r="BE207">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF207">
+        <v>3.24</v>
+      </c>
+      <c r="BG207">
+        <v>1.25</v>
+      </c>
+      <c r="BH207">
+        <v>3.4</v>
+      </c>
+      <c r="BI207">
+        <v>1.51</v>
+      </c>
+      <c r="BJ207">
+        <v>2.49</v>
+      </c>
+      <c r="BK207">
+        <v>2</v>
+      </c>
+      <c r="BL207">
+        <v>1.91</v>
+      </c>
+      <c r="BM207">
+        <v>2.21</v>
+      </c>
+      <c r="BN207">
+        <v>1.53</v>
+      </c>
+      <c r="BO207">
+        <v>2.97</v>
+      </c>
+      <c r="BP207">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7853031</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F208">
+        <v>7</v>
+      </c>
+      <c r="G208" t="s">
+        <v>82</v>
+      </c>
+      <c r="H208" t="s">
+        <v>75</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>89</v>
+      </c>
+      <c r="P208" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q208">
+        <v>4.5</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>2.2</v>
+      </c>
+      <c r="T208">
+        <v>1.3</v>
+      </c>
+      <c r="U208">
+        <v>3.2</v>
+      </c>
+      <c r="V208">
+        <v>2.4</v>
+      </c>
+      <c r="W208">
+        <v>1.5</v>
+      </c>
+      <c r="X208">
+        <v>5.35</v>
+      </c>
+      <c r="Y208">
+        <v>1.11</v>
+      </c>
+      <c r="Z208">
+        <v>3.9</v>
+      </c>
+      <c r="AA208">
+        <v>3.6</v>
+      </c>
+      <c r="AB208">
+        <v>1.65</v>
+      </c>
+      <c r="AC208">
+        <v>1.01</v>
+      </c>
+      <c r="AD208">
+        <v>11.5</v>
+      </c>
+      <c r="AE208">
+        <v>1.17</v>
+      </c>
+      <c r="AF208">
+        <v>3.98</v>
+      </c>
+      <c r="AG208">
+        <v>1.59</v>
+      </c>
+      <c r="AH208">
+        <v>2.12</v>
+      </c>
+      <c r="AI208">
+        <v>1.7</v>
+      </c>
+      <c r="AJ208">
+        <v>2.18</v>
+      </c>
+      <c r="AK208">
+        <v>1.28</v>
+      </c>
+      <c r="AL208">
+        <v>1.2</v>
+      </c>
+      <c r="AM208">
+        <v>1.15</v>
+      </c>
+      <c r="AN208">
+        <v>1.18</v>
+      </c>
+      <c r="AO208">
+        <v>2.17</v>
+      </c>
+      <c r="AP208">
+        <v>1.13</v>
+      </c>
+      <c r="AQ208">
+        <v>2.21</v>
+      </c>
+      <c r="AR208">
+        <v>1.46</v>
+      </c>
+      <c r="AS208">
+        <v>1.57</v>
+      </c>
+      <c r="AT208">
+        <v>3.03</v>
+      </c>
+      <c r="AU208">
+        <v>5</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>4</v>
+      </c>
+      <c r="AX208">
+        <v>5</v>
+      </c>
+      <c r="AY208">
+        <v>9</v>
+      </c>
+      <c r="AZ208">
+        <v>10</v>
+      </c>
+      <c r="BA208">
+        <v>4</v>
+      </c>
+      <c r="BB208">
+        <v>5</v>
+      </c>
+      <c r="BC208">
+        <v>9</v>
+      </c>
+      <c r="BD208">
+        <v>2.91</v>
+      </c>
+      <c r="BE208">
+        <v>7.7</v>
+      </c>
+      <c r="BF208">
+        <v>1.62</v>
+      </c>
+      <c r="BG208">
+        <v>1.24</v>
+      </c>
+      <c r="BH208">
+        <v>3.15</v>
+      </c>
+      <c r="BI208">
+        <v>1.55</v>
+      </c>
+      <c r="BJ208">
+        <v>2.38</v>
+      </c>
+      <c r="BK208">
+        <v>1.83</v>
+      </c>
+      <c r="BL208">
+        <v>1.88</v>
+      </c>
+      <c r="BM208">
+        <v>2.38</v>
+      </c>
+      <c r="BN208">
+        <v>1.54</v>
+      </c>
+      <c r="BO208">
+        <v>3.14</v>
+      </c>
+      <c r="BP208">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -44054,10 +44054,10 @@
         <v>4</v>
       </c>
       <c r="BB208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD208">
         <v>2.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1245,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>1.08</v>
@@ -3645,7 +3645,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ12">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.92</v>
@@ -7147,7 +7147,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR29">
         <v>0.83</v>
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1.6</v>
@@ -11267,7 +11267,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR49">
         <v>1.04</v>
@@ -13324,7 +13324,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -16005,7 +16005,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16623,7 +16623,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -17238,7 +17238,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>2.27</v>
@@ -20331,7 +20331,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -21358,7 +21358,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>0.73</v>
@@ -24036,7 +24036,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -25069,7 +25069,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ116">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR116">
         <v>1.73</v>
@@ -27744,7 +27744,7 @@
         <v>0.33</v>
       </c>
       <c r="AP129">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27953,7 +27953,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -31249,7 +31249,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31452,7 +31452,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ147">
         <v>1.33</v>
@@ -33100,7 +33100,7 @@
         <v>1.29</v>
       </c>
       <c r="AP155">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ155">
         <v>1.13</v>
@@ -33718,7 +33718,7 @@
         <v>1.71</v>
       </c>
       <c r="AP158">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ158">
         <v>1.61</v>
@@ -35366,7 +35366,7 @@
         <v>1.41</v>
       </c>
       <c r="AP166">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ166">
         <v>1.48</v>
@@ -35984,7 +35984,7 @@
         <v>1.88</v>
       </c>
       <c r="AP169">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ169">
         <v>1.73</v>
@@ -37014,7 +37014,7 @@
         <v>2.32</v>
       </c>
       <c r="AP174">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ174">
         <v>2.21</v>
@@ -38662,7 +38662,7 @@
         <v>2.35</v>
       </c>
       <c r="AP182">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ182">
         <v>2.21</v>
@@ -38871,7 +38871,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ183">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AR183">
         <v>1.76</v>
@@ -40722,7 +40722,7 @@
         <v>1.19</v>
       </c>
       <c r="AP192">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ192">
         <v>1.13</v>
@@ -41958,7 +41958,7 @@
         <v>1.67</v>
       </c>
       <c r="AP198">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ198">
         <v>1.57</v>
@@ -42370,7 +42370,7 @@
         <v>1.71</v>
       </c>
       <c r="AP200">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AQ200">
         <v>1.61</v>
@@ -44097,6 +44097,212 @@
       </c>
       <c r="BP208">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7853034</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45795.58333333334</v>
+      </c>
+      <c r="F209">
+        <v>7</v>
+      </c>
+      <c r="G209" t="s">
+        <v>74</v>
+      </c>
+      <c r="H209" t="s">
+        <v>70</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209" t="s">
+        <v>89</v>
+      </c>
+      <c r="P209" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q209">
+        <v>3</v>
+      </c>
+      <c r="R209">
+        <v>1.91</v>
+      </c>
+      <c r="S209">
+        <v>4.58</v>
+      </c>
+      <c r="T209">
+        <v>1.54</v>
+      </c>
+      <c r="U209">
+        <v>2.42</v>
+      </c>
+      <c r="V209">
+        <v>3.4</v>
+      </c>
+      <c r="W209">
+        <v>1.25</v>
+      </c>
+      <c r="X209">
+        <v>7.5</v>
+      </c>
+      <c r="Y209">
+        <v>1.04</v>
+      </c>
+      <c r="Z209">
+        <v>2.2</v>
+      </c>
+      <c r="AA209">
+        <v>3</v>
+      </c>
+      <c r="AB209">
+        <v>3.5</v>
+      </c>
+      <c r="AC209">
+        <v>1.05</v>
+      </c>
+      <c r="AD209">
+        <v>6.25</v>
+      </c>
+      <c r="AE209">
+        <v>1.5</v>
+      </c>
+      <c r="AF209">
+        <v>2.38</v>
+      </c>
+      <c r="AG209">
+        <v>2.33</v>
+      </c>
+      <c r="AH209">
+        <v>1.5</v>
+      </c>
+      <c r="AI209">
+        <v>2.14</v>
+      </c>
+      <c r="AJ209">
+        <v>1.67</v>
+      </c>
+      <c r="AK209">
+        <v>1.25</v>
+      </c>
+      <c r="AL209">
+        <v>1.35</v>
+      </c>
+      <c r="AM209">
+        <v>1.65</v>
+      </c>
+      <c r="AN209">
+        <v>1.41</v>
+      </c>
+      <c r="AO209">
+        <v>1.05</v>
+      </c>
+      <c r="AP209">
+        <v>1.39</v>
+      </c>
+      <c r="AQ209">
+        <v>1.04</v>
+      </c>
+      <c r="AR209">
+        <v>1.22</v>
+      </c>
+      <c r="AS209">
+        <v>1.01</v>
+      </c>
+      <c r="AT209">
+        <v>2.23</v>
+      </c>
+      <c r="AU209">
+        <v>5</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+      <c r="AW209">
+        <v>12</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>17</v>
+      </c>
+      <c r="AZ209">
+        <v>4</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>1</v>
+      </c>
+      <c r="BC209">
+        <v>7</v>
+      </c>
+      <c r="BD209">
+        <v>1.88</v>
+      </c>
+      <c r="BE209">
+        <v>6.15</v>
+      </c>
+      <c r="BF209">
+        <v>2.36</v>
+      </c>
+      <c r="BG209">
+        <v>1.41</v>
+      </c>
+      <c r="BH209">
+        <v>2.7</v>
+      </c>
+      <c r="BI209">
+        <v>1.71</v>
+      </c>
+      <c r="BJ209">
+        <v>2.11</v>
+      </c>
+      <c r="BK209">
+        <v>2.16</v>
+      </c>
+      <c r="BL209">
+        <v>1.68</v>
+      </c>
+      <c r="BM209">
+        <v>2.7</v>
+      </c>
+      <c r="BN209">
+        <v>1.41</v>
+      </c>
+      <c r="BO209">
+        <v>3.62</v>
+      </c>
+      <c r="BP209">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,21 @@
     <t>['21', '90+6']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['45+4', '58']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['45+1', '46', '88']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -704,9 +719,6 @@
   </si>
   <si>
     <t>['45+11']</t>
-  </si>
-  <si>
-    <t>['71']</t>
   </si>
   <si>
     <t>['80']</t>
@@ -884,6 +896,15 @@
   </si>
   <si>
     <t>['55', '62']</t>
+  </si>
+  <si>
+    <t>['30', '50', '90']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1525,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1710,7 +1731,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1788,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ3">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1997,7 +2018,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2200,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>0.92</v>
@@ -2328,7 +2349,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2409,7 +2430,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2534,7 +2555,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2740,7 +2761,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3024,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3152,7 +3173,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3358,7 +3379,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3645,7 +3666,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ12">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3770,7 +3791,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3976,7 +3997,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4054,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>0.83</v>
@@ -4182,7 +4203,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4263,7 +4284,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4388,7 +4409,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4466,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>2.07</v>
@@ -4672,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4881,7 +4902,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5084,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0.64</v>
@@ -5212,7 +5233,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5418,7 +5439,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5705,7 +5726,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.96</v>
@@ -5908,7 +5929,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ23">
         <v>1.17</v>
@@ -6036,7 +6057,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6117,7 +6138,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1.3</v>
@@ -6242,7 +6263,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6323,7 +6344,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR25">
         <v>1.36</v>
@@ -6526,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.18</v>
@@ -6732,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR27">
         <v>2</v>
@@ -7147,7 +7168,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ29">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>0.83</v>
@@ -7272,7 +7293,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7350,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>0.83</v>
@@ -7762,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ32">
         <v>2.27</v>
@@ -7971,7 +7992,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR33">
         <v>1.75</v>
@@ -8174,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>0.64</v>
@@ -8508,7 +8529,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8586,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8714,7 +8735,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -8795,7 +8816,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR37">
         <v>2.48</v>
@@ -8998,7 +9019,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ38">
         <v>1.18</v>
@@ -9207,7 +9228,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9332,7 +9353,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9744,7 +9765,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9822,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>1.62</v>
@@ -9950,7 +9971,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10031,7 +10052,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10237,7 +10258,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ44">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10362,7 +10383,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10440,7 +10461,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2.07</v>
@@ -10774,7 +10795,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10852,10 +10873,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ47">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11186,7 +11207,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11264,10 +11285,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.04</v>
@@ -11598,7 +11619,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11679,7 +11700,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.77</v>
@@ -11804,7 +11825,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11882,7 +11903,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -12010,7 +12031,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12294,10 +12315,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR54">
         <v>1.9</v>
@@ -12709,7 +12730,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.48</v>
@@ -12912,7 +12933,7 @@
         <v>2.33</v>
       </c>
       <c r="AP57">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>2.27</v>
@@ -13040,7 +13061,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13246,7 +13267,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13658,7 +13679,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13736,10 +13757,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR61">
         <v>1.52</v>
@@ -13942,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>0.64</v>
@@ -14560,7 +14581,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>0.92</v>
@@ -14688,7 +14709,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14766,7 +14787,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ66">
         <v>1.75</v>
@@ -14972,7 +14993,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -15100,7 +15121,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15181,7 +15202,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR68">
         <v>0.92</v>
@@ -15593,7 +15614,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ70">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>1.68</v>
@@ -15799,7 +15820,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR71">
         <v>1.88</v>
@@ -15924,7 +15945,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16005,7 +16026,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16336,7 +16357,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16542,7 +16563,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16623,7 +16644,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16748,7 +16769,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16826,7 +16847,7 @@
         <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>1.64</v>
@@ -17032,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -17160,7 +17181,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17366,7 +17387,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>2.3</v>
@@ -17444,10 +17465,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17572,7 +17593,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17856,10 +17877,10 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR81">
         <v>1.81</v>
@@ -18062,10 +18083,10 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR82">
         <v>1.26</v>
@@ -18474,7 +18495,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18602,7 +18623,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18808,7 +18829,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -19014,7 +19035,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19095,7 +19116,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR87">
         <v>1.76</v>
@@ -19426,7 +19447,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19632,7 +19653,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19710,7 +19731,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ90">
         <v>1.18</v>
@@ -19838,7 +19859,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -19919,7 +19940,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ91">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR91">
         <v>1.61</v>
@@ -20044,7 +20065,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20122,7 +20143,7 @@
         <v>2.25</v>
       </c>
       <c r="AP92">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.64</v>
@@ -20250,7 +20271,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20331,7 +20352,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -20537,7 +20558,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR94">
         <v>1.88</v>
@@ -20740,7 +20761,7 @@
         <v>1.8</v>
       </c>
       <c r="AP95">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
         <v>1.62</v>
@@ -20949,7 +20970,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR96">
         <v>1.28</v>
@@ -21152,10 +21173,10 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.73</v>
@@ -21280,7 +21301,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21361,7 +21382,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21486,7 +21507,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21564,7 +21585,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21692,7 +21713,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21770,7 +21791,7 @@
         <v>1.8</v>
       </c>
       <c r="AP100">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100">
         <v>2.27</v>
@@ -21898,7 +21919,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22104,7 +22125,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22182,7 +22203,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22516,7 +22537,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23006,10 +23027,10 @@
         <v>0.4</v>
       </c>
       <c r="AP106">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -23340,7 +23361,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23421,7 +23442,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR108">
         <v>0.86</v>
@@ -23624,10 +23645,10 @@
         <v>1.6</v>
       </c>
       <c r="AP109">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ109">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR109">
         <v>1.08</v>
@@ -23752,7 +23773,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23830,7 +23851,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -23958,7 +23979,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24039,7 +24060,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR111">
         <v>1.41</v>
@@ -24245,7 +24266,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ112">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR112">
         <v>1.95</v>
@@ -25069,7 +25090,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ116">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.73</v>
@@ -25272,7 +25293,7 @@
         <v>2.4</v>
       </c>
       <c r="AP117">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117">
         <v>1.64</v>
@@ -25400,7 +25421,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25478,10 +25499,10 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>0.78</v>
@@ -25812,7 +25833,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26224,7 +26245,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26302,7 +26323,7 @@
         <v>2</v>
       </c>
       <c r="AP122">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>2.27</v>
@@ -26430,7 +26451,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26508,7 +26529,7 @@
         <v>0.43</v>
       </c>
       <c r="AP123">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ123">
         <v>0.92</v>
@@ -26717,7 +26738,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ124">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR124">
         <v>0.96</v>
@@ -26920,7 +26941,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ125">
         <v>2.07</v>
@@ -27126,10 +27147,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ126">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR126">
         <v>1.44</v>
@@ -27335,7 +27356,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ127">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR127">
         <v>1.47</v>
@@ -27538,7 +27559,7 @@
         <v>1.43</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -27872,7 +27893,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27950,10 +27971,10 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -28078,7 +28099,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28156,10 +28177,10 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ131">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.17</v>
@@ -28696,7 +28717,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28777,7 +28798,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ134">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR134">
         <v>1.8</v>
@@ -28983,7 +29004,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ135">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR135">
         <v>1.18</v>
@@ -29314,7 +29335,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29392,10 +29413,10 @@
         <v>0.43</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR137">
         <v>1.04</v>
@@ -29520,7 +29541,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29726,7 +29747,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29804,7 +29825,7 @@
         <v>1.14</v>
       </c>
       <c r="AP139">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ139">
         <v>1.38</v>
@@ -29932,7 +29953,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30013,7 +30034,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR140">
         <v>1.52</v>
@@ -30138,7 +30159,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30216,7 +30237,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ141">
         <v>1.62</v>
@@ -30344,7 +30365,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30425,7 +30446,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ142">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR142">
         <v>1.62</v>
@@ -30756,7 +30777,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30962,7 +30983,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31040,7 +31061,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -31246,10 +31267,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ146">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31455,7 +31476,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ147">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR147">
         <v>1.32</v>
@@ -31580,7 +31601,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31786,7 +31807,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -31864,10 +31885,10 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR149">
         <v>0.91</v>
@@ -31992,7 +32013,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32404,7 +32425,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32894,10 +32915,10 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR154">
         <v>1.59</v>
@@ -33022,7 +33043,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33100,10 +33121,10 @@
         <v>1.29</v>
       </c>
       <c r="AP155">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR155">
         <v>1.02</v>
@@ -33306,7 +33327,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33512,10 +33533,10 @@
         <v>1.06</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ157">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AR157">
         <v>1.17</v>
@@ -33640,7 +33661,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33721,7 +33742,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ158">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33927,7 +33948,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ159">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR159">
         <v>1.58</v>
@@ -34052,7 +34073,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34130,10 +34151,10 @@
         <v>1.24</v>
       </c>
       <c r="AP160">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ160">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34258,7 +34279,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34339,7 +34360,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ161">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR161">
         <v>1.28</v>
@@ -34542,10 +34563,10 @@
         <v>0.72</v>
       </c>
       <c r="AP162">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR162">
         <v>1</v>
@@ -34748,10 +34769,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ163">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AR163">
         <v>0.99</v>
@@ -34876,7 +34897,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34954,10 +34975,10 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR164">
         <v>1.24</v>
@@ -35160,7 +35181,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35288,7 +35309,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35369,7 +35390,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ166">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35778,10 +35799,10 @@
         <v>1.39</v>
       </c>
       <c r="AP168">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ168">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR168">
         <v>1.23</v>
@@ -35906,7 +35927,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -35984,10 +36005,10 @@
         <v>1.88</v>
       </c>
       <c r="AP169">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36190,7 +36211,7 @@
         <v>1.05</v>
       </c>
       <c r="AP170">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36318,7 +36339,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36399,7 +36420,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ171">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36524,7 +36545,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36602,10 +36623,10 @@
         <v>1.26</v>
       </c>
       <c r="AP172">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ172">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AR172">
         <v>0.99</v>
@@ -36808,10 +36829,10 @@
         <v>1.05</v>
       </c>
       <c r="AP173">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ173">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR173">
         <v>0.99</v>
@@ -36936,7 +36957,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37014,7 +37035,7 @@
         <v>2.32</v>
       </c>
       <c r="AP174">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
         <v>2.21</v>
@@ -37142,7 +37163,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37220,7 +37241,7 @@
         <v>2.22</v>
       </c>
       <c r="AP175">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ175">
         <v>2.39</v>
@@ -37348,7 +37369,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37426,10 +37447,10 @@
         <v>1.61</v>
       </c>
       <c r="AP176">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ176">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37632,10 +37653,10 @@
         <v>1.94</v>
       </c>
       <c r="AP177">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ177">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37760,7 +37781,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37841,7 +37862,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR178">
         <v>1.33</v>
@@ -38044,7 +38065,7 @@
         <v>1.11</v>
       </c>
       <c r="AP179">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179">
         <v>1.17</v>
@@ -38172,7 +38193,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38250,10 +38271,10 @@
         <v>1.2</v>
       </c>
       <c r="AP180">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ180">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR180">
         <v>0.99</v>
@@ -38456,10 +38477,10 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AQ181">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR181">
         <v>1.11</v>
@@ -38584,7 +38605,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38871,7 +38892,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ183">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.76</v>
@@ -38996,7 +39017,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39074,10 +39095,10 @@
         <v>1.42</v>
       </c>
       <c r="AP184">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ184">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39202,7 +39223,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39280,10 +39301,10 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AQ185">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AR185">
         <v>1.26</v>
@@ -39692,10 +39713,10 @@
         <v>1.1</v>
       </c>
       <c r="AP187">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ187">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AR187">
         <v>1.3</v>
@@ -39820,7 +39841,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -39898,10 +39919,10 @@
         <v>0.8</v>
       </c>
       <c r="AP188">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR188">
         <v>1.16</v>
@@ -40026,7 +40047,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40104,10 +40125,10 @@
         <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ189">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR189">
         <v>0.97</v>
@@ -40232,7 +40253,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40313,7 +40334,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ190">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR190">
         <v>1.78</v>
@@ -40438,7 +40459,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40516,10 +40537,10 @@
         <v>1.85</v>
       </c>
       <c r="AP191">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ191">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AR191">
         <v>1.56</v>
@@ -40644,7 +40665,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40725,7 +40746,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ192">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR192">
         <v>1.2</v>
@@ -40850,7 +40871,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -40928,7 +40949,7 @@
         <v>2.24</v>
       </c>
       <c r="AP193">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AQ193">
         <v>2.21</v>
@@ -41134,10 +41155,10 @@
         <v>0.95</v>
       </c>
       <c r="AP194">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AQ194">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR194">
         <v>1.05</v>
@@ -41262,7 +41283,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41343,7 +41364,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR195">
         <v>1.34</v>
@@ -41546,7 +41567,7 @@
         <v>1.1</v>
       </c>
       <c r="AP196">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ196">
         <v>1.17</v>
@@ -41674,7 +41695,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41752,10 +41773,10 @@
         <v>0.9</v>
       </c>
       <c r="AP197">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR197">
         <v>1.31</v>
@@ -41961,7 +41982,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ198">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR198">
         <v>1.21</v>
@@ -42164,7 +42185,7 @@
         <v>2.33</v>
       </c>
       <c r="AP199">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AQ199">
         <v>2.39</v>
@@ -42292,7 +42313,7 @@
         <v>192</v>
       </c>
       <c r="P200" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q200">
         <v>5.95</v>
@@ -42370,10 +42391,10 @@
         <v>1.71</v>
       </c>
       <c r="AP200">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR200">
         <v>1.01</v>
@@ -42498,7 +42519,7 @@
         <v>89</v>
       </c>
       <c r="P201" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42576,7 +42597,7 @@
         <v>2.14</v>
       </c>
       <c r="AP201">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AQ201">
         <v>2.21</v>
@@ -42704,7 +42725,7 @@
         <v>140</v>
       </c>
       <c r="P202" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q202">
         <v>3.91</v>
@@ -42782,10 +42803,10 @@
         <v>0.91</v>
       </c>
       <c r="AP202">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ202">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR202">
         <v>0.96</v>
@@ -42910,7 +42931,7 @@
         <v>193</v>
       </c>
       <c r="P203" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -42991,7 +43012,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ203">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR203">
         <v>1.27</v>
@@ -43116,7 +43137,7 @@
         <v>89</v>
       </c>
       <c r="P204" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q204">
         <v>2.81</v>
@@ -43194,10 +43215,10 @@
         <v>1.17</v>
       </c>
       <c r="AP204">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ204">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR204">
         <v>1.19</v>
@@ -43403,7 +43424,7 @@
         <v>1</v>
       </c>
       <c r="AQ205">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AR205">
         <v>1.36</v>
@@ -43528,7 +43549,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q206">
         <v>2.9</v>
@@ -43606,10 +43627,10 @@
         <v>1.41</v>
       </c>
       <c r="AP206">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ206">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR206">
         <v>1.29</v>
@@ -43815,7 +43836,7 @@
         <v>2.39</v>
       </c>
       <c r="AQ207">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AR207">
         <v>1.77</v>
@@ -43940,7 +43961,7 @@
         <v>89</v>
       </c>
       <c r="P208" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44018,7 +44039,7 @@
         <v>2.17</v>
       </c>
       <c r="AP208">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ208">
         <v>2.21</v>
@@ -44227,7 +44248,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ209">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AR209">
         <v>1.22</v>
@@ -44303,6 +44324,1448 @@
       </c>
       <c r="BP209">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7853036</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45801.58333333334</v>
+      </c>
+      <c r="F210">
+        <v>8</v>
+      </c>
+      <c r="G210" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
+      </c>
+      <c r="O210" t="s">
+        <v>195</v>
+      </c>
+      <c r="P210" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q210">
+        <v>5.99</v>
+      </c>
+      <c r="R210">
+        <v>2.06</v>
+      </c>
+      <c r="S210">
+        <v>2.3</v>
+      </c>
+      <c r="T210">
+        <v>1.42</v>
+      </c>
+      <c r="U210">
+        <v>2.43</v>
+      </c>
+      <c r="V210">
+        <v>3.14</v>
+      </c>
+      <c r="W210">
+        <v>1.33</v>
+      </c>
+      <c r="X210">
+        <v>7.5</v>
+      </c>
+      <c r="Y210">
+        <v>1.04</v>
+      </c>
+      <c r="Z210">
+        <v>4.8</v>
+      </c>
+      <c r="AA210">
+        <v>3.35</v>
+      </c>
+      <c r="AB210">
+        <v>1.67</v>
+      </c>
+      <c r="AC210">
+        <v>1.07</v>
+      </c>
+      <c r="AD210">
+        <v>7.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.33</v>
+      </c>
+      <c r="AF210">
+        <v>3</v>
+      </c>
+      <c r="AG210">
+        <v>2.26</v>
+      </c>
+      <c r="AH210">
+        <v>1.66</v>
+      </c>
+      <c r="AI210">
+        <v>2.09</v>
+      </c>
+      <c r="AJ210">
+        <v>1.75</v>
+      </c>
+      <c r="AK210">
+        <v>2.05</v>
+      </c>
+      <c r="AL210">
+        <v>1.25</v>
+      </c>
+      <c r="AM210">
+        <v>1.16</v>
+      </c>
+      <c r="AN210">
+        <v>1.13</v>
+      </c>
+      <c r="AO210">
+        <v>1.73</v>
+      </c>
+      <c r="AP210">
+        <v>1.08</v>
+      </c>
+      <c r="AQ210">
+        <v>1.78</v>
+      </c>
+      <c r="AR210">
+        <v>1.45</v>
+      </c>
+      <c r="AS210">
+        <v>1.44</v>
+      </c>
+      <c r="AT210">
+        <v>2.89</v>
+      </c>
+      <c r="AU210">
+        <v>8</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>10</v>
+      </c>
+      <c r="AX210">
+        <v>4</v>
+      </c>
+      <c r="AY210">
+        <v>18</v>
+      </c>
+      <c r="AZ210">
+        <v>8</v>
+      </c>
+      <c r="BA210">
+        <v>4</v>
+      </c>
+      <c r="BB210">
+        <v>4</v>
+      </c>
+      <c r="BC210">
+        <v>8</v>
+      </c>
+      <c r="BD210">
+        <v>2.81</v>
+      </c>
+      <c r="BE210">
+        <v>7.5</v>
+      </c>
+      <c r="BF210">
+        <v>1.64</v>
+      </c>
+      <c r="BG210">
+        <v>1.24</v>
+      </c>
+      <c r="BH210">
+        <v>3.15</v>
+      </c>
+      <c r="BI210">
+        <v>1.56</v>
+      </c>
+      <c r="BJ210">
+        <v>2.31</v>
+      </c>
+      <c r="BK210">
+        <v>1.92</v>
+      </c>
+      <c r="BL210">
+        <v>1.83</v>
+      </c>
+      <c r="BM210">
+        <v>2.4</v>
+      </c>
+      <c r="BN210">
+        <v>1.51</v>
+      </c>
+      <c r="BO210">
+        <v>3.12</v>
+      </c>
+      <c r="BP210">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7853037</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45801.58333333334</v>
+      </c>
+      <c r="F211">
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
+        <v>87</v>
+      </c>
+      <c r="H211" t="s">
+        <v>70</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>196</v>
+      </c>
+      <c r="P211" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q211">
+        <v>1.86</v>
+      </c>
+      <c r="R211">
+        <v>2.29</v>
+      </c>
+      <c r="S211">
+        <v>6.95</v>
+      </c>
+      <c r="T211">
+        <v>1.34</v>
+      </c>
+      <c r="U211">
+        <v>3.21</v>
+      </c>
+      <c r="V211">
+        <v>2.5</v>
+      </c>
+      <c r="W211">
+        <v>1.48</v>
+      </c>
+      <c r="X211">
+        <v>6</v>
+      </c>
+      <c r="Y211">
+        <v>1.11</v>
+      </c>
+      <c r="Z211">
+        <v>1.38</v>
+      </c>
+      <c r="AA211">
+        <v>4.33</v>
+      </c>
+      <c r="AB211">
+        <v>8.5</v>
+      </c>
+      <c r="AC211">
+        <v>1.04</v>
+      </c>
+      <c r="AD211">
+        <v>9</v>
+      </c>
+      <c r="AE211">
+        <v>1.22</v>
+      </c>
+      <c r="AF211">
+        <v>3.8</v>
+      </c>
+      <c r="AG211">
+        <v>1.7</v>
+      </c>
+      <c r="AH211">
+        <v>1.98</v>
+      </c>
+      <c r="AI211">
+        <v>2</v>
+      </c>
+      <c r="AJ211">
+        <v>1.7</v>
+      </c>
+      <c r="AK211">
+        <v>1.18</v>
+      </c>
+      <c r="AL211">
+        <v>1.26</v>
+      </c>
+      <c r="AM211">
+        <v>2.83</v>
+      </c>
+      <c r="AN211">
+        <v>1.48</v>
+      </c>
+      <c r="AO211">
+        <v>1.04</v>
+      </c>
+      <c r="AP211">
+        <v>1.54</v>
+      </c>
+      <c r="AQ211">
+        <v>1</v>
+      </c>
+      <c r="AR211">
+        <v>1.54</v>
+      </c>
+      <c r="AS211">
+        <v>0.99</v>
+      </c>
+      <c r="AT211">
+        <v>2.53</v>
+      </c>
+      <c r="AU211">
+        <v>5</v>
+      </c>
+      <c r="AV211">
+        <v>2</v>
+      </c>
+      <c r="AW211">
+        <v>3</v>
+      </c>
+      <c r="AX211">
+        <v>5</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>7</v>
+      </c>
+      <c r="BA211">
+        <v>6</v>
+      </c>
+      <c r="BB211">
+        <v>2</v>
+      </c>
+      <c r="BC211">
+        <v>8</v>
+      </c>
+      <c r="BD211">
+        <v>1.35</v>
+      </c>
+      <c r="BE211">
+        <v>9.1</v>
+      </c>
+      <c r="BF211">
+        <v>4.26</v>
+      </c>
+      <c r="BG211">
+        <v>1.36</v>
+      </c>
+      <c r="BH211">
+        <v>3.07</v>
+      </c>
+      <c r="BI211">
+        <v>1.65</v>
+      </c>
+      <c r="BJ211">
+        <v>2.28</v>
+      </c>
+      <c r="BK211">
+        <v>1.92</v>
+      </c>
+      <c r="BL211">
+        <v>1.8</v>
+      </c>
+      <c r="BM211">
+        <v>2.44</v>
+      </c>
+      <c r="BN211">
+        <v>1.49</v>
+      </c>
+      <c r="BO211">
+        <v>3.2</v>
+      </c>
+      <c r="BP211">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7853035</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45801.58333333334</v>
+      </c>
+      <c r="F212">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
+        <v>85</v>
+      </c>
+      <c r="H212" t="s">
+        <v>86</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>89</v>
+      </c>
+      <c r="P212" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q212">
+        <v>3</v>
+      </c>
+      <c r="R212">
+        <v>1.95</v>
+      </c>
+      <c r="S212">
+        <v>3.8</v>
+      </c>
+      <c r="T212">
+        <v>1.5</v>
+      </c>
+      <c r="U212">
+        <v>2.4</v>
+      </c>
+      <c r="V212">
+        <v>3.3</v>
+      </c>
+      <c r="W212">
+        <v>1.29</v>
+      </c>
+      <c r="X212">
+        <v>10</v>
+      </c>
+      <c r="Y212">
+        <v>1</v>
+      </c>
+      <c r="Z212">
+        <v>2.3</v>
+      </c>
+      <c r="AA212">
+        <v>2.9</v>
+      </c>
+      <c r="AB212">
+        <v>3.05</v>
+      </c>
+      <c r="AC212">
+        <v>1.03</v>
+      </c>
+      <c r="AD212">
+        <v>7</v>
+      </c>
+      <c r="AE212">
+        <v>1.42</v>
+      </c>
+      <c r="AF212">
+        <v>2.7</v>
+      </c>
+      <c r="AG212">
+        <v>2.25</v>
+      </c>
+      <c r="AH212">
+        <v>1.57</v>
+      </c>
+      <c r="AI212">
+        <v>1.91</v>
+      </c>
+      <c r="AJ212">
+        <v>1.8</v>
+      </c>
+      <c r="AK212">
+        <v>1.34</v>
+      </c>
+      <c r="AL212">
+        <v>1.37</v>
+      </c>
+      <c r="AM212">
+        <v>1.5</v>
+      </c>
+      <c r="AN212">
+        <v>1.61</v>
+      </c>
+      <c r="AO212">
+        <v>1.57</v>
+      </c>
+      <c r="AP212">
+        <v>1.54</v>
+      </c>
+      <c r="AQ212">
+        <v>1.63</v>
+      </c>
+      <c r="AR212">
+        <v>1.27</v>
+      </c>
+      <c r="AS212">
+        <v>1.29</v>
+      </c>
+      <c r="AT212">
+        <v>2.56</v>
+      </c>
+      <c r="AU212">
+        <v>0</v>
+      </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
+      <c r="AW212">
+        <v>11</v>
+      </c>
+      <c r="AX212">
+        <v>11</v>
+      </c>
+      <c r="AY212">
+        <v>11</v>
+      </c>
+      <c r="AZ212">
+        <v>13</v>
+      </c>
+      <c r="BA212">
+        <v>6</v>
+      </c>
+      <c r="BB212">
+        <v>5</v>
+      </c>
+      <c r="BC212">
+        <v>11</v>
+      </c>
+      <c r="BD212">
+        <v>1.82</v>
+      </c>
+      <c r="BE212">
+        <v>6.7</v>
+      </c>
+      <c r="BF212">
+        <v>2.46</v>
+      </c>
+      <c r="BG212">
+        <v>1.38</v>
+      </c>
+      <c r="BH212">
+        <v>2.97</v>
+      </c>
+      <c r="BI212">
+        <v>1.62</v>
+      </c>
+      <c r="BJ212">
+        <v>2.2</v>
+      </c>
+      <c r="BK212">
+        <v>1.98</v>
+      </c>
+      <c r="BL212">
+        <v>1.72</v>
+      </c>
+      <c r="BM212">
+        <v>2.56</v>
+      </c>
+      <c r="BN212">
+        <v>1.49</v>
+      </c>
+      <c r="BO212">
+        <v>3.58</v>
+      </c>
+      <c r="BP212">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7853057</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F213">
+        <v>8</v>
+      </c>
+      <c r="G213" t="s">
+        <v>73</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>197</v>
+      </c>
+      <c r="P213" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q213">
+        <v>3.8</v>
+      </c>
+      <c r="R213">
+        <v>1.69</v>
+      </c>
+      <c r="S213">
+        <v>3.8</v>
+      </c>
+      <c r="T213">
+        <v>1.85</v>
+      </c>
+      <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>5</v>
+      </c>
+      <c r="W213">
+        <v>1.13</v>
+      </c>
+      <c r="X213">
+        <v>19</v>
+      </c>
+      <c r="Y213">
+        <v>1.01</v>
+      </c>
+      <c r="Z213">
+        <v>2.8</v>
+      </c>
+      <c r="AA213">
+        <v>2.37</v>
+      </c>
+      <c r="AB213">
+        <v>2.9</v>
+      </c>
+      <c r="AC213">
+        <v>1.19</v>
+      </c>
+      <c r="AD213">
+        <v>4.46</v>
+      </c>
+      <c r="AE213">
+        <v>1.92</v>
+      </c>
+      <c r="AF213">
+        <v>1.81</v>
+      </c>
+      <c r="AG213">
+        <v>4</v>
+      </c>
+      <c r="AH213">
+        <v>1.22</v>
+      </c>
+      <c r="AI213">
+        <v>2.8</v>
+      </c>
+      <c r="AJ213">
+        <v>1.38</v>
+      </c>
+      <c r="AK213">
+        <v>1.4</v>
+      </c>
+      <c r="AL213">
+        <v>1.44</v>
+      </c>
+      <c r="AM213">
+        <v>1.33</v>
+      </c>
+      <c r="AN213">
+        <v>1</v>
+      </c>
+      <c r="AO213">
+        <v>1.09</v>
+      </c>
+      <c r="AP213">
+        <v>1.08</v>
+      </c>
+      <c r="AQ213">
+        <v>1.04</v>
+      </c>
+      <c r="AR213">
+        <v>1.18</v>
+      </c>
+      <c r="AS213">
+        <v>1.06</v>
+      </c>
+      <c r="AT213">
+        <v>2.24</v>
+      </c>
+      <c r="AU213">
+        <v>4</v>
+      </c>
+      <c r="AV213">
+        <v>2</v>
+      </c>
+      <c r="AW213">
+        <v>7</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>4</v>
+      </c>
+      <c r="BA213">
+        <v>5</v>
+      </c>
+      <c r="BB213">
+        <v>0</v>
+      </c>
+      <c r="BC213">
+        <v>5</v>
+      </c>
+      <c r="BD213">
+        <v>1.67</v>
+      </c>
+      <c r="BE213">
+        <v>7.8</v>
+      </c>
+      <c r="BF213">
+        <v>3.18</v>
+      </c>
+      <c r="BG213">
+        <v>1.48</v>
+      </c>
+      <c r="BH213">
+        <v>2.28</v>
+      </c>
+      <c r="BI213">
+        <v>1.94</v>
+      </c>
+      <c r="BJ213">
+        <v>1.8</v>
+      </c>
+      <c r="BK213">
+        <v>2.46</v>
+      </c>
+      <c r="BL213">
+        <v>1.45</v>
+      </c>
+      <c r="BM213">
+        <v>3.4</v>
+      </c>
+      <c r="BN213">
+        <v>1.23</v>
+      </c>
+      <c r="BO213">
+        <v>4.75</v>
+      </c>
+      <c r="BP213">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7853055</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F214">
+        <v>8</v>
+      </c>
+      <c r="G214" t="s">
+        <v>84</v>
+      </c>
+      <c r="H214" t="s">
+        <v>81</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>128</v>
+      </c>
+      <c r="P214" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q214">
+        <v>3.3</v>
+      </c>
+      <c r="R214">
+        <v>1.69</v>
+      </c>
+      <c r="S214">
+        <v>4.2</v>
+      </c>
+      <c r="T214">
+        <v>1.65</v>
+      </c>
+      <c r="U214">
+        <v>2.06</v>
+      </c>
+      <c r="V214">
+        <v>4.4</v>
+      </c>
+      <c r="W214">
+        <v>1.17</v>
+      </c>
+      <c r="X214">
+        <v>12</v>
+      </c>
+      <c r="Y214">
+        <v>1.01</v>
+      </c>
+      <c r="Z214">
+        <v>2.55</v>
+      </c>
+      <c r="AA214">
+        <v>2.62</v>
+      </c>
+      <c r="AB214">
+        <v>3.1</v>
+      </c>
+      <c r="AC214">
+        <v>1.09</v>
+      </c>
+      <c r="AD214">
+        <v>4.8</v>
+      </c>
+      <c r="AE214">
+        <v>1.6</v>
+      </c>
+      <c r="AF214">
+        <v>2.19</v>
+      </c>
+      <c r="AG214">
+        <v>2.9</v>
+      </c>
+      <c r="AH214">
+        <v>1.32</v>
+      </c>
+      <c r="AI214">
+        <v>2.25</v>
+      </c>
+      <c r="AJ214">
+        <v>1.5</v>
+      </c>
+      <c r="AK214">
+        <v>1.32</v>
+      </c>
+      <c r="AL214">
+        <v>1.44</v>
+      </c>
+      <c r="AM214">
+        <v>1.48</v>
+      </c>
+      <c r="AN214">
+        <v>1.09</v>
+      </c>
+      <c r="AO214">
+        <v>1.3</v>
+      </c>
+      <c r="AP214">
+        <v>1.08</v>
+      </c>
+      <c r="AQ214">
+        <v>1.29</v>
+      </c>
+      <c r="AR214">
+        <v>0.99</v>
+      </c>
+      <c r="AS214">
+        <v>1.31</v>
+      </c>
+      <c r="AT214">
+        <v>2.3</v>
+      </c>
+      <c r="AU214">
+        <v>2</v>
+      </c>
+      <c r="AV214">
+        <v>4</v>
+      </c>
+      <c r="AW214">
+        <v>7</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>9</v>
+      </c>
+      <c r="AZ214">
+        <v>4</v>
+      </c>
+      <c r="BA214">
+        <v>1</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>6</v>
+      </c>
+      <c r="BD214">
+        <v>1.88</v>
+      </c>
+      <c r="BE214">
+        <v>6.8</v>
+      </c>
+      <c r="BF214">
+        <v>2.28</v>
+      </c>
+      <c r="BG214">
+        <v>1.65</v>
+      </c>
+      <c r="BH214">
+        <v>2.1</v>
+      </c>
+      <c r="BI214">
+        <v>1.99</v>
+      </c>
+      <c r="BJ214">
+        <v>1.68</v>
+      </c>
+      <c r="BK214">
+        <v>2.46</v>
+      </c>
+      <c r="BL214">
+        <v>1.48</v>
+      </c>
+      <c r="BM214">
+        <v>3.4</v>
+      </c>
+      <c r="BN214">
+        <v>1.29</v>
+      </c>
+      <c r="BO214">
+        <v>4.75</v>
+      </c>
+      <c r="BP214">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7853056</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+      <c r="G215" t="s">
+        <v>77</v>
+      </c>
+      <c r="H215" t="s">
+        <v>72</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>198</v>
+      </c>
+      <c r="P215" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q215">
+        <v>3.55</v>
+      </c>
+      <c r="R215">
+        <v>1.75</v>
+      </c>
+      <c r="S215">
+        <v>3.7</v>
+      </c>
+      <c r="T215">
+        <v>1.55</v>
+      </c>
+      <c r="U215">
+        <v>2.2</v>
+      </c>
+      <c r="V215">
+        <v>3.7</v>
+      </c>
+      <c r="W215">
+        <v>1.22</v>
+      </c>
+      <c r="X215">
+        <v>13</v>
+      </c>
+      <c r="Y215">
+        <v>1.03</v>
+      </c>
+      <c r="Z215">
+        <v>2.6</v>
+      </c>
+      <c r="AA215">
+        <v>2.6</v>
+      </c>
+      <c r="AB215">
+        <v>2.95</v>
+      </c>
+      <c r="AC215">
+        <v>1.09</v>
+      </c>
+      <c r="AD215">
+        <v>5.1</v>
+      </c>
+      <c r="AE215">
+        <v>1.6</v>
+      </c>
+      <c r="AF215">
+        <v>2.25</v>
+      </c>
+      <c r="AG215">
+        <v>2.62</v>
+      </c>
+      <c r="AH215">
+        <v>1.4</v>
+      </c>
+      <c r="AI215">
+        <v>2.2</v>
+      </c>
+      <c r="AJ215">
+        <v>1.62</v>
+      </c>
+      <c r="AK215">
+        <v>1.37</v>
+      </c>
+      <c r="AL215">
+        <v>1.44</v>
+      </c>
+      <c r="AM215">
+        <v>1.45</v>
+      </c>
+      <c r="AN215">
+        <v>0.74</v>
+      </c>
+      <c r="AO215">
+        <v>1.25</v>
+      </c>
+      <c r="AP215">
+        <v>0.83</v>
+      </c>
+      <c r="AQ215">
+        <v>1.2</v>
+      </c>
+      <c r="AR215">
+        <v>0.98</v>
+      </c>
+      <c r="AS215">
+        <v>1.17</v>
+      </c>
+      <c r="AT215">
+        <v>2.15</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>2</v>
+      </c>
+      <c r="AW215">
+        <v>6</v>
+      </c>
+      <c r="AX215">
+        <v>8</v>
+      </c>
+      <c r="AY215">
+        <v>11</v>
+      </c>
+      <c r="AZ215">
+        <v>10</v>
+      </c>
+      <c r="BA215">
+        <v>4</v>
+      </c>
+      <c r="BB215">
+        <v>5</v>
+      </c>
+      <c r="BC215">
+        <v>9</v>
+      </c>
+      <c r="BD215">
+        <v>1.77</v>
+      </c>
+      <c r="BE215">
+        <v>7.7</v>
+      </c>
+      <c r="BF215">
+        <v>2.62</v>
+      </c>
+      <c r="BG215">
+        <v>1.53</v>
+      </c>
+      <c r="BH215">
+        <v>2.38</v>
+      </c>
+      <c r="BI215">
+        <v>1.92</v>
+      </c>
+      <c r="BJ215">
+        <v>1.87</v>
+      </c>
+      <c r="BK215">
+        <v>2.41</v>
+      </c>
+      <c r="BL215">
+        <v>1.53</v>
+      </c>
+      <c r="BM215">
+        <v>3.08</v>
+      </c>
+      <c r="BN215">
+        <v>1.28</v>
+      </c>
+      <c r="BO215">
+        <v>4.33</v>
+      </c>
+      <c r="BP215">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7853058</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>71</v>
+      </c>
+      <c r="H216" t="s">
+        <v>79</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>199</v>
+      </c>
+      <c r="P216" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q216">
+        <v>3.2</v>
+      </c>
+      <c r="R216">
+        <v>1.78</v>
+      </c>
+      <c r="S216">
+        <v>4</v>
+      </c>
+      <c r="T216">
+        <v>1.57</v>
+      </c>
+      <c r="U216">
+        <v>2.2</v>
+      </c>
+      <c r="V216">
+        <v>3.9</v>
+      </c>
+      <c r="W216">
+        <v>1.25</v>
+      </c>
+      <c r="X216">
+        <v>7.5</v>
+      </c>
+      <c r="Y216">
+        <v>1.04</v>
+      </c>
+      <c r="Z216">
+        <v>2.5</v>
+      </c>
+      <c r="AA216">
+        <v>2.86</v>
+      </c>
+      <c r="AB216">
+        <v>3</v>
+      </c>
+      <c r="AC216">
+        <v>1.1</v>
+      </c>
+      <c r="AD216">
+        <v>5.7</v>
+      </c>
+      <c r="AE216">
+        <v>1.55</v>
+      </c>
+      <c r="AF216">
+        <v>2.25</v>
+      </c>
+      <c r="AG216">
+        <v>2.74</v>
+      </c>
+      <c r="AH216">
+        <v>1.4</v>
+      </c>
+      <c r="AI216">
+        <v>2.37</v>
+      </c>
+      <c r="AJ216">
+        <v>1.6</v>
+      </c>
+      <c r="AK216">
+        <v>1.35</v>
+      </c>
+      <c r="AL216">
+        <v>1.37</v>
+      </c>
+      <c r="AM216">
+        <v>1.49</v>
+      </c>
+      <c r="AN216">
+        <v>1.17</v>
+      </c>
+      <c r="AO216">
+        <v>0.91</v>
+      </c>
+      <c r="AP216">
+        <v>1.17</v>
+      </c>
+      <c r="AQ216">
+        <v>0.92</v>
+      </c>
+      <c r="AR216">
+        <v>1.26</v>
+      </c>
+      <c r="AS216">
+        <v>1.24</v>
+      </c>
+      <c r="AT216">
+        <v>2.5</v>
+      </c>
+      <c r="AU216">
+        <v>6</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>4</v>
+      </c>
+      <c r="AX216">
+        <v>6</v>
+      </c>
+      <c r="AY216">
+        <v>10</v>
+      </c>
+      <c r="AZ216">
+        <v>10</v>
+      </c>
+      <c r="BA216">
+        <v>3</v>
+      </c>
+      <c r="BB216">
+        <v>3</v>
+      </c>
+      <c r="BC216">
+        <v>6</v>
+      </c>
+      <c r="BD216">
+        <v>1.86</v>
+      </c>
+      <c r="BE216">
+        <v>7.1</v>
+      </c>
+      <c r="BF216">
+        <v>2.43</v>
+      </c>
+      <c r="BG216">
+        <v>1.5</v>
+      </c>
+      <c r="BH216">
+        <v>2.41</v>
+      </c>
+      <c r="BI216">
+        <v>1.85</v>
+      </c>
+      <c r="BJ216">
+        <v>1.85</v>
+      </c>
+      <c r="BK216">
+        <v>2.4</v>
+      </c>
+      <c r="BL216">
+        <v>1.5</v>
+      </c>
+      <c r="BM216">
+        <v>3.58</v>
+      </c>
+      <c r="BN216">
+        <v>1.21</v>
+      </c>
+      <c r="BO216">
+        <v>4.45</v>
+      </c>
+      <c r="BP216">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['14', '59']</t>
+  </si>
+  <si>
+    <t>['10', '33', '61', '66', '75', '90+3']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -905,6 +911,9 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['15', '24', '61', '83', '85']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1534,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1731,7 +1740,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2349,7 +2358,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2555,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2761,7 +2770,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2842,7 +2851,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3173,7 +3182,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3251,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3379,7 +3388,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3666,7 +3675,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3791,7 +3800,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3997,7 +4006,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4203,7 +4212,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4409,7 +4418,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4490,7 +4499,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ16">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4696,7 +4705,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4899,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1.23</v>
@@ -5105,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ19">
         <v>0.64</v>
@@ -5233,7 +5242,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5439,7 +5448,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5520,7 +5529,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR21">
         <v>1.79</v>
@@ -5723,7 +5732,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -6057,7 +6066,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6263,7 +6272,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7168,7 +7177,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR29">
         <v>0.83</v>
@@ -7293,7 +7302,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7371,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ30">
         <v>0.83</v>
@@ -8401,10 +8410,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR35">
         <v>1.03</v>
@@ -8529,7 +8538,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8610,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8735,7 +8744,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9353,7 +9362,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9765,7 +9774,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9846,7 +9855,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR42">
         <v>1.57</v>
@@ -9971,7 +9980,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10383,7 +10392,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10464,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR45">
         <v>1.27</v>
@@ -10795,7 +10804,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11207,7 +11216,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11288,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR49">
         <v>1.04</v>
@@ -11494,7 +11503,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR50">
         <v>1.6</v>
@@ -11619,7 +11628,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11825,7 +11834,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12031,7 +12040,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12109,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
         <v>2.27</v>
@@ -13061,7 +13070,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13142,7 +13151,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13267,7 +13276,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13679,7 +13688,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13757,7 +13766,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ61">
         <v>1.54</v>
@@ -14172,7 +14181,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.51</v>
@@ -14375,7 +14384,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14709,7 +14718,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15121,7 +15130,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15817,7 +15826,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ71">
         <v>1.23</v>
@@ -15945,7 +15954,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16026,7 +16035,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR72">
         <v>1.61</v>
@@ -16229,10 +16238,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR73">
         <v>1.04</v>
@@ -16357,7 +16366,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16438,7 +16447,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16563,7 +16572,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16644,7 +16653,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16769,7 +16778,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17181,7 +17190,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17465,7 +17474,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17593,7 +17602,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17674,7 +17683,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ80">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18498,7 +18507,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR84">
         <v>1.22</v>
@@ -18623,7 +18632,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18829,7 +18838,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18907,10 +18916,10 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ86">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR86">
         <v>1.96</v>
@@ -19035,7 +19044,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19447,7 +19456,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19525,7 +19534,7 @@
         <v>0.6</v>
       </c>
       <c r="AP89">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ89">
         <v>0.92</v>
@@ -19653,7 +19662,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19859,7 +19868,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -20065,7 +20074,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20271,7 +20280,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20352,7 +20361,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -20764,7 +20773,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR95">
         <v>0.8</v>
@@ -21301,7 +21310,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21507,7 +21516,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21585,7 +21594,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -21713,7 +21722,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21919,7 +21928,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22125,7 +22134,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22203,10 +22212,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR102">
         <v>1.53</v>
@@ -22409,7 +22418,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ103">
         <v>1.18</v>
@@ -22537,7 +22546,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -22618,7 +22627,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ104">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR104">
         <v>1.55</v>
@@ -23361,7 +23370,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23773,7 +23782,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23979,7 +23988,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24263,7 +24272,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ112">
         <v>0.75</v>
@@ -24881,10 +24890,10 @@
         <v>2</v>
       </c>
       <c r="AP115">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -25090,7 +25099,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.73</v>
@@ -25421,7 +25430,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25833,7 +25842,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -25914,7 +25923,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ120">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26120,7 +26129,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR121">
         <v>0.9399999999999999</v>
@@ -26245,7 +26254,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26451,7 +26460,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26529,7 +26538,7 @@
         <v>0.43</v>
       </c>
       <c r="AP123">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ123">
         <v>0.92</v>
@@ -26944,7 +26953,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR125">
         <v>1.13</v>
@@ -27893,7 +27902,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -27974,7 +27983,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -28099,7 +28108,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28383,7 +28392,7 @@
         <v>0.14</v>
       </c>
       <c r="AP132">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ132">
         <v>0.64</v>
@@ -28717,7 +28726,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -28795,7 +28804,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ134">
         <v>1.77</v>
@@ -29335,7 +29344,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29541,7 +29550,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29747,7 +29756,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29828,7 +29837,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR139">
         <v>0.97</v>
@@ -29953,7 +29962,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30159,7 +30168,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30240,7 +30249,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ141">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR141">
         <v>1.43</v>
@@ -30365,7 +30374,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30777,7 +30786,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30858,7 +30867,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ144">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR144">
         <v>1.03</v>
@@ -30983,7 +30992,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31061,7 +31070,7 @@
         <v>1.29</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ145">
         <v>1.18</v>
@@ -31270,7 +31279,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ146">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31601,7 +31610,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31679,7 +31688,7 @@
         <v>0.43</v>
       </c>
       <c r="AP148">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148">
         <v>0.83</v>
@@ -31807,7 +31816,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -32013,7 +32022,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32425,7 +32434,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -32709,7 +32718,7 @@
         <v>1.86</v>
       </c>
       <c r="AP153">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ153">
         <v>1.64</v>
@@ -33043,7 +33052,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33121,7 +33130,7 @@
         <v>1.29</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ155">
         <v>1.08</v>
@@ -33661,7 +33670,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33739,10 +33748,10 @@
         <v>1.71</v>
       </c>
       <c r="AP158">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -33945,10 +33954,10 @@
         <v>1.76</v>
       </c>
       <c r="AP159">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AQ159">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AR159">
         <v>1.58</v>
@@ -34073,7 +34082,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34279,7 +34288,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34897,7 +34906,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35309,7 +35318,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35387,10 +35396,10 @@
         <v>1.41</v>
       </c>
       <c r="AP166">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR166">
         <v>1.19</v>
@@ -35593,10 +35602,10 @@
         <v>2.29</v>
       </c>
       <c r="AP167">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AQ167">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AR167">
         <v>1.57</v>
@@ -35799,7 +35808,7 @@
         <v>1.39</v>
       </c>
       <c r="AP168">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AQ168">
         <v>1.08</v>
@@ -35927,7 +35936,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36005,7 +36014,7 @@
         <v>1.88</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ169">
         <v>1.78</v>
@@ -36339,7 +36348,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36545,7 +36554,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36957,7 +36966,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37035,10 +37044,10 @@
         <v>2.32</v>
       </c>
       <c r="AP174">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ174">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AR174">
         <v>1.05</v>
@@ -37163,7 +37172,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37244,7 +37253,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ175">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AR175">
         <v>1.49</v>
@@ -37369,7 +37378,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37447,10 +37456,10 @@
         <v>1.61</v>
       </c>
       <c r="AP176">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ176">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AR176">
         <v>1.57</v>
@@ -37653,7 +37662,7 @@
         <v>1.94</v>
       </c>
       <c r="AP177">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AQ177">
         <v>1.78</v>
@@ -37781,7 +37790,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38193,7 +38202,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38605,7 +38614,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38683,10 +38692,10 @@
         <v>2.35</v>
       </c>
       <c r="AP182">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AQ182">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AR182">
         <v>1.2</v>
@@ -38889,10 +38898,10 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR183">
         <v>1.76</v>
@@ -39017,7 +39026,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39098,7 +39107,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ184">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39223,7 +39232,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39301,7 +39310,7 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AQ185">
         <v>1.78</v>
@@ -39841,7 +39850,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -40047,7 +40056,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40253,7 +40262,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40331,10 +40340,10 @@
         <v>1.75</v>
       </c>
       <c r="AP190">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ190">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AR190">
         <v>1.78</v>
@@ -40459,7 +40468,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40537,7 +40546,7 @@
         <v>1.85</v>
       </c>
       <c r="AP191">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ191">
         <v>1.78</v>
@@ -40665,7 +40674,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40743,7 +40752,7 @@
         <v>1.19</v>
       </c>
       <c r="AP192">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AQ192">
         <v>1.08</v>
@@ -40871,7 +40880,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -40949,10 +40958,10 @@
         <v>2.24</v>
       </c>
       <c r="AP193">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AQ193">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41283,7 +41292,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41695,7 +41704,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41979,10 +41988,10 @@
         <v>1.67</v>
       </c>
       <c r="AP198">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AQ198">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AR198">
         <v>1.21</v>
@@ -42185,10 +42194,10 @@
         <v>2.33</v>
       </c>
       <c r="AP199">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ199">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AR199">
         <v>1.55</v>
@@ -42313,7 +42322,7 @@
         <v>192</v>
       </c>
       <c r="P200" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q200">
         <v>5.95</v>
@@ -42391,10 +42400,10 @@
         <v>1.71</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ200">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AR200">
         <v>1.01</v>
@@ -42519,7 +42528,7 @@
         <v>89</v>
       </c>
       <c r="P201" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42600,7 +42609,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ201">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AR201">
         <v>1.46</v>
@@ -42725,7 +42734,7 @@
         <v>140</v>
       </c>
       <c r="P202" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q202">
         <v>3.91</v>
@@ -42931,7 +42940,7 @@
         <v>193</v>
       </c>
       <c r="P203" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43137,7 +43146,7 @@
         <v>89</v>
       </c>
       <c r="P204" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q204">
         <v>2.81</v>
@@ -43549,7 +43558,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q206">
         <v>2.9</v>
@@ -43627,10 +43636,10 @@
         <v>1.41</v>
       </c>
       <c r="AP206">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AQ206">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR206">
         <v>1.29</v>
@@ -43833,10 +43842,10 @@
         <v>1.68</v>
       </c>
       <c r="AP207">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AQ207">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AR207">
         <v>1.77</v>
@@ -43961,7 +43970,7 @@
         <v>89</v>
       </c>
       <c r="P208" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44042,7 +44051,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ208">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44245,10 +44254,10 @@
         <v>1.05</v>
       </c>
       <c r="AP209">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR209">
         <v>1.22</v>
@@ -44373,7 +44382,7 @@
         <v>195</v>
       </c>
       <c r="P210" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q210">
         <v>5.99</v>
@@ -44657,10 +44666,10 @@
         <v>1.04</v>
       </c>
       <c r="AP211">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR211">
         <v>1.54</v>
@@ -44785,7 +44794,7 @@
         <v>89</v>
       </c>
       <c r="P212" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -44863,10 +44872,10 @@
         <v>1.57</v>
       </c>
       <c r="AP212">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AQ212">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45197,7 +45206,7 @@
         <v>128</v>
       </c>
       <c r="P214" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q214">
         <v>3.3</v>
@@ -45609,7 +45618,7 @@
         <v>199</v>
       </c>
       <c r="P216" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q216">
         <v>3.2</v>
@@ -45766,6 +45775,830 @@
       </c>
       <c r="BP216">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7853041</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45805.58333333334</v>
+      </c>
+      <c r="F217">
+        <v>9</v>
+      </c>
+      <c r="G217" t="s">
+        <v>86</v>
+      </c>
+      <c r="H217" t="s">
+        <v>70</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>200</v>
+      </c>
+      <c r="P217" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q217">
+        <v>2</v>
+      </c>
+      <c r="R217">
+        <v>2.25</v>
+      </c>
+      <c r="S217">
+        <v>5.25</v>
+      </c>
+      <c r="T217">
+        <v>1.38</v>
+      </c>
+      <c r="U217">
+        <v>2.8</v>
+      </c>
+      <c r="V217">
+        <v>2.65</v>
+      </c>
+      <c r="W217">
+        <v>1.43</v>
+      </c>
+      <c r="X217">
+        <v>8.75</v>
+      </c>
+      <c r="Y217">
+        <v>1.06</v>
+      </c>
+      <c r="Z217">
+        <v>1.76</v>
+      </c>
+      <c r="AA217">
+        <v>3.35</v>
+      </c>
+      <c r="AB217">
+        <v>5.25</v>
+      </c>
+      <c r="AC217">
+        <v>1</v>
+      </c>
+      <c r="AD217">
+        <v>10</v>
+      </c>
+      <c r="AE217">
+        <v>1.27</v>
+      </c>
+      <c r="AF217">
+        <v>3.3</v>
+      </c>
+      <c r="AG217">
+        <v>1.85</v>
+      </c>
+      <c r="AH217">
+        <v>2</v>
+      </c>
+      <c r="AI217">
+        <v>1.88</v>
+      </c>
+      <c r="AJ217">
+        <v>1.76</v>
+      </c>
+      <c r="AK217">
+        <v>1.23</v>
+      </c>
+      <c r="AL217">
+        <v>1.25</v>
+      </c>
+      <c r="AM217">
+        <v>2.43</v>
+      </c>
+      <c r="AN217">
+        <v>1.63</v>
+      </c>
+      <c r="AO217">
+        <v>1</v>
+      </c>
+      <c r="AP217">
+        <v>1.68</v>
+      </c>
+      <c r="AQ217">
+        <v>0.96</v>
+      </c>
+      <c r="AR217">
+        <v>1.29</v>
+      </c>
+      <c r="AS217">
+        <v>0.98</v>
+      </c>
+      <c r="AT217">
+        <v>2.27</v>
+      </c>
+      <c r="AU217">
+        <v>7</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>8</v>
+      </c>
+      <c r="AX217">
+        <v>5</v>
+      </c>
+      <c r="AY217">
+        <v>15</v>
+      </c>
+      <c r="AZ217">
+        <v>8</v>
+      </c>
+      <c r="BA217">
+        <v>6</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>8</v>
+      </c>
+      <c r="BD217">
+        <v>1.44</v>
+      </c>
+      <c r="BE217">
+        <v>7</v>
+      </c>
+      <c r="BF217">
+        <v>3.8</v>
+      </c>
+      <c r="BG217">
+        <v>1.5</v>
+      </c>
+      <c r="BH217">
+        <v>2.4</v>
+      </c>
+      <c r="BI217">
+        <v>1.84</v>
+      </c>
+      <c r="BJ217">
+        <v>1.88</v>
+      </c>
+      <c r="BK217">
+        <v>2.3</v>
+      </c>
+      <c r="BL217">
+        <v>1.55</v>
+      </c>
+      <c r="BM217">
+        <v>3</v>
+      </c>
+      <c r="BN217">
+        <v>1.33</v>
+      </c>
+      <c r="BO217">
+        <v>4</v>
+      </c>
+      <c r="BP217">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7853040</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45805.58333333334</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>82</v>
+      </c>
+      <c r="H218" t="s">
+        <v>85</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>89</v>
+      </c>
+      <c r="P218" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q218">
+        <v>3.4</v>
+      </c>
+      <c r="R218">
+        <v>2.28</v>
+      </c>
+      <c r="S218">
+        <v>2.57</v>
+      </c>
+      <c r="T218">
+        <v>1.29</v>
+      </c>
+      <c r="U218">
+        <v>3.15</v>
+      </c>
+      <c r="V218">
+        <v>2.38</v>
+      </c>
+      <c r="W218">
+        <v>1.5</v>
+      </c>
+      <c r="X218">
+        <v>5.3</v>
+      </c>
+      <c r="Y218">
+        <v>1.11</v>
+      </c>
+      <c r="Z218">
+        <v>2.9</v>
+      </c>
+      <c r="AA218">
+        <v>3.25</v>
+      </c>
+      <c r="AB218">
+        <v>2.2</v>
+      </c>
+      <c r="AC218">
+        <v>1.04</v>
+      </c>
+      <c r="AD218">
+        <v>12.8</v>
+      </c>
+      <c r="AE218">
+        <v>1.14</v>
+      </c>
+      <c r="AF218">
+        <v>4.1</v>
+      </c>
+      <c r="AG218">
+        <v>1.59</v>
+      </c>
+      <c r="AH218">
+        <v>2.1</v>
+      </c>
+      <c r="AI218">
+        <v>1.5</v>
+      </c>
+      <c r="AJ218">
+        <v>2.33</v>
+      </c>
+      <c r="AK218">
+        <v>1.3</v>
+      </c>
+      <c r="AL218">
+        <v>1.35</v>
+      </c>
+      <c r="AM218">
+        <v>1.35</v>
+      </c>
+      <c r="AN218">
+        <v>1.08</v>
+      </c>
+      <c r="AO218">
+        <v>1.54</v>
+      </c>
+      <c r="AP218">
+        <v>1.08</v>
+      </c>
+      <c r="AQ218">
+        <v>1.52</v>
+      </c>
+      <c r="AR218">
+        <v>1.47</v>
+      </c>
+      <c r="AS218">
+        <v>1.25</v>
+      </c>
+      <c r="AT218">
+        <v>2.72</v>
+      </c>
+      <c r="AU218">
+        <v>2</v>
+      </c>
+      <c r="AV218">
+        <v>2</v>
+      </c>
+      <c r="AW218">
+        <v>8</v>
+      </c>
+      <c r="AX218">
+        <v>11</v>
+      </c>
+      <c r="AY218">
+        <v>10</v>
+      </c>
+      <c r="AZ218">
+        <v>13</v>
+      </c>
+      <c r="BA218">
+        <v>4</v>
+      </c>
+      <c r="BB218">
+        <v>3</v>
+      </c>
+      <c r="BC218">
+        <v>7</v>
+      </c>
+      <c r="BD218">
+        <v>2.25</v>
+      </c>
+      <c r="BE218">
+        <v>7</v>
+      </c>
+      <c r="BF218">
+        <v>1.95</v>
+      </c>
+      <c r="BG218">
+        <v>1.27</v>
+      </c>
+      <c r="BH218">
+        <v>3.27</v>
+      </c>
+      <c r="BI218">
+        <v>1.5</v>
+      </c>
+      <c r="BJ218">
+        <v>2.4</v>
+      </c>
+      <c r="BK218">
+        <v>1.73</v>
+      </c>
+      <c r="BL218">
+        <v>2</v>
+      </c>
+      <c r="BM218">
+        <v>2.32</v>
+      </c>
+      <c r="BN218">
+        <v>1.57</v>
+      </c>
+      <c r="BO218">
+        <v>3</v>
+      </c>
+      <c r="BP218">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7853039</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45805.58333333334</v>
+      </c>
+      <c r="F219">
+        <v>9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>87</v>
+      </c>
+      <c r="H219" t="s">
+        <v>75</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>3</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>5</v>
+      </c>
+      <c r="N219">
+        <v>6</v>
+      </c>
+      <c r="O219" t="s">
+        <v>127</v>
+      </c>
+      <c r="P219" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q219">
+        <v>3.9</v>
+      </c>
+      <c r="R219">
+        <v>2.1</v>
+      </c>
+      <c r="S219">
+        <v>2.58</v>
+      </c>
+      <c r="T219">
+        <v>1.41</v>
+      </c>
+      <c r="U219">
+        <v>2.65</v>
+      </c>
+      <c r="V219">
+        <v>2.8</v>
+      </c>
+      <c r="W219">
+        <v>1.34</v>
+      </c>
+      <c r="X219">
+        <v>6.5</v>
+      </c>
+      <c r="Y219">
+        <v>1.06</v>
+      </c>
+      <c r="Z219">
+        <v>3.5</v>
+      </c>
+      <c r="AA219">
+        <v>3.2</v>
+      </c>
+      <c r="AB219">
+        <v>1.95</v>
+      </c>
+      <c r="AC219">
+        <v>1.05</v>
+      </c>
+      <c r="AD219">
+        <v>8.4</v>
+      </c>
+      <c r="AE219">
+        <v>1.25</v>
+      </c>
+      <c r="AF219">
+        <v>3.5</v>
+      </c>
+      <c r="AG219">
+        <v>1.95</v>
+      </c>
+      <c r="AH219">
+        <v>1.83</v>
+      </c>
+      <c r="AI219">
+        <v>1.72</v>
+      </c>
+      <c r="AJ219">
+        <v>2.07</v>
+      </c>
+      <c r="AK219">
+        <v>1.2</v>
+      </c>
+      <c r="AL219">
+        <v>1.26</v>
+      </c>
+      <c r="AM219">
+        <v>1.17</v>
+      </c>
+      <c r="AN219">
+        <v>1.54</v>
+      </c>
+      <c r="AO219">
+        <v>2.21</v>
+      </c>
+      <c r="AP219">
+        <v>1.48</v>
+      </c>
+      <c r="AQ219">
+        <v>2.24</v>
+      </c>
+      <c r="AR219">
+        <v>1.52</v>
+      </c>
+      <c r="AS219">
+        <v>1.56</v>
+      </c>
+      <c r="AT219">
+        <v>3.08</v>
+      </c>
+      <c r="AU219">
+        <v>6</v>
+      </c>
+      <c r="AV219">
+        <v>8</v>
+      </c>
+      <c r="AW219">
+        <v>7</v>
+      </c>
+      <c r="AX219">
+        <v>2</v>
+      </c>
+      <c r="AY219">
+        <v>13</v>
+      </c>
+      <c r="AZ219">
+        <v>10</v>
+      </c>
+      <c r="BA219">
+        <v>3</v>
+      </c>
+      <c r="BB219">
+        <v>2</v>
+      </c>
+      <c r="BC219">
+        <v>5</v>
+      </c>
+      <c r="BD219">
+        <v>2.9</v>
+      </c>
+      <c r="BE219">
+        <v>7.5</v>
+      </c>
+      <c r="BF219">
+        <v>1.62</v>
+      </c>
+      <c r="BG219">
+        <v>1.36</v>
+      </c>
+      <c r="BH219">
+        <v>2.88</v>
+      </c>
+      <c r="BI219">
+        <v>1.64</v>
+      </c>
+      <c r="BJ219">
+        <v>2.17</v>
+      </c>
+      <c r="BK219">
+        <v>2.37</v>
+      </c>
+      <c r="BL219">
+        <v>1.73</v>
+      </c>
+      <c r="BM219">
+        <v>2.6</v>
+      </c>
+      <c r="BN219">
+        <v>1.44</v>
+      </c>
+      <c r="BO219">
+        <v>3.42</v>
+      </c>
+      <c r="BP219">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7853038</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45805.58333333334</v>
+      </c>
+      <c r="F220">
+        <v>8</v>
+      </c>
+      <c r="G220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s">
+        <v>74</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>6</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>6</v>
+      </c>
+      <c r="O220" t="s">
+        <v>201</v>
+      </c>
+      <c r="P220" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q220">
+        <v>1.43</v>
+      </c>
+      <c r="R220">
+        <v>3.25</v>
+      </c>
+      <c r="S220">
+        <v>9.1</v>
+      </c>
+      <c r="T220">
+        <v>1.22</v>
+      </c>
+      <c r="U220">
+        <v>4</v>
+      </c>
+      <c r="V220">
+        <v>2.05</v>
+      </c>
+      <c r="W220">
+        <v>1.73</v>
+      </c>
+      <c r="X220">
+        <v>4.35</v>
+      </c>
+      <c r="Y220">
+        <v>1.2</v>
+      </c>
+      <c r="Z220">
+        <v>1.1</v>
+      </c>
+      <c r="AA220">
+        <v>8</v>
+      </c>
+      <c r="AB220">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC220">
+        <v>1.03</v>
+      </c>
+      <c r="AD220">
+        <v>10</v>
+      </c>
+      <c r="AE220">
+        <v>1.23</v>
+      </c>
+      <c r="AF220">
+        <v>5.25</v>
+      </c>
+      <c r="AG220">
+        <v>1.42</v>
+      </c>
+      <c r="AH220">
+        <v>2.49</v>
+      </c>
+      <c r="AI220">
+        <v>2.6</v>
+      </c>
+      <c r="AJ220">
+        <v>1.44</v>
+      </c>
+      <c r="AK220">
+        <v>1.06</v>
+      </c>
+      <c r="AL220">
+        <v>1.09</v>
+      </c>
+      <c r="AM220">
+        <v>4.33</v>
+      </c>
+      <c r="AN220">
+        <v>2.39</v>
+      </c>
+      <c r="AO220">
+        <v>1.39</v>
+      </c>
+      <c r="AP220">
+        <v>2.42</v>
+      </c>
+      <c r="AQ220">
+        <v>1.33</v>
+      </c>
+      <c r="AR220">
+        <v>1.76</v>
+      </c>
+      <c r="AS220">
+        <v>1.25</v>
+      </c>
+      <c r="AT220">
+        <v>3.01</v>
+      </c>
+      <c r="AU220">
+        <v>11</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>10</v>
+      </c>
+      <c r="AX220">
+        <v>7</v>
+      </c>
+      <c r="AY220">
+        <v>21</v>
+      </c>
+      <c r="AZ220">
+        <v>11</v>
+      </c>
+      <c r="BA220">
+        <v>9</v>
+      </c>
+      <c r="BB220">
+        <v>6</v>
+      </c>
+      <c r="BC220">
+        <v>15</v>
+      </c>
+      <c r="BD220">
+        <v>1.18</v>
+      </c>
+      <c r="BE220">
+        <v>10</v>
+      </c>
+      <c r="BF220">
+        <v>6.5</v>
+      </c>
+      <c r="BG220">
+        <v>1.33</v>
+      </c>
+      <c r="BH220">
+        <v>3</v>
+      </c>
+      <c r="BI220">
+        <v>1.57</v>
+      </c>
+      <c r="BJ220">
+        <v>2.25</v>
+      </c>
+      <c r="BK220">
+        <v>1.91</v>
+      </c>
+      <c r="BL220">
+        <v>1.8</v>
+      </c>
+      <c r="BM220">
+        <v>2.4</v>
+      </c>
+      <c r="BN220">
+        <v>1.5</v>
+      </c>
+      <c r="BO220">
+        <v>3.2</v>
+      </c>
+      <c r="BP220">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,12 @@
     <t>['10', '33', '61', '66', '75', '90+3']</t>
   </si>
   <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['34', '45+4', '46']</t>
   </si>
   <si>
@@ -707,9 +713,6 @@
   </si>
   <si>
     <t>['81']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['25', '86']</t>
@@ -1275,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1537,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1615,7 +1618,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1740,7 +1743,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1818,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ3">
         <v>1.54</v>
@@ -2358,7 +2361,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2564,7 +2567,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2770,7 +2773,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -3182,7 +3185,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3388,7 +3391,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3672,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ12">
         <v>0.6899999999999999</v>
@@ -3800,7 +3803,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3878,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ13">
         <v>2.27</v>
@@ -4006,7 +4009,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4087,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4212,7 +4215,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4418,7 +4421,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -5117,7 +5120,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ19">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5242,7 +5245,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5448,7 +5451,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -5938,10 +5941,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ23">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6066,7 +6069,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6272,7 +6275,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -7174,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ29">
         <v>0.6899999999999999</v>
@@ -7302,7 +7305,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7383,7 +7386,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ30">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7586,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ31">
         <v>1.64</v>
@@ -8207,7 +8210,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>0.6899999999999999</v>
@@ -8538,7 +8541,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8744,7 +8747,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9028,7 +9031,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ38">
         <v>1.18</v>
@@ -9362,7 +9365,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9774,7 +9777,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9980,7 +9983,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10392,7 +10395,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10676,7 +10679,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ46">
         <v>0.92</v>
@@ -10804,7 +10807,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -10882,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ47">
         <v>1.77</v>
@@ -11088,10 +11091,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR48">
         <v>0.85</v>
@@ -11216,7 +11219,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11628,7 +11631,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11834,7 +11837,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12040,7 +12043,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -13070,7 +13073,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13276,7 +13279,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13357,7 +13360,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR59">
         <v>1.58</v>
@@ -13560,7 +13563,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ60">
         <v>1.18</v>
@@ -13688,7 +13691,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -13975,7 +13978,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.35</v>
@@ -14387,7 +14390,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR64">
         <v>2.21</v>
@@ -14718,7 +14721,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14796,7 +14799,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ66">
         <v>1.75</v>
@@ -15005,7 +15008,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ67">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15130,7 +15133,7 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15208,7 +15211,7 @@
         <v>1.67</v>
       </c>
       <c r="AP68">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ68">
         <v>1.55</v>
@@ -15417,7 +15420,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR69">
         <v>1.78</v>
@@ -15954,7 +15957,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16366,7 +16369,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16572,7 +16575,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16778,7 +16781,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17065,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR77">
         <v>1.1</v>
@@ -17190,7 +17193,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17602,7 +17605,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17680,7 +17683,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ80">
         <v>2.13</v>
@@ -18298,10 +18301,10 @@
         <v>0.25</v>
       </c>
       <c r="AP83">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ83">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>0.83</v>
@@ -18504,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ84">
         <v>1.22</v>
@@ -18632,7 +18635,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18838,7 +18841,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -19044,7 +19047,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19331,7 +19334,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR88">
         <v>0.89</v>
@@ -19456,7 +19459,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19662,7 +19665,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19868,7 +19871,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -20074,7 +20077,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20280,7 +20283,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -20976,7 +20979,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ96">
         <v>1.54</v>
@@ -21310,7 +21313,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21516,7 +21519,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21597,7 +21600,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ99">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR99">
         <v>1.55</v>
@@ -21722,7 +21725,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21928,7 +21931,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22009,7 +22012,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ101">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR101">
         <v>1.45</v>
@@ -22134,7 +22137,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22546,7 +22549,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23036,7 +23039,7 @@
         <v>0.4</v>
       </c>
       <c r="AP106">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ106">
         <v>1.23</v>
@@ -23245,7 +23248,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ107">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23370,7 +23373,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23448,7 +23451,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ108">
         <v>1.54</v>
@@ -23782,7 +23785,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23863,7 +23866,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -23988,7 +23991,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -24481,7 +24484,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ113">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.29</v>
@@ -24684,7 +24687,7 @@
         <v>1.83</v>
       </c>
       <c r="AP114">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ114">
         <v>1.75</v>
@@ -25430,7 +25433,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25842,7 +25845,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26254,7 +26257,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26460,7 +26463,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -26744,7 +26747,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ124">
         <v>1.23</v>
@@ -27156,7 +27159,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ126">
         <v>1.55</v>
@@ -27571,7 +27574,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR128">
         <v>0.96</v>
@@ -27777,7 +27780,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR129">
         <v>1.36</v>
@@ -27902,7 +27905,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28108,7 +28111,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28395,7 +28398,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ132">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR132">
         <v>1.09</v>
@@ -28726,7 +28729,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29010,7 +29013,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ135">
         <v>0.75</v>
@@ -29344,7 +29347,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29550,7 +29553,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29756,7 +29759,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29962,7 +29965,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30168,7 +30171,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30246,7 +30249,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AQ141">
         <v>1.57</v>
@@ -30374,7 +30377,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30786,7 +30789,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30864,7 +30867,7 @@
         <v>2.13</v>
       </c>
       <c r="AP144">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ144">
         <v>2.13</v>
@@ -30992,7 +30995,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31610,7 +31613,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31691,7 +31694,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ148">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AR148">
         <v>1.06</v>
@@ -31816,7 +31819,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -32022,7 +32025,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32100,10 +32103,10 @@
         <v>0.25</v>
       </c>
       <c r="AP150">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ150">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR150">
         <v>1.16</v>
@@ -32306,10 +32309,10 @@
         <v>1.25</v>
       </c>
       <c r="AP151">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR151">
         <v>1.09</v>
@@ -32434,7 +32437,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -33052,7 +33055,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33670,7 +33673,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -34082,7 +34085,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34163,7 +34166,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ160">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR160">
         <v>1.21</v>
@@ -34288,7 +34291,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34366,10 +34369,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ161">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR161">
         <v>1.28</v>
@@ -34778,7 +34781,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ163">
         <v>1.04</v>
@@ -34906,7 +34909,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -34984,7 +34987,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ164">
         <v>1.2</v>
@@ -35318,7 +35321,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35936,7 +35939,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36348,7 +36351,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36426,7 +36429,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ171">
         <v>1.04</v>
@@ -36554,7 +36557,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36632,10 +36635,10 @@
         <v>1.26</v>
       </c>
       <c r="AP172">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ172">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR172">
         <v>0.99</v>
@@ -36966,7 +36969,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37172,7 +37175,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37378,7 +37381,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37790,7 +37793,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -37871,7 +37874,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR178">
         <v>1.33</v>
@@ -38074,10 +38077,10 @@
         <v>1.11</v>
       </c>
       <c r="AP179">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ179">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR179">
         <v>1.3</v>
@@ -38202,7 +38205,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38614,7 +38617,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -39026,7 +39029,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39232,7 +39235,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39519,7 +39522,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR186">
         <v>1.35</v>
@@ -39722,7 +39725,7 @@
         <v>1.1</v>
       </c>
       <c r="AP187">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ187">
         <v>1.04</v>
@@ -39850,7 +39853,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -40056,7 +40059,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40134,7 +40137,7 @@
         <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ189">
         <v>1.08</v>
@@ -40262,7 +40265,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40468,7 +40471,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40674,7 +40677,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40880,7 +40883,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -41292,7 +41295,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41579,7 +41582,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ196">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR196">
         <v>1.14</v>
@@ -41704,7 +41707,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41782,7 +41785,7 @@
         <v>0.9</v>
       </c>
       <c r="AP197">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ197">
         <v>1.08</v>
@@ -42322,7 +42325,7 @@
         <v>192</v>
       </c>
       <c r="P200" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q200">
         <v>5.95</v>
@@ -42528,7 +42531,7 @@
         <v>89</v>
       </c>
       <c r="P201" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42734,7 +42737,7 @@
         <v>140</v>
       </c>
       <c r="P202" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q202">
         <v>3.91</v>
@@ -42812,7 +42815,7 @@
         <v>0.91</v>
       </c>
       <c r="AP202">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ202">
         <v>1.08</v>
@@ -42940,7 +42943,7 @@
         <v>193</v>
       </c>
       <c r="P203" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43018,7 +43021,7 @@
         <v>1.09</v>
       </c>
       <c r="AP203">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ203">
         <v>1.08</v>
@@ -43146,7 +43149,7 @@
         <v>89</v>
       </c>
       <c r="P204" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q204">
         <v>2.81</v>
@@ -43558,7 +43561,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q206">
         <v>2.9</v>
@@ -43970,7 +43973,7 @@
         <v>89</v>
       </c>
       <c r="P208" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44382,7 +44385,7 @@
         <v>195</v>
       </c>
       <c r="P210" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q210">
         <v>5.99</v>
@@ -44794,7 +44797,7 @@
         <v>89</v>
       </c>
       <c r="P212" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45206,7 +45209,7 @@
         <v>128</v>
       </c>
       <c r="P214" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q214">
         <v>3.3</v>
@@ -45287,7 +45290,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ214">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR214">
         <v>0.99</v>
@@ -45490,7 +45493,7 @@
         <v>1.25</v>
       </c>
       <c r="AP215">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ215">
         <v>1.2</v>
@@ -45618,7 +45621,7 @@
         <v>199</v>
       </c>
       <c r="P216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q216">
         <v>3.2</v>
@@ -45696,7 +45699,7 @@
         <v>0.91</v>
       </c>
       <c r="AP216">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ216">
         <v>0.92</v>
@@ -46236,7 +46239,7 @@
         <v>127</v>
       </c>
       <c r="P219" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q219">
         <v>3.9</v>
@@ -46599,6 +46602,830 @@
       </c>
       <c r="BP220">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7853060</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45806.58333333334</v>
+      </c>
+      <c r="F221">
+        <v>9</v>
+      </c>
+      <c r="G221" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" t="s">
+        <v>84</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>202</v>
+      </c>
+      <c r="P221" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q221">
+        <v>3.21</v>
+      </c>
+      <c r="R221">
+        <v>1.57</v>
+      </c>
+      <c r="S221">
+        <v>5.6</v>
+      </c>
+      <c r="T221">
+        <v>1.62</v>
+      </c>
+      <c r="U221">
+        <v>2.1</v>
+      </c>
+      <c r="V221">
+        <v>4.35</v>
+      </c>
+      <c r="W221">
+        <v>1.18</v>
+      </c>
+      <c r="X221">
+        <v>15</v>
+      </c>
+      <c r="Y221">
+        <v>1.01</v>
+      </c>
+      <c r="Z221">
+        <v>2.15</v>
+      </c>
+      <c r="AA221">
+        <v>2.43</v>
+      </c>
+      <c r="AB221">
+        <v>3.9</v>
+      </c>
+      <c r="AC221">
+        <v>1.11</v>
+      </c>
+      <c r="AD221">
+        <v>5.3</v>
+      </c>
+      <c r="AE221">
+        <v>1.66</v>
+      </c>
+      <c r="AF221">
+        <v>2.23</v>
+      </c>
+      <c r="AG221">
+        <v>3.15</v>
+      </c>
+      <c r="AH221">
+        <v>1.34</v>
+      </c>
+      <c r="AI221">
+        <v>2.4</v>
+      </c>
+      <c r="AJ221">
+        <v>1.46</v>
+      </c>
+      <c r="AK221">
+        <v>1.33</v>
+      </c>
+      <c r="AL221">
+        <v>1.49</v>
+      </c>
+      <c r="AM221">
+        <v>1.57</v>
+      </c>
+      <c r="AN221">
+        <v>1.04</v>
+      </c>
+      <c r="AO221">
+        <v>1.08</v>
+      </c>
+      <c r="AP221">
+        <v>1.04</v>
+      </c>
+      <c r="AQ221">
+        <v>1.08</v>
+      </c>
+      <c r="AR221">
+        <v>1.04</v>
+      </c>
+      <c r="AS221">
+        <v>0.99</v>
+      </c>
+      <c r="AT221">
+        <v>2.03</v>
+      </c>
+      <c r="AU221">
+        <v>3</v>
+      </c>
+      <c r="AV221">
+        <v>5</v>
+      </c>
+      <c r="AW221">
+        <v>0</v>
+      </c>
+      <c r="AX221">
+        <v>4</v>
+      </c>
+      <c r="AY221">
+        <v>3</v>
+      </c>
+      <c r="AZ221">
+        <v>9</v>
+      </c>
+      <c r="BA221">
+        <v>1</v>
+      </c>
+      <c r="BB221">
+        <v>4</v>
+      </c>
+      <c r="BC221">
+        <v>5</v>
+      </c>
+      <c r="BD221">
+        <v>1.59</v>
+      </c>
+      <c r="BE221">
+        <v>6.5</v>
+      </c>
+      <c r="BF221">
+        <v>2.9</v>
+      </c>
+      <c r="BG221">
+        <v>1.56</v>
+      </c>
+      <c r="BH221">
+        <v>2.26</v>
+      </c>
+      <c r="BI221">
+        <v>1.97</v>
+      </c>
+      <c r="BJ221">
+        <v>1.78</v>
+      </c>
+      <c r="BK221">
+        <v>2.5</v>
+      </c>
+      <c r="BL221">
+        <v>1.47</v>
+      </c>
+      <c r="BM221">
+        <v>3.35</v>
+      </c>
+      <c r="BN221">
+        <v>1.26</v>
+      </c>
+      <c r="BO221">
+        <v>4.6</v>
+      </c>
+      <c r="BP221">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7853061</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45806.58333333334</v>
+      </c>
+      <c r="F222">
+        <v>9</v>
+      </c>
+      <c r="G222" t="s">
+        <v>71</v>
+      </c>
+      <c r="H222" t="s">
+        <v>73</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>203</v>
+      </c>
+      <c r="P222" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q222">
+        <v>4.2</v>
+      </c>
+      <c r="R222">
+        <v>1.68</v>
+      </c>
+      <c r="S222">
+        <v>3.65</v>
+      </c>
+      <c r="T222">
+        <v>1.73</v>
+      </c>
+      <c r="U222">
+        <v>1.89</v>
+      </c>
+      <c r="V222">
+        <v>4</v>
+      </c>
+      <c r="W222">
+        <v>1.18</v>
+      </c>
+      <c r="X222">
+        <v>14</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>3.42</v>
+      </c>
+      <c r="AA222">
+        <v>2.37</v>
+      </c>
+      <c r="AB222">
+        <v>2.7</v>
+      </c>
+      <c r="AC222">
+        <v>1.17</v>
+      </c>
+      <c r="AD222">
+        <v>4</v>
+      </c>
+      <c r="AE222">
+        <v>1.72</v>
+      </c>
+      <c r="AF222">
+        <v>1.98</v>
+      </c>
+      <c r="AG222">
+        <v>2.88</v>
+      </c>
+      <c r="AH222">
+        <v>1.26</v>
+      </c>
+      <c r="AI222">
+        <v>2.32</v>
+      </c>
+      <c r="AJ222">
+        <v>1.58</v>
+      </c>
+      <c r="AK222">
+        <v>1.51</v>
+      </c>
+      <c r="AL222">
+        <v>1.44</v>
+      </c>
+      <c r="AM222">
+        <v>1.32</v>
+      </c>
+      <c r="AN222">
+        <v>1.17</v>
+      </c>
+      <c r="AO222">
+        <v>1.08</v>
+      </c>
+      <c r="AP222">
+        <v>1.16</v>
+      </c>
+      <c r="AQ222">
+        <v>1.08</v>
+      </c>
+      <c r="AR222">
+        <v>1.27</v>
+      </c>
+      <c r="AS222">
+        <v>1.19</v>
+      </c>
+      <c r="AT222">
+        <v>2.46</v>
+      </c>
+      <c r="AU222">
+        <v>7</v>
+      </c>
+      <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>4</v>
+      </c>
+      <c r="AX222">
+        <v>14</v>
+      </c>
+      <c r="AY222">
+        <v>11</v>
+      </c>
+      <c r="AZ222">
+        <v>18</v>
+      </c>
+      <c r="BA222">
+        <v>0</v>
+      </c>
+      <c r="BB222">
+        <v>8</v>
+      </c>
+      <c r="BC222">
+        <v>8</v>
+      </c>
+      <c r="BD222">
+        <v>2.05</v>
+      </c>
+      <c r="BE222">
+        <v>7</v>
+      </c>
+      <c r="BF222">
+        <v>2.15</v>
+      </c>
+      <c r="BG222">
+        <v>1.43</v>
+      </c>
+      <c r="BH222">
+        <v>2.46</v>
+      </c>
+      <c r="BI222">
+        <v>1.85</v>
+      </c>
+      <c r="BJ222">
+        <v>1.85</v>
+      </c>
+      <c r="BK222">
+        <v>2.3</v>
+      </c>
+      <c r="BL222">
+        <v>1.49</v>
+      </c>
+      <c r="BM222">
+        <v>3.14</v>
+      </c>
+      <c r="BN222">
+        <v>1.27</v>
+      </c>
+      <c r="BO222">
+        <v>4.15</v>
+      </c>
+      <c r="BP222">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7853059</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45806.58333333334</v>
+      </c>
+      <c r="F223">
+        <v>9</v>
+      </c>
+      <c r="G223" t="s">
+        <v>81</v>
+      </c>
+      <c r="H223" t="s">
+        <v>83</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223" t="s">
+        <v>89</v>
+      </c>
+      <c r="P223" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q223">
+        <v>3.4</v>
+      </c>
+      <c r="R223">
+        <v>1.92</v>
+      </c>
+      <c r="S223">
+        <v>3.45</v>
+      </c>
+      <c r="T223">
+        <v>1.56</v>
+      </c>
+      <c r="U223">
+        <v>2.23</v>
+      </c>
+      <c r="V223">
+        <v>3.65</v>
+      </c>
+      <c r="W223">
+        <v>1.26</v>
+      </c>
+      <c r="X223">
+        <v>9.5</v>
+      </c>
+      <c r="Y223">
+        <v>1.03</v>
+      </c>
+      <c r="Z223">
+        <v>2.74</v>
+      </c>
+      <c r="AA223">
+        <v>2.89</v>
+      </c>
+      <c r="AB223">
+        <v>2.7</v>
+      </c>
+      <c r="AC223">
+        <v>1.1</v>
+      </c>
+      <c r="AD223">
+        <v>6.1</v>
+      </c>
+      <c r="AE223">
+        <v>1.5</v>
+      </c>
+      <c r="AF223">
+        <v>2.43</v>
+      </c>
+      <c r="AG223">
+        <v>2.5</v>
+      </c>
+      <c r="AH223">
+        <v>1.46</v>
+      </c>
+      <c r="AI223">
+        <v>2.05</v>
+      </c>
+      <c r="AJ223">
+        <v>1.72</v>
+      </c>
+      <c r="AK223">
+        <v>1.4</v>
+      </c>
+      <c r="AL223">
+        <v>1.38</v>
+      </c>
+      <c r="AM223">
+        <v>1.42</v>
+      </c>
+      <c r="AN223">
+        <v>1.29</v>
+      </c>
+      <c r="AO223">
+        <v>1</v>
+      </c>
+      <c r="AP223">
+        <v>1.28</v>
+      </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
+      <c r="AR223">
+        <v>1.29</v>
+      </c>
+      <c r="AS223">
+        <v>1.35</v>
+      </c>
+      <c r="AT223">
+        <v>2.64</v>
+      </c>
+      <c r="AU223">
+        <v>3</v>
+      </c>
+      <c r="AV223">
+        <v>0</v>
+      </c>
+      <c r="AW223">
+        <v>6</v>
+      </c>
+      <c r="AX223">
+        <v>6</v>
+      </c>
+      <c r="AY223">
+        <v>9</v>
+      </c>
+      <c r="AZ223">
+        <v>6</v>
+      </c>
+      <c r="BA223">
+        <v>1</v>
+      </c>
+      <c r="BB223">
+        <v>3</v>
+      </c>
+      <c r="BC223">
+        <v>4</v>
+      </c>
+      <c r="BD223">
+        <v>1.95</v>
+      </c>
+      <c r="BE223">
+        <v>6.5</v>
+      </c>
+      <c r="BF223">
+        <v>2.3</v>
+      </c>
+      <c r="BG223">
+        <v>1.64</v>
+      </c>
+      <c r="BH223">
+        <v>2.08</v>
+      </c>
+      <c r="BI223">
+        <v>2.09</v>
+      </c>
+      <c r="BJ223">
+        <v>1.63</v>
+      </c>
+      <c r="BK223">
+        <v>2.78</v>
+      </c>
+      <c r="BL223">
+        <v>1.34</v>
+      </c>
+      <c r="BM223">
+        <v>4</v>
+      </c>
+      <c r="BN223">
+        <v>1.17</v>
+      </c>
+      <c r="BO223">
+        <v>5.05</v>
+      </c>
+      <c r="BP223">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7853062</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45806.58333333334</v>
+      </c>
+      <c r="F224">
+        <v>9</v>
+      </c>
+      <c r="G224" t="s">
+        <v>79</v>
+      </c>
+      <c r="H224" t="s">
+        <v>77</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>179</v>
+      </c>
+      <c r="P224" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q224">
+        <v>2.61</v>
+      </c>
+      <c r="R224">
+        <v>1.84</v>
+      </c>
+      <c r="S224">
+        <v>5.2</v>
+      </c>
+      <c r="T224">
+        <v>1.65</v>
+      </c>
+      <c r="U224">
+        <v>2.1</v>
+      </c>
+      <c r="V224">
+        <v>3.7</v>
+      </c>
+      <c r="W224">
+        <v>1.19</v>
+      </c>
+      <c r="X224">
+        <v>10</v>
+      </c>
+      <c r="Y224">
+        <v>1.02</v>
+      </c>
+      <c r="Z224">
+        <v>1.91</v>
+      </c>
+      <c r="AA224">
+        <v>2.92</v>
+      </c>
+      <c r="AB224">
+        <v>4.68</v>
+      </c>
+      <c r="AC224">
+        <v>1.08</v>
+      </c>
+      <c r="AD224">
+        <v>5.75</v>
+      </c>
+      <c r="AE224">
+        <v>1.5</v>
+      </c>
+      <c r="AF224">
+        <v>2.33</v>
+      </c>
+      <c r="AG224">
+        <v>2.66</v>
+      </c>
+      <c r="AH224">
+        <v>1.39</v>
+      </c>
+      <c r="AI224">
+        <v>2.32</v>
+      </c>
+      <c r="AJ224">
+        <v>1.59</v>
+      </c>
+      <c r="AK224">
+        <v>1.4</v>
+      </c>
+      <c r="AL224">
+        <v>1.42</v>
+      </c>
+      <c r="AM224">
+        <v>1.86</v>
+      </c>
+      <c r="AN224">
+        <v>0.92</v>
+      </c>
+      <c r="AO224">
+        <v>0.83</v>
+      </c>
+      <c r="AP224">
+        <v>0.92</v>
+      </c>
+      <c r="AQ224">
+        <v>0.84</v>
+      </c>
+      <c r="AR224">
+        <v>1.23</v>
+      </c>
+      <c r="AS224">
+        <v>1</v>
+      </c>
+      <c r="AT224">
+        <v>2.23</v>
+      </c>
+      <c r="AU224">
+        <v>7</v>
+      </c>
+      <c r="AV224">
+        <v>4</v>
+      </c>
+      <c r="AW224">
+        <v>7</v>
+      </c>
+      <c r="AX224">
+        <v>2</v>
+      </c>
+      <c r="AY224">
+        <v>14</v>
+      </c>
+      <c r="AZ224">
+        <v>6</v>
+      </c>
+      <c r="BA224">
+        <v>12</v>
+      </c>
+      <c r="BB224">
+        <v>5</v>
+      </c>
+      <c r="BC224">
+        <v>17</v>
+      </c>
+      <c r="BD224">
+        <v>1.78</v>
+      </c>
+      <c r="BE224">
+        <v>7.9</v>
+      </c>
+      <c r="BF224">
+        <v>2.62</v>
+      </c>
+      <c r="BG224">
+        <v>1.45</v>
+      </c>
+      <c r="BH224">
+        <v>2.41</v>
+      </c>
+      <c r="BI224">
+        <v>1.85</v>
+      </c>
+      <c r="BJ224">
+        <v>1.83</v>
+      </c>
+      <c r="BK224">
+        <v>2.38</v>
+      </c>
+      <c r="BL224">
+        <v>1.46</v>
+      </c>
+      <c r="BM224">
+        <v>3.28</v>
+      </c>
+      <c r="BN224">
+        <v>1.25</v>
+      </c>
+      <c r="BO224">
+        <v>4.25</v>
+      </c>
+      <c r="BP224">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['26', '59']</t>
   </si>
   <si>
     <t>['34', '45+4', '46']</t>
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP224"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1540,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1743,7 +1746,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2361,7 +2364,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2567,7 +2570,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>1.62</v>
@@ -2773,7 +2776,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2851,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ8">
         <v>1.57</v>
@@ -3185,7 +3188,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>2.2</v>
@@ -3391,7 +3394,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3803,7 +3806,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4009,7 +4012,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4215,7 +4218,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>3.25</v>
@@ -4421,7 +4424,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>5.5</v>
@@ -4708,7 +4711,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5245,7 +5248,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5451,7 +5454,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>2.25</v>
@@ -6069,7 +6072,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>3.5</v>
@@ -6275,7 +6278,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -6353,7 +6356,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ25">
         <v>1.54</v>
@@ -7305,7 +7308,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -8541,7 +8544,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8622,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8747,7 +8750,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9365,7 +9368,7 @@
         <v>107</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9443,7 +9446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9777,7 +9780,7 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9983,7 +9986,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10395,7 +10398,7 @@
         <v>110</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10807,7 +10810,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>4.75</v>
@@ -11219,7 +11222,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>2.6</v>
@@ -11506,7 +11509,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR50">
         <v>1.6</v>
@@ -11631,7 +11634,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>2.38</v>
@@ -11837,7 +11840,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12043,7 +12046,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12739,7 +12742,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13073,7 +13076,7 @@
         <v>89</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13279,7 +13282,7 @@
         <v>119</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>3.75</v>
@@ -13691,7 +13694,7 @@
         <v>105</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>3.6</v>
@@ -14721,7 +14724,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15957,7 +15960,7 @@
         <v>125</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>1.73</v>
@@ -16035,7 +16038,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ72">
         <v>0.6899999999999999</v>
@@ -16244,7 +16247,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ73">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR73">
         <v>1.04</v>
@@ -16369,7 +16372,7 @@
         <v>126</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>3.4</v>
@@ -16575,7 +16578,7 @@
         <v>89</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16781,7 +16784,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17193,7 +17196,7 @@
         <v>127</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -17605,7 +17608,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -18510,7 +18513,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ84">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR84">
         <v>1.22</v>
@@ -18635,7 +18638,7 @@
         <v>89</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18841,7 +18844,7 @@
         <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -19047,7 +19050,7 @@
         <v>132</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
@@ -19125,7 +19128,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ87">
         <v>1.23</v>
@@ -19459,7 +19462,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19665,7 +19668,7 @@
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19871,7 +19874,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>3.4</v>
@@ -20077,7 +20080,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>3.25</v>
@@ -20283,7 +20286,7 @@
         <v>89</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>3.25</v>
@@ -21313,7 +21316,7 @@
         <v>137</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21519,7 +21522,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>2.65</v>
@@ -21725,7 +21728,7 @@
         <v>138</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>6.5</v>
@@ -21931,7 +21934,7 @@
         <v>139</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -22137,7 +22140,7 @@
         <v>140</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2.35</v>
@@ -22218,7 +22221,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR102">
         <v>1.53</v>
@@ -22549,7 +22552,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>4.75</v>
@@ -23245,7 +23248,7 @@
         <v>0.2</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ107">
         <v>0.67</v>
@@ -23373,7 +23376,7 @@
         <v>120</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23785,7 +23788,7 @@
         <v>89</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23991,7 +23994,7 @@
         <v>89</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -25433,7 +25436,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.6</v>
@@ -25717,7 +25720,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ119">
         <v>1.18</v>
@@ -25845,7 +25848,7 @@
         <v>148</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>2.95</v>
@@ -26132,7 +26135,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR121">
         <v>0.9399999999999999</v>
@@ -26257,7 +26260,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>6.25</v>
@@ -26463,7 +26466,7 @@
         <v>150</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.15</v>
@@ -27905,7 +27908,7 @@
         <v>152</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28111,7 +28114,7 @@
         <v>153</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>2.85</v>
@@ -28729,7 +28732,7 @@
         <v>155</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>2.13</v>
@@ -29347,7 +29350,7 @@
         <v>158</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -29553,7 +29556,7 @@
         <v>89</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -29759,7 +29762,7 @@
         <v>89</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>3.6</v>
@@ -29840,7 +29843,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR139">
         <v>0.97</v>
@@ -29965,7 +29968,7 @@
         <v>89</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>3.7</v>
@@ -30171,7 +30174,7 @@
         <v>159</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>4.1</v>
@@ -30377,7 +30380,7 @@
         <v>160</v>
       </c>
       <c r="P142" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q142">
         <v>2.31</v>
@@ -30455,7 +30458,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ142">
         <v>1.55</v>
@@ -30789,7 +30792,7 @@
         <v>162</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>6.6</v>
@@ -30995,7 +30998,7 @@
         <v>163</v>
       </c>
       <c r="P145" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q145">
         <v>2.55</v>
@@ -31613,7 +31616,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>2.85</v>
@@ -31819,7 +31822,7 @@
         <v>89</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>5.5</v>
@@ -32025,7 +32028,7 @@
         <v>166</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>2.55</v>
@@ -32437,7 +32440,7 @@
         <v>167</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>2.21</v>
@@ -33055,7 +33058,7 @@
         <v>170</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>4.31</v>
@@ -33673,7 +33676,7 @@
         <v>173</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q158">
         <v>4.51</v>
@@ -33751,7 +33754,7 @@
         <v>1.71</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ158">
         <v>1.52</v>
@@ -34085,7 +34088,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q160">
         <v>4.28</v>
@@ -34291,7 +34294,7 @@
         <v>89</v>
       </c>
       <c r="P161" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q161">
         <v>3.1</v>
@@ -34909,7 +34912,7 @@
         <v>105</v>
       </c>
       <c r="P164" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q164">
         <v>3.08</v>
@@ -35321,7 +35324,7 @@
         <v>89</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>4.33</v>
@@ -35399,7 +35402,7 @@
         <v>1.41</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ166">
         <v>1.48</v>
@@ -35939,7 +35942,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -36020,7 +36023,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ169">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AR169">
         <v>1.06</v>
@@ -36351,7 +36354,7 @@
         <v>108</v>
       </c>
       <c r="P171" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36557,7 +36560,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q172">
         <v>3.95</v>
@@ -36969,7 +36972,7 @@
         <v>179</v>
       </c>
       <c r="P174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q174">
         <v>7</v>
@@ -37175,7 +37178,7 @@
         <v>180</v>
       </c>
       <c r="P175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q175">
         <v>7.03</v>
@@ -37381,7 +37384,7 @@
         <v>181</v>
       </c>
       <c r="P176" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q176">
         <v>3.05</v>
@@ -37668,7 +37671,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ177">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AR177">
         <v>1.26</v>
@@ -37793,7 +37796,7 @@
         <v>182</v>
       </c>
       <c r="P178" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38205,7 +38208,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q180">
         <v>2.9</v>
@@ -38617,7 +38620,7 @@
         <v>184</v>
       </c>
       <c r="P182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q182">
         <v>5.4</v>
@@ -38695,7 +38698,7 @@
         <v>2.35</v>
       </c>
       <c r="AP182">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ182">
         <v>2.24</v>
@@ -39029,7 +39032,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39235,7 +39238,7 @@
         <v>186</v>
       </c>
       <c r="P185" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q185">
         <v>4.2</v>
@@ -39316,7 +39319,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ185">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AR185">
         <v>1.26</v>
@@ -39853,7 +39856,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q188">
         <v>4.65</v>
@@ -40059,7 +40062,7 @@
         <v>89</v>
       </c>
       <c r="P189" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q189">
         <v>3.89</v>
@@ -40265,7 +40268,7 @@
         <v>187</v>
       </c>
       <c r="P190" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q190">
         <v>1.94</v>
@@ -40471,7 +40474,7 @@
         <v>188</v>
       </c>
       <c r="P191" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q191">
         <v>4.12</v>
@@ -40552,7 +40555,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ191">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AR191">
         <v>1.56</v>
@@ -40677,7 +40680,7 @@
         <v>189</v>
       </c>
       <c r="P192" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q192">
         <v>3.18</v>
@@ -40755,7 +40758,7 @@
         <v>1.19</v>
       </c>
       <c r="AP192">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ192">
         <v>1.08</v>
@@ -40883,7 +40886,7 @@
         <v>190</v>
       </c>
       <c r="P193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q193">
         <v>4.49</v>
@@ -41295,7 +41298,7 @@
         <v>89</v>
       </c>
       <c r="P195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q195">
         <v>3.78</v>
@@ -41707,7 +41710,7 @@
         <v>191</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q197">
         <v>3.47</v>
@@ -41991,7 +41994,7 @@
         <v>1.67</v>
       </c>
       <c r="AP198">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ198">
         <v>1.68</v>
@@ -42325,7 +42328,7 @@
         <v>192</v>
       </c>
       <c r="P200" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q200">
         <v>5.95</v>
@@ -42531,7 +42534,7 @@
         <v>89</v>
       </c>
       <c r="P201" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q201">
         <v>3.5</v>
@@ -42609,7 +42612,7 @@
         <v>2.14</v>
       </c>
       <c r="AP201">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AQ201">
         <v>2.24</v>
@@ -42737,7 +42740,7 @@
         <v>140</v>
       </c>
       <c r="P202" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q202">
         <v>3.91</v>
@@ -42943,7 +42946,7 @@
         <v>193</v>
       </c>
       <c r="P203" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43149,7 +43152,7 @@
         <v>89</v>
       </c>
       <c r="P204" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q204">
         <v>2.81</v>
@@ -43561,7 +43564,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q206">
         <v>2.9</v>
@@ -43973,7 +43976,7 @@
         <v>89</v>
       </c>
       <c r="P208" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q208">
         <v>4.5</v>
@@ -44257,7 +44260,7 @@
         <v>1.05</v>
       </c>
       <c r="AP209">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ209">
         <v>0.96</v>
@@ -44385,7 +44388,7 @@
         <v>195</v>
       </c>
       <c r="P210" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q210">
         <v>5.99</v>
@@ -44466,7 +44469,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ210">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AR210">
         <v>1.45</v>
@@ -44797,7 +44800,7 @@
         <v>89</v>
       </c>
       <c r="P212" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -45209,7 +45212,7 @@
         <v>128</v>
       </c>
       <c r="P214" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q214">
         <v>3.3</v>
@@ -45621,7 +45624,7 @@
         <v>199</v>
       </c>
       <c r="P216" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q216">
         <v>3.2</v>
@@ -46239,7 +46242,7 @@
         <v>127</v>
       </c>
       <c r="P219" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q219">
         <v>3.9</v>
@@ -46526,7 +46529,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ220">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR220">
         <v>1.76</v>
@@ -46651,7 +46654,7 @@
         <v>202</v>
       </c>
       <c r="P221" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q221">
         <v>3.21</v>
@@ -46857,7 +46860,7 @@
         <v>203</v>
       </c>
       <c r="P222" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q222">
         <v>4.2</v>
@@ -47426,6 +47429,212 @@
       </c>
       <c r="BP224">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7853042</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45808.58333333334</v>
+      </c>
+      <c r="F225">
+        <v>9</v>
+      </c>
+      <c r="G225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225" t="s">
+        <v>74</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>204</v>
+      </c>
+      <c r="P225" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q225">
+        <v>2.17</v>
+      </c>
+      <c r="R225">
+        <v>2.12</v>
+      </c>
+      <c r="S225">
+        <v>5.8</v>
+      </c>
+      <c r="T225">
+        <v>1.35</v>
+      </c>
+      <c r="U225">
+        <v>2.8</v>
+      </c>
+      <c r="V225">
+        <v>3.15</v>
+      </c>
+      <c r="W225">
+        <v>1.35</v>
+      </c>
+      <c r="X225">
+        <v>6</v>
+      </c>
+      <c r="Y225">
+        <v>1.08</v>
+      </c>
+      <c r="Z225">
+        <v>1.61</v>
+      </c>
+      <c r="AA225">
+        <v>3.4</v>
+      </c>
+      <c r="AB225">
+        <v>4.8</v>
+      </c>
+      <c r="AC225">
+        <v>1.07</v>
+      </c>
+      <c r="AD225">
+        <v>8</v>
+      </c>
+      <c r="AE225">
+        <v>1.36</v>
+      </c>
+      <c r="AF225">
+        <v>2.8</v>
+      </c>
+      <c r="AG225">
+        <v>2.14</v>
+      </c>
+      <c r="AH225">
+        <v>1.72</v>
+      </c>
+      <c r="AI225">
+        <v>1.87</v>
+      </c>
+      <c r="AJ225">
+        <v>1.77</v>
+      </c>
+      <c r="AK225">
+        <v>1.04</v>
+      </c>
+      <c r="AL225">
+        <v>1.2</v>
+      </c>
+      <c r="AM225">
+        <v>2.16</v>
+      </c>
+      <c r="AN225">
+        <v>1.78</v>
+      </c>
+      <c r="AO225">
+        <v>1.33</v>
+      </c>
+      <c r="AP225">
+        <v>1.83</v>
+      </c>
+      <c r="AQ225">
+        <v>1.28</v>
+      </c>
+      <c r="AR225">
+        <v>1.43</v>
+      </c>
+      <c r="AS225">
+        <v>1.24</v>
+      </c>
+      <c r="AT225">
+        <v>2.67</v>
+      </c>
+      <c r="AU225">
+        <v>3</v>
+      </c>
+      <c r="AV225">
+        <v>4</v>
+      </c>
+      <c r="AW225">
+        <v>6</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>9</v>
+      </c>
+      <c r="AZ225">
+        <v>8</v>
+      </c>
+      <c r="BA225">
+        <v>2</v>
+      </c>
+      <c r="BB225">
+        <v>3</v>
+      </c>
+      <c r="BC225">
+        <v>5</v>
+      </c>
+      <c r="BD225">
+        <v>0</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>0</v>
+      </c>
+      <c r="BG225">
+        <v>1.39</v>
+      </c>
+      <c r="BH225">
+        <v>2.58</v>
+      </c>
+      <c r="BI225">
+        <v>1.62</v>
+      </c>
+      <c r="BJ225">
+        <v>2.05</v>
+      </c>
+      <c r="BK225">
+        <v>2.35</v>
+      </c>
+      <c r="BL225">
+        <v>1.68</v>
+      </c>
+      <c r="BM225">
+        <v>2.43</v>
+      </c>
+      <c r="BN225">
+        <v>1.44</v>
+      </c>
+      <c r="BO225">
+        <v>0</v>
+      </c>
+      <c r="BP225">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Egypt Egyptian Premier League_20242025.xlsx
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="AY2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1851,19 +1851,19 @@
         <v>9</v>
       </c>
       <c r="AY3">
+        <v>4</v>
+      </c>
+      <c r="AZ3">
+        <v>14</v>
+      </c>
+      <c r="BA3">
         <v>6</v>
-      </c>
-      <c r="AZ3">
-        <v>16</v>
-      </c>
-      <c r="BA3">
-        <v>8</v>
       </c>
       <c r="BB3">
         <v>8</v>
       </c>
       <c r="BC3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD3">
         <v>2.68</v>
@@ -2057,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="AY4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -2263,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="AY5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5">
         <v>10</v>
@@ -2469,10 +2469,10 @@
         <v>5</v>
       </c>
       <c r="AY6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2675,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA7">
         <v>6</v>
@@ -2884,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA8">
         <v>3</v>
@@ -3087,10 +3087,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA9">
         <v>2</v>
@@ -3293,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA10">
         <v>2</v>
@@ -3499,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="AY11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>8</v>
@@ -3705,10 +3705,10 @@
         <v>4</v>
       </c>
       <c r="AY12">
+        <v>5</v>
+      </c>
+      <c r="AZ12">
         <v>6</v>
-      </c>
-      <c r="AZ12">
-        <v>7</v>
       </c>
       <c r="BA12">
         <v>2</v>
@@ -3911,10 +3911,10 @@
         <v>3</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>2</v>
       </c>
       <c r="AY14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA14">
         <v>6</v>
@@ -4323,10 +4323,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA15">
         <v>8</v>
@@ -4529,10 +4529,10 @@
         <v>8</v>
       </c>
       <c r="AY16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA16">
         <v>1</v>
@@ -4735,10 +4735,10 @@
         <v>4</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -4941,10 +4941,10 @@
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA18">
         <v>4</v>
@@ -5147,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA19">
         <v>11</v>
@@ -5353,10 +5353,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -5559,10 +5559,10 @@
         <v>7</v>
       </c>
       <c r="AY21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA21">
         <v>7</v>
@@ -5765,10 +5765,10 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -5971,10 +5971,10 @@
         <v>8</v>
       </c>
       <c r="AY23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -6177,10 +6177,10 @@
         <v>2</v>
       </c>
       <c r="AY24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -6383,10 +6383,10 @@
         <v>5</v>
       </c>
       <c r="AY25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA25">
         <v>6</v>
@@ -6589,19 +6589,19 @@
         <v>12</v>
       </c>
       <c r="AY26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA26">
         <v>6</v>
       </c>
       <c r="BB26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD26">
         <v>1.59</v>
@@ -6795,10 +6795,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -7004,7 +7004,7 @@
         <v>5</v>
       </c>
       <c r="AZ28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA28">
         <v>2</v>
@@ -7207,7 +7207,7 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
         <v>5</v>
@@ -7413,10 +7413,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7619,10 +7619,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -7828,16 +7828,16 @@
         <v>8</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB32">
         <v>10</v>
       </c>
       <c r="BC32">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BD32">
         <v>2.78</v>
@@ -8031,7 +8031,7 @@
         <v>5</v>
       </c>
       <c r="AY33">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ33">
         <v>8</v>
@@ -8237,10 +8237,10 @@
         <v>2</v>
       </c>
       <c r="AY34">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA34">
         <v>10</v>
@@ -8443,10 +8443,10 @@
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8649,10 +8649,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA36">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         <v>5</v>
       </c>
       <c r="AZ37">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA37">
         <v>2</v>
@@ -9061,10 +9061,10 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -9267,19 +9267,19 @@
         <v>8</v>
       </c>
       <c r="AY39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ39">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BB39">
         <v>8</v>
       </c>
       <c r="BC39">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD39">
         <v>0</v>
@@ -9473,10 +9473,10 @@
         <v>6</v>
       </c>
       <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
         <v>13</v>
-      </c>
-      <c r="AZ40">
-        <v>14</v>
       </c>
       <c r="BA40">
         <v>2</v>
@@ -9679,10 +9679,10 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9885,10 +9885,10 @@
         <v>5</v>
       </c>
       <c r="AY42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -10091,10 +10091,10 @@
         <v>2</v>
       </c>
       <c r="AY43">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ43">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -10297,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="AY44">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ44">
         <v>5</v>
@@ -10503,10 +10503,10 @@
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ45">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA45">
         <v>0</v>
@@ -10709,10 +10709,10 @@
         <v>2</v>
       </c>
       <c r="AY46">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA46">
         <v>4</v>
@@ -10915,10 +10915,10 @@
         <v>8</v>
       </c>
       <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
         <v>13</v>
-      </c>
-      <c r="AZ47">
-        <v>16</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -11121,10 +11121,10 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ48">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>6</v>
@@ -11327,7 +11327,7 @@
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ49">
         <v>10</v>
@@ -11533,10 +11533,10 @@
         <v>2</v>
       </c>
       <c r="AY50">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA50">
         <v>13</v>
@@ -11739,10 +11739,10 @@
         <v>2</v>
       </c>
       <c r="AY51">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -11945,10 +11945,10 @@
         <v>6</v>
       </c>
       <c r="AY52">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ52">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA52">
         <v>3</v>
@@ -12151,10 +12151,10 @@
         <v>3</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ53">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA53">
         <v>8</v>
@@ -12357,10 +12357,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA54">
         <v>3</v>
@@ -12563,10 +12563,10 @@
         <v>10</v>
       </c>
       <c r="AY55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA55">
         <v>2</v>
@@ -12769,10 +12769,10 @@
         <v>3</v>
       </c>
       <c r="AY56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA56">
         <v>9</v>
@@ -12975,10 +12975,10 @@
         <v>8</v>
       </c>
       <c r="AY57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ57">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -13181,10 +13181,10 @@
         <v>6</v>
       </c>
       <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
         <v>11</v>
-      </c>
-      <c r="AZ58">
-        <v>17</v>
       </c>
       <c r="BA58">
         <v>2</v>
@@ -13387,7 +13387,7 @@
         <v>4</v>
       </c>
       <c r="AY59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ59">
         <v>9</v>
@@ -13593,7 +13593,7 @@
         <v>2</v>
       </c>
       <c r="AY60">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ60">
         <v>8</v>
@@ -13799,19 +13799,19 @@
         <v>5</v>
       </c>
       <c r="AY61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ61">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA61">
         <v>8</v>
       </c>
       <c r="BB61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC61">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BD61">
         <v>1.99</v>
@@ -14005,7 +14005,7 @@
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ62">
         <v>7</v>
@@ -14211,10 +14211,10 @@
         <v>2</v>
       </c>
       <c r="AY63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA63">
         <v>3</v>
@@ -14417,10 +14417,10 @@
         <v>7</v>
       </c>
       <c r="AY64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA64">
         <v>3</v>
@@ -14623,10 +14623,10 @@
         <v>4</v>
       </c>
       <c r="AY65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ65">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14829,10 +14829,10 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA66">
         <v>8</v>
@@ -15035,10 +15035,10 @@
         <v>7</v>
       </c>
       <c r="AY67">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -15241,10 +15241,10 @@
         <v>6</v>
       </c>
       <c r="AY68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ68">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA68">
         <v>3</v>
@@ -16065,10 +16065,10 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA72">
         <v>1</v>
@@ -16271,10 +16271,10 @@
         <v>7</v>
       </c>
       <c r="AY73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>6</v>
@@ -17925,13 +17925,13 @@
         <v>11</v>
       </c>
       <c r="BA81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB81">
         <v>8</v>
       </c>
       <c r="BC81">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD81">
         <v>0</v>
@@ -21015,13 +21015,13 @@
         <v>12</v>
       </c>
       <c r="BA96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB96">
         <v>5</v>
       </c>
       <c r="BC96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD96">
         <v>2.03</v>
@@ -26777,10 +26777,10 @@
         <v>3</v>
       </c>
       <c r="AY124">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA124">
         <v>1</v>
@@ -35429,10 +35429,10 @@
         <v>10</v>
       </c>
       <c r="AY166">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ166">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA166">
         <v>2</v>
@@ -35635,10 +35635,10 @@
         <v>8</v>
       </c>
       <c r="AY167">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ167">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA167">
         <v>3</v>
@@ -38931,7 +38931,7 @@
         <v>3</v>
       </c>
       <c r="AY183">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ183">
         <v>3</v>
@@ -39961,10 +39961,10 @@
         <v>6</v>
       </c>
       <c r="AY188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ188">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA188">
         <v>1</v>
@@ -42027,13 +42027,13 @@
         <v>17</v>
       </c>
       <c r="BA198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB198">
         <v>4</v>
       </c>
       <c r="BC198">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD198">
         <v>2.39</v>
@@ -43669,7 +43669,7 @@
         <v>5</v>
       </c>
       <c r="AY206">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ206">
         <v>14</v>
@@ -43875,7 +43875,7 @@
         <v>2</v>
       </c>
       <c r="AY207">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ207">
         <v>4</v>
